--- a/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
+++ b/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaidc\Documents\Github\12-DOF-Quadruped\Calculation solvers\Housing combined loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270F6E5-6695-4893-A66D-77D123C83C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD10D2-C24C-4253-95A6-50D57E48D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{CA3A924D-1B74-47FA-8478-8B12608BBBB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{CA3A924D-1B74-47FA-8478-8B12608BBBB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Torsion" sheetId="1" r:id="rId1"/>
@@ -1700,22 +1700,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">47726 54743,'0'0,"0"4,0 10,0 2,0 6,4-6,2 9,-2-4,6-2,-2-5,2-2,2-4,0-8,3 0,-1 0,-4-11,2-4,-4-6,-4 4,-4 0,0 3,0 4,0 7,0-2,0 10,8 4,4 1,6 0,2 3,4-6,7-1,-8-4,-1-2,-6 0,-2 0,-8-2,0-11,-4-4,-2-3,0 0,0 0,-2 0,-6-5,0 8,0-6,0 3,6 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">53464 54688,'0'0,"-10"-15,10 20,0 9,0 7,2 0,-2 4,6 1,-4-4,4-4,0-3,4-7,-4-3,2-5,-2 0,0-5,-4-12,-2-1,0-2,0 0,0 2,0 6,0 3,-2-1,2 12,2 9,6 3,6 1,2 2,-2-1,0-4,7 0,-9-4,-2-6,0-2,2 0,0-8,-2-6,-8-4,2-2,-4 2,0-3,0 2,-4 4,2 3,-4 2,2 5,0 5,0 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">53147 54755,'0'0,"4"0,6 0,-4 0,8 0,2 0,-2 0,0 0,6 4,-2-2,-8 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">47865 56034,'0'0,"-2"0,4 0,8 0,0-2,0 0,2 2,0 0,-2 0,4 0,3 0,10 0,-1 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">48442 56902,'0'0,"6"18,-6-16,0-2,0 2,-2 2,-2-2,-4 2,4 4,-4-2,2 4,-1-1,1-3,4-1,2-3,0-9,8-6,1 1,-1 0,2-2,-2 0,2-1,-2 6,-2 1,-1 2,-1 2,-2 4,0 0,-2 0,2 0,2 2,0 4,0-2,4 4,-4-1,6 2,2-3,-4 2,6-2,3 2,-3-4,8 4,-8-2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">48497 56934,'0'0,"-18"43,9-21,-3-6,2 8,-2-8,10-2,2-2,0 0,10-3,6-3,3-1,7 1,-4 2,-2 1,-1 1,-11 3,-4 6,-4 2,-4 2,-9-1,3 3,4-6,2 2,4-5,6-2,8 0,3-2,5 0,-4 2,0-1,0 3,-6-3,-4 4,-2-2,-4 2,0-3,0-1,2 0,0 4,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">50571 57804,'0'0,"-8"28,10-13,6 6,0-4,4-1,0 0,2 0,0-8,-2 4,2-8,-8 0,0-4,-4 0,2-8,0-4,-2-2,-2-5,0 2,0-2,0 8,-4 3,0 0,2 8,0 0,0 0,2 8,0 0,4-1,6 4,2 3,3-6,1 6,0-6,0-2,2-2,-6 0,2-4,-6 0,-2-4,-4-4,-2-2,0-4,0-2,-6-8,-2 6,-2-3,2 5,2 4,-2 2,2 4,2 4,0 2,2 0,0 0,4 4,4 6,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">50925 57792,'0'0,"4"30,-4-9,0-3,0 6,4-8,-2-2,2-2,2-6,5-2,-1-4,10 0,-4-6,3 2,-3-4,-2 6,0 0,-4 2,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">48863 57877,'0'0,"-6"-5,6 10,2 5,0 2,4 4,-1 2,7 2,-8 0,6-1,-2-2,0-4,-6 1,6-4,-6-6,2 4,-4-18,-4-2,0-2,-4-3,2 0,0-4,2 4,0 2,-2-3,2 6,4 0,0 4,0 0,0 3,0 3,0 6,4 7,6 1,-2 6,2-4,2 1,0 0,0-1,0-5,-5-1,1-4,0-2,-4-2,0 0,-4-2,0-6,0-5,-4 1,-2-5,0-2,0-3,-1 4,7-3,-2 6,-2 6,4 3,0 0,0 6,6 8,3 3,5 8,0 0,2 4,1-2,-1 3,-2-4,0 1,-2-1,6-4,-4-3,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">50292 57905,'0'0,"30"-6,-18 2,2 4,0-2,4 2,3-4,-3 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49862 57917,'0'0,"36"-6,-26 6,2 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49892 57982,'0'0,"44"-9,-35 9,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49219 58094,'0'0,"-8"-15,8 12,0 8,0 2,2 5,4-2,-4 3,6-4,-2 1,-4-8,-2 5,6-7,-4 0,-2 0,0-9,0 1,0-3,0-2,0 1,-8 0,8 2,0 2,0 2,0 0,0 4,0 2,8 8,-4-2,4 2,-2 2,4-4,-6 2,4-2,-6 1,4-3,-2-4,-2 0,-2 0,0-7,0-1,0 0,0 2,0 4,0-3,0 0,0 5,2 0,4 0,-2 7,2-2,-2 5,5-4,-1 3,-4-1,6 0,-4-1,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49671 58088,'0'0,"-43"6,35 6,-2 1,2 2,2 2,0-5,6 1,0-2,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49450 58125,'0'0,"4"-12,-4 12,0-3,-4-3,0 6,-2 0,0 0,2 0,-2 0,4 4,0 1,0 1,2-4,0 4,0-3,0 1,4-4,0 0,2 0,0 0,0 0,-4-2,-2 0,6-1,-4 3,-2 0,2 0,0 0,2 0,-4 0,7 3,-5 1,4-2,1 4,-3-6,2 9,-2-7,0 4,2-6,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49556 58125,'0'0,"16"5,-8-1,-6 4,6-6,2 5,-2 1,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47726 54742,'0'0,"0"3,0 11,0 2,0 6,4-7,2 10,-2-4,6-3,-2-4,2-2,2-4,0-8,3 0,-1 0,-4-11,2-4,-4-5,-4 3,-4 0,0 3,0 4,0 8,0-3,0 10,8 3,5 2,5 0,2 3,4-6,7-1,-8-4,-1-2,-6 0,-2 0,-8-2,0-11,-4-4,-2-3,0 1,0-1,-2 0,-6-4,0 7,0-6,0 4,6 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53484 54687,'0'0,"-10"-14,10 19,0 8,0 8,2 0,-2 3,6 2,-4-4,4-5,0-2,4-7,-4-3,2-5,-2 0,0-5,-4-12,-2-1,0-1,0-1,0 2,0 7,0 2,-2-1,2 12,2 9,6 2,7 2,1 2,-2-1,0-5,7 1,-9-4,-2-6,0-2,2 0,0-8,-2-6,-8-3,2-3,-4 2,0-2,0 1,-4 4,2 3,-4 3,2 4,0 5,0 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53166 54753,'0'0,"4"0,6 0,-4 0,8 0,2 0,-2 0,0 0,6 4,-1-2,-9 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47865 56012,'0'0,"-2"0,4 0,9 0,-1-2,0 0,2 2,0 0,-2 0,4 0,3 0,10 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48445 56866,'0'0,"6"18,-6-17,0-1,0 2,-2 2,-2-2,-4 2,3 4,-3-2,2 4,-1-1,1-3,4-1,2-3,0-9,8-6,1 1,-1 0,3-2,-3 1,2-2,-2 6,-2 1,-1 2,-1 2,-2 4,0 0,-2 0,2 0,2 2,0 4,0-2,4 4,-4-1,6 2,2-3,-4 2,6-3,3 3,-3-4,8 4,-8-2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48500 56897,'0'0,"-18"43,9-22,-3-5,2 8,-2-9,10-1,2-2,0 0,10-3,6-4,3 0,7 1,-4 2,-2 1,-1 1,-11 3,-4 5,-4 3,-4 2,-9-2,3 4,4-6,2 1,4-4,6-2,8 0,3-3,5 1,-4 2,0-1,0 2,-6-2,-4 4,-2-2,-4 1,0-2,0-1,2 0,0 4,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50581 57753,'0'0,"-8"28,10-13,6 5,0-3,4-1,0-1,2 1,0-8,-2 4,2-8,-8 0,0-4,-4 0,2-8,0-4,-2-2,-2-4,0 1,0-2,0 8,-4 4,0-1,2 8,0 0,0 0,2 8,0-1,4 0,6 4,2 3,4-6,0 6,0-7,0-1,2-2,-6 0,2-4,-6 0,-2-4,-4-4,-2-1,0-5,0-2,-6-8,-2 7,-2-4,2 5,2 4,-2 3,2 3,2 4,0 2,2 0,0 0,4 4,4 6,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50936 57741,'0'0,"4"30,-4-9,0-4,0 7,4-8,-2-2,2-3,2-5,5-2,-1-4,11 0,-5-6,3 2,-3-4,-2 6,0 1,-4 1,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48867 57825,'0'0,"-6"-5,6 10,2 5,0 2,4 4,-1 1,7 3,-8 0,6-2,-2-1,0-4,-6 1,6-5,-6-5,2 4,-4-18,-4-1,0-3,-4-3,2 0,0-3,2 3,0 2,-2-3,2 7,4-1,0 4,0 0,0 3,0 3,0 6,4 7,6 1,-2 6,2-5,2 2,0 0,0-1,0-6,-5 0,1-4,0-2,-4-2,0 0,-4-2,0-6,0-4,-4 0,-2-5,0-2,0-2,-1 3,7-3,-2 7,-2 5,4 3,0 0,0 6,6 8,3 3,5 7,1 1,1 4,1-3,-1 4,-2-4,0 0,-2 0,6-4,-4-4,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50301 57853,'0'0,"30"-6,-18 2,2 4,0-2,4 2,3-4,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49870 57864,'0'0,"36"-5,-26 5,2 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49900 57928,'0'0,"44"-8,-35 8,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49224 58039,'0'0,"-8"-15,8 12,0 8,0 2,2 5,4-3,-4 4,6-4,-2 1,-4-8,-2 5,6-7,-4 0,-2 0,0-9,0 1,0-3,0-2,0 2,-8-1,8 2,0 2,0 2,0 0,0 4,0 2,8 8,-4-2,4 2,-2 2,4-4,-6 2,5-3,-7 2,4-3,-2-4,-2 0,-2 0,0-7,0 0,0-1,0 2,0 4,0-3,0 0,0 5,2 0,4 0,-2 7,2-2,-2 5,5-5,-1 4,-4-1,6 0,-4-1,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49678 58033,'0'0,"-43"6,35 5,-2 2,2 2,2 2,0-5,6 0,0-1,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49456 58069,'0'0,"4"-12,-4 12,0-3,-4-3,0 6,-2 0,0 0,2 0,-2 0,4 4,0 1,0 1,2-4,0 4,0-3,0 1,4-4,0 0,2 0,0 0,0 0,-4-2,-2 0,6-1,-4 3,-2 0,2 0,0 0,2 0,-4 0,7 3,-5 1,4-2,1 4,-3-6,2 9,-2-7,0 4,2-6,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49562 58069,'0'0,"17"5,-9-1,-6 4,6-6,2 5,-2 1,0-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2052,115 +2052,115 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5072 49828,'0'0,"22"9,-9 0,-1 7,0 1,0 6,0-1,0-2,-6 0,2-4,-4-5,2-1,0-6,-4 2,0-6,0-8,-2-6,0-4,0-1,0-7,0 4,0 2,4 0,4 2,-2 9,4-4,0 3,0 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5884 49998,'0'2484,"6019"-2484</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5010 50925,'0'0,"0"4,0 6,2 1,0 1,0 2,2 2,2 8,-4-7,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5296 51073,'0'0,"66"-17,-46 17,-1 0,-7 4,1 7,-11 1,-2-4,0 6,-4 0,-9-6,0 0,-1 0,-2-2,8-4,-6-2,6 0,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5326 51073,'0'0,"-4"54,10-34,0 0,-4 3,8 2,-2-5,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4988 51133,'0'0,"66"-12,-46 12,-4-4,5 2,-5 0,6 0,-8 2,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5072 51239,'0'0,"16"-16,-6 16,-8 0,5 0,-1 0,-4 6,-2 2,0-2,0 2,0 2,0 2,-6 2,-3-2,3-1,-2-3,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,3-6,-1 4,0 2,6-4,-2 2,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5944 51239,'3244'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9190 51275,'0'2393</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8685 52086,'0'0,"8"48,-6-34,-2-5,8 7,-6-6,4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8818 52110,'0'0,"-44"55,27-31,1-1,-4 15,10-8,-4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8988 52112,'0'0,"12"49,-12-33,0 0,0-1,0 1,0 1,0-2,-2-3,2 0,0-6,0 2,0-6,6-2,-2 0,2 0,0 0,0 0,2 0,2 0,-1 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11863 52134,'0'0,"0"16,0-5,4 1,-4 4,0-1,0 1,0 3,0 0,0-3,0 1,-4-1,4-6,0-2,0-1,0-3,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8830 52241,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0-1,0 3,-10 2,-2 1,0 1,-2-6,7 6,-3-9,4 3,2-4,4-4,8-2,4 0,3 0,1-4,0 0,4 2,-8 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12479 52450,'0'0,"-51"50,39-31,-2 5,2-1,6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12344 52465,'0'0,"12"-1,-8 1,2 0,-2 1,0 3,2 4,0-2,0 5,2-1,-2-3,-2 1,2 0,2 0,-4-6,0 4,4-4,1-2,-5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12602 53479,'0'0,"0"8,0-1,0 3,0-1,0 8,0-4,0 7,0 6,0-10,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12990 53530,'0'0,"61"-10,-43 18,0-1,0 3,-8 4,-1 2,-7-2,-2 2,-2-4,-13-3,-1-1,-2-6,-2 2,2-4,1 0,7-4,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12994 53534,'0'0,"2"11,0-7,-2-2,0 4,0 2,0 0,0 8,0 0,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13004 53611,'0'0,"-2"62,2-34,6-2,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12328 53621,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-3,0-1,2 2,-4 2,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12720 53621,'0'0,"-45"50,36-34,-1 4,-12 6,10-2,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9239 53689,'2674'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12710 53757,'0'0,"57"-10,-51 18,-2-6,-4 7,0 1,-2 2,-10 0,2 1,2 0,0-3,-3 2,5-4,-2 4,6-6,-2 0,4-4,0 4,4-6,6 2,0-2,5 0,-1 0,0 0,2 0,-2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5201 54519,'0'0,"0"16,0-8,0 5,0-2,0 4,0 1,0-2,0 2,0-6,6 3,-6-7,6-4,-4 0,4-2,-6 0,4-8,0-1,-4-3,0 2,0-7,0 2,0 0,0-4,0 2,0 1,0 4,0 2,0 4,2 0,0 2,2 4,-2-5,0 5,0 0,4 9,3 1,-3 5,0 2,0 4,2 0,2-4,-4-2,4 2,-6-11,2-2,2-4,-4 0,0-2,0-10,0-4,-2-4,0-2,2-3,-4 6,4 2,-2 7,0 1,0 3,0 6,2 0,2 6,0 1,0 1,2 4,-4 0,1 4,-1 7,-2-4,6 2,-5-1,9 0,-4-7,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5882 54545,'0'2485,"6019"-2485</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10260 55404,'0'0,"8"71,-8-49,4-2,-4 1,0-8,0 4,5-9,-5 2,2-8,0-2,0-2,-2-14,0 6,0-9,0-2,0-4,-2-1,0 0,2 0,0 9,0-1,0 6,0 5,0 3,2-4,4 8,-2 0,0 0,0 8,4 3,-2 9,2-1,0 7,4-4,0-2,-2 0,-2 0,0-7,-2-3,-1-3,-1-5,-2-2,-2 0,0-8,0-5,0-9,0-1,0-7,0 2,0 3,0 1,0 12,0 3,0 1,8 6,-5 0,5 2,2 0,-4 0,4 4,-2 8,-4 1,-2 5,0 3,0 3,2-2,0-2,6 9,-4-5,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9053 55720,'0'0,"39"-36,-19 32,4-5,4-1,0 3,-3 3,-9 4,-8 0,0 7,-8 7,0 3,-8 1,-4 2,2-4,1 0,1-9,8-5,8-2,15-2,-1-11,10-9,1-2,10-2,17 0,17-10,12-4,4 3,-21 16,-10 3,-30 13,-12 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10638 55551,'0'0,"0"-2,0 4,0 4,0 1,0-1,0 9,0-8,2 7,2-4,2 0,-6-6,2 1,2 1,-2-1,-2-5,0 0,0-11,0 2,-6 1,4-2,2 2,-4-2,2 5,2-4,0 3,0-2,0 0,2 5,2 1,-2 0,2 2,-2 0,0 0,2 7,0 1,0 4,0 0,5-2,-7 2,4-2,-2-2,0-4,-2-1,0-3,0 0,-2-7,0-3,4-4,0 0,-2 4,2 0,0-1,0 3,0 6,-4-2,2 4,2 0,-2 0,0 4,4 3,0 1,-1 0,1 3,0-4,2 5,0 2,2-2,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10892 55586,'0'0,"-16"-26,8 25,2 1,4 0,-1 0,-3 0,4 0,-4 1,4 5,-2 0,4 5,0-4,0 1,0 0,6-2,2 0,-1-4,1-2,-2 0,2 0,-2-2,-2-4,-2 2,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 8,2-8,-2 4,4 3,1-5,-3 3,-4-7,2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11128 55559,'0'0,"-31"33,19-15,0 2,0 4,2-3,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10991 55576,'0'0,"68"32,-54-22,0 0,4 1,1 0,-5 0,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9000 55665,'0'0,"-12"33,2-18,-6 0,6 1,-2 0,0-9,6 2,3-1,3-8,7 0,3 0,6 0,4 0,-2 0,4 0,-4 0,1 0,2 0,-3 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 55880,'0'0,"0"-2,0 10,4 0,-2 5,0-3,2 3,-2 0,-2 3,2 1,-2 2,0-3,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5877 56976,'2935'-1063</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8871 55938,'3016'1019</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4986 55968,'0'0,"58"-23,-44 23,-2 0,2 8,-4 7,-2-1,-6 3,1-3,-3 6,0-6,-5-3,-7 3,4-9,-8-3,2-2,0 0,4 0,-4 0,6-3,2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5227 55980,'0'0,"4"7,0-3,-2 4,0-2,-2 2,0 6,0-2,0 7,0-3,0-1,0 0,0 1,0-7,2-1,4-4,3 2,-1-4,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5002 56007,'0'0,"10"51,-8-35,6 6,-8-6,8 1,-8-5,4 0,0-1,-4-6,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56108,'0'0,"56"-10,-35 8,11 2,-12 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4831 56194,'0'0,"-35"42,27-30,0-4,2 2,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-1 0,1 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4863 56210,'0'0,"14"38,-12-24,2 2,-2 1,0-2,-2 1,4-1,0 1,-4-4,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12064 56646,'0'0,"0"8,0 1,2-1,-2 9,0-2,0-1,0 1,0 1,0-6,2 2,-2 0,0-3,2-5,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,1 0,3 0,2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12352 57030,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,-1 6,1 0,-6 4,4 2,-2-2,2 1,2-3,4 4,-2-5,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12539 57032,'0'0,"-54"68,42-53,-2 3,6 3,-1-5,7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8847 57155,'0'0,"8"56,-4-40,2-3,0 8,0-8,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9004 57268,'0'0,"-28"57,20-40,-6 5,6 2,-4-3,2-2,1 6,-1-6,6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9289 57326,'0'0,"2"4,0 4,2 2,0 6,2-1,-2 2,-3 0,-1-2,0-1,0 1,0-6,0-3,2-4,-2 0,4-2,-2 0,4 0,-2 0,4-2,0 0,0 0,5 0,-5 2,2 0,6 0,-4 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8994 57482,'0'0,"50"-31,-39 31,-5 0,1 0,-1 9,-4 1,-2 4,0 0,0-3,-4 2,-5 2,5-5,-4 1,1-1,3-4,2 1,2-5,2-2,2 0,7 0,2 0,-1 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13234 59479,'0'0,"6"48,4-28,-4 2,2 5,-4-2,4-1,2 2,-2-6,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14752 59499,'0'0,"12"46,-4-28,0 5,11 6,-7 1,2-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16218 59519,'0'0,"0"8,4 2,0 3,4 2,0 4,0 0,0-1,3 3,-3-6,0-3,-2 0,0-9,-6-3,0-7,0-1,-6 4,-8 0,4 0,-3 2,1 0,0 2,4 0,-2 0,2 0,0 0,4 0,-2 2,6 4,0-2,0 4,0 0,4-5,6 8,0-5,2 3,4-1,2-4,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16554 59519,'0'0,"6"8,-2 4,-4-1,6 4,-4 2,0 4,2-3,-2 6,2-2,0-1,4 1,0 1,-2-6,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13673 59525,'0'0,"-12"0,12 10,0 5,4-2,4 6,-4-2,6 5,-2 2,4-8,-4 4,0-2,0-1,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17829 59756,'0'0,"-4"-57,0 39,2-10,-4 4,4 0,2 1,0 6,-4 6,4 4,0 3,0-2,0 4,6 2,2 0,2 4,6 7,-2 0,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13121 59629,'0'0,"48"-8,-39 4,1 0,-6-4,2-1,-6 3,0-2,-4 4,-4-3,-7 7,4 0,-5 0,2 3,3 3,-1 0,4-2,0 2,4-1,0 3,2 0,2 4,0 4,2-6,10 4,0 0,4-6,9 0,-4 1,-2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14434 59574,'0'0,"-16"0,10 0,0 0,-2 0,4 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4-1,0-1,0 2,6 0,0-4,6 6,-4-2,2-1,2 2,-8 1,-2 2,-2-2,0 3,0-4,-2-1,-2-4,-4 0,2-2,-2 0,2-4,4-2,0-1,2 4,0-1,0 0,2 0,4 4,2 0,2-4,4 2,2 0,0-2,-2 0,0 2,-3 0,2 0,-1 0,-8-1,4-2,-4-1,2 4,-4-6,4 4,-2 0,-4 2,0-4,-8 6,2 0,-2 0,0 0,-4 2,5 4,-3 2,5 0,-1-2,0 1,6-2,0 1,0 2,2 0,10-4,-3 4,10-5,7-3,0 5,-4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14766 59603,'0'0,"49"-5,-31 5,4 0,0 1,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15763 59598,'0'0,"0"11,0 1,0-2,4 4,4 0,0-2,0 1,-4-2,2-2,-2-5,-2 0,-2-8,0-5,0 1,2-2,-2-2,0 2,2 0,-2 1,2 4,-2-1,2 2,0 2,-2 0,3 2,1 4,-2 2,2 7,0-6,4 5,-8 2,3-7,1 0,-4-5,2 0,0-9,2-2,-4-3,2-4,2 5,-2-2,6 3,-8 4,6 0,-4 6,-2 0,4 0,0 0,-2 10,4-4,2 4,0 3,0-2,0 1,4 0,0 4,-4-3,5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13550 59613,'0'0,"-46"-12,38 12,-2 2,6 0,0-2,4 6,0-4,0 2,4 0,2-2,6 2,0 0,-2 2,0 1,-2-2,0 1,-6 2,4 0,0 0,-6-3,0 2,0-1,0-4,0 3,-4-3,0-2,0 0,2 0,0-2,2-3,0 1,2 0,6-1,8 3,-3-1,13-1,-5-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14668 59605,'0'0,"-33"16,27-8,4 0,-2 2,2-2,2 0,0 0,6 0,8-3,9-5,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15077 59621,'0'0,"-18"32,24-28,6 0,-8-4,8 0,-2 0,-2 0,-6-8,4 0,-6 0,0-2,0 2,0 0,-8 4,-4 2,3 2,-8 0,5 6,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15215 59629,'41'52,"-41"-54,-2 0,-2-8,2 0,2 2,-2 1,2-6,0 7,0 2,0 0,0 2,0 0,0-2,4 2,2 2,2 0,0 0,2 0,-2 2,2 6,-2-2,2 2,-4 5,2-6,-4 7,4 0,-6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14937 59607,'0'0,"20"50</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13395 59645,'0'0,"-34"-38,28 38,0 0,2 4,-2 6,6 2,0 2,0 0,0-2,0-1,8-4,0 1,0-8,-2 0,2 0,-6 0,4-8,2 1,-6 4,2-5,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,10 2,-4-1,6-2,6 1,-3-4,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18846 59613,'0'0,"2"36,6-16,0 2,0 3,0-2,8 7,-7-5,1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13832 59615,'0'0,"16"58,-4-47,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13989 59615,'0'0,"-52"6,46 0,-4 2,2 1,3 0,5 3,0 0,0-3,17 4,-1-4,12-1,0-6,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11703 60031,'0'0,"67"-64,-25 33,25-8,33-13,19-3,12 5,6 5,-6 15,-8 10,-19 4,-31 8,-23 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17690 59645,'0'0,"-2"-20,0 18,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 4,2-2,0 0,0 6,6-7,10 2,-4-3,4 3,-2-9,-1 0,-1 0,-4-9,-8 3,0-3,0-2,-4 1,-8-2,4 6,-1 3,1 1,0 2,0 0,6 4,-2 1,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15215 59629,'0'0,"31"40,-23-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16355 59655,'0'0,"28"40,-20-36,4 3,1-5,1-2,-2 0,2 0,-4-9,-2 1,-4 1,-2-4,-2-7,0 5,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19682 59629,'0'0,"12"48,-4-34,0 11,4-9,2 4,-2-1,8 0,-3-7,-3-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13657 59651,'0'0,"50"-11,-34 11,0 0,11 0,-5 0,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18435 59653,'0'0,"0"53,0-37,8-1,-4-2,4 1,-3-3,-2-4,-3-3,4-4,-8-8,1 1,-2-8,-3 3,4-4,2 2,0-1,-2 4,4 4,-2 3,2-4,0 2,2 2,6-2,2 2,0 0,4 3,-4 1,-2 0,8 0,-8 5,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16666 59645,'0'0,"14"61,-6-47,5-2,1 0,-4-4,4-2,1-4,-3-2,0 0,-4-8,-4-5,-2 0,-2 1,0-3,-2 0,-4 12,0-1,-2 4,4 0,0 0,4 4,0-1,6 2,2 1,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16057 59651,'0'0,"-39"6,39 2,0 2,0-1,4-2,6 1,0 1,2-3,-3-4,7-2,-6 0,0-8,-4-1,-2-1,1 4,-5-4,0 2,-15 0,5 2,4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17819 59651,'0'0,"46"0,-17 0,-5 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16951 59701,'0'0,"4"-24,-12 24,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2-1,0-1,8 7,4 1,-2 1,2 1,-2 2,4 0,-10 0,4 0,-4 2,-4-2,0-2,0-2,0 0,-8-8,4 1,-4-1,-2 0,0 0,2-1,0-5,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18582 59750,'0'0,"55"-28,-47 22,-4-4,2 1,-6 3,0 1,-4 3,0 2,-6 0,2 0,0 4,0-1,-3 3,3 1,4-1,0 2,2-2,2 7,0-4,6-1,4 2,5-1,1-4,12-1,-4 0,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18760 59706,'0'0,"-29"12,25-6,2 3,2-2,0 3,0-2,6 5,-2-6,8 1,1-4,3 0,0-4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19988 59764,'0'0,"0"13,0-6,0-1,2-2,-2 4,2-2,-2-4,2 2,-2-6,0-8,0-2,0-1,-2-6,2 5,0 2,0 2,2 4,4 4,2 2,2 0,4 0,6 2,15 6,-3 5,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19068 59718,'0'0,"-45"0,38 4,3 4,2-4,2 4,0-4,4 4,5-4,1-4,-2 0,-1 0,1 0,0 0,-4-2,0-2,0 2,-2 2,0 0,-2 0,4 0,0 6,2 0,2-2,0 5,2-4,10 3,-6 0,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18870 59722,'0'0,"59"-2,-36 4,1 0,2-2,-5 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19162 59724,'0'0,"14"38,-8-27,-2-2,2-3,-1 0,-1-6,0 0,-2 0,0 0,0-4,-2-4,0-1,0-6,0 7,0 0,0-1,-2 2,2 3,0 4,2 0,2 0,-2 0,6 4,0 7,2-2,0 1,2 7,4-4,0-1,-2 0,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19394 59778,'0'0,"-24"-22,16 22,4 0,-2 0,0 0,6 6,0 1,0-1,0-3,4 5,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-1,0 1,0-1,0 1,0 0,0 12,6 5,0-2,2 7,0-3,-1 7,3 0,4-1,-10-2,0 0,-2-5,-2-2,0-7,0-2,-2-3,0 0,0-3,2-6,0-7,0 0,0-1,4-4,1 4,1 7,-2-4,0 10,-2-1,1 1,3 1,-4 0,8-7,2-2,-2 4,0-5,-4 2,-2 5,-4 2,0 4,-2-2,-2 2,2 0,0 0,0 0,0 0,2 4,0 0,0 2,0 3,6-4,2 5,0-4,0 2,0-4,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-4,-2 3,0-4,4 1,-6-1,4 4,1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19879 59740,'0'0,"-42"-16,38 16,0 6,0 1,4 0,0 1,0 2,2 1,6-6,0 3,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-2,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11687 59961,'0'0,"4"30,-4-19,0 3,0-3,0 3,-8-1,0 3,2-6,0 0,2-4,4 2,0-6,6-2,2-2,2-4,-2 0,4 4,-1-3,8 5,-3 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16596 59983,'0'0,"16"52,-12-33,2 5,2-10,-4 4,6-2,-4-1,2 0,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 1,0 5,0-4,0 2,2 2,6 0,-2 0,2 4,3-4,1 4,-4 0,2 8,-2 2,0 4,-1-3,-3 3,-2-1,-2-3,0-1,0-3,-6-6,-1 0,-1 0,0 0,0-8,0 3,2 1,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,7 0,-1 2,0-2,0-3,-2 3,-4 2,4-2,-3 0,-1 0,-2 0,2-2,0 1,0-3,-6 2,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-3 4,7 0,-4-2,4 6,-2 0,4-2,0 1,8 1,2 1,3-5,7-2,12 2,0-4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8725 60064,'0'320</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8217 60072,'0'290</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17194 60130,'0'0,"-4"26,6-18,2 0,0-2,-1-1,3-1,-2-4,2 0,-4-2,-2-4,0-1,0-1,0 0,0-1,0 1,0 3,0 1,0 0,6 4,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 8,-4-1,-2 1,2-1,-2 1,4 0,-3-8,1 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-1,0 3,0 0,0 2,0 4,2 0,-2 2,0 0,-2 4,6 2,-6 2,2 4,4-3,0 1,0 3,0-3,12-4,-6 1,7-3,1 0,-2-4,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8365 60170,'0'0,"0"64,2-50,-2-2,4 3,-2-4,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 2,0-1,0-4,-2 4,0-2,0-5,-2 1,4 3,-2 1,2 1,-4 1,4 3,0-1,0 2,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 5,-6-3,8 3,-6 3,4-5,-2 3,2 0,-4-5,4-1,-6-4,3 0,-1-4,-4 0,2 0,-4-4,2-2,2-6,-4-1,0-1,0-1,0-3,0-1,0 6,0 1,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,0 0,-2 6,2 6,2 3,-8 0,4 1,0-1,2 1,-4-6,2 5,2-1,2 0,-2-2,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17063 60116,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 2,0-1,0 1,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-4-6,-2 6,2 0,2 0,0 6,2-6,2 4,4 1,3 1,-1-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17653 60213,'0'0,"-2"-10,2 10,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10831 60366,'0'0,"-59"2,51 2,1 0,1 4,4-8,2 8,0-6,0 4,8 1,-1 0,5 3,0 3,4-2,-4 5,0 3,-3-5,-1 8,-6-6,-2 0,0-4,-2-2,-6-4,-3-5,-3-1,4 0,-4-7,2-3,4 0,2-2,2 2,3 4,1 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6736 60400,'0'0,"-17"0,5 3,6 10,-4-1,0 1,4 4,-4-3,8 3,-2-7,4 0,4 2,8-8,4 2,0-6,9 0,-3 0,-2 0,-3 0,-3-6,-8-6,2-2,-6 2,-2-5,-4 5,-6-3,-2 4,2 3,-3 0,-1 4,4 4,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,3 0,-1 0,0 0,10 0,-9 0,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9944 60418,'0'0,"-14"21,14-19,0 2,2-4,4 0,0 0,-4 0,1 0,2-4,-5 2,4-2,-4 2,0 1,-4 1,-1 0,0 0,1 0,2 1,-4 5,6-6,0 2,0 2,0-3,6 1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11069 60439,'0'0,"59"-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7646 60460,'0'0,"55"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11113 60487,'0'0,"53"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7640 60545,'0'0,"49"-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6947 60545,'0'0,"8"45,-8-31,0 1,0-5,0 0,0 0,4-6,-4 2,0-2,0-2,2-2,-2-2,0-8,0 2,0-2,0 0,0 2,0-5,2 5,-2 0,2 0,0 1,-2 5,8 0,-4 2,4 0,-2 0,-2 4,2 9,0-3,-4 7,1-6,1 0,-2-3,0 0,4-6,-6-2,4 0,-2 0,0-8,-2-2,8-1,-8-2,4-2,0 5,2 3,-4 1,4 2,-4 4,-2 0,2 2,4 6,-4-1,4 3,-6-2,4 5,2-7,2 2,-4 0,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8055 60545,'981'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9938 60586,'0'0,"24"27,-24-17,0 4,-4 2,-5 4,-2-4,-1 6,-2-9,0 2,0-5,2-6,-4-4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7197 60596,'0'0,"-18"-2,12 4,4 2,-2 0,2 5,2-1,0-2,0 0,0 2,6-4,2 2,0-6,0 0,-6 0,6 0,-4-2,0-4,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,1 2,3-2,6 2,-4 4,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7414 60602,'0'0,"-45"31,35-21,8 6,0 0,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7323 60621,'0'0,"58"16,-47-8,1-2,4 0,-2 4,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8598 60749,'0'0,"-30"-10,16 10,0 0,-2 4,2 0,0 2,-3-4,7 2,0 2,8 0,0-2,2 4,0-1,6-1,4-1,7 6,-1-1,4-2,2 6,-2-3,-4 6,-4-5,-8 2,2-2,-6-2,0 3,-6-4,-4-1,2-4,-2 0,-6-4,4 0,-2 0,2-4,-2-2,2 0,4 1,-1 1,5 2,-2-3,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5073 49828,'0'0,"22"9,-8 0,-2 7,0 0,0 7,0-1,0-2,-6 0,2-4,-4-6,2 0,0-6,-4 2,0-6,0-8,-2-6,0-3,0-2,0-7,0 4,0 2,4 1,4 1,-2 9,4-4,0 3,0 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5889 49996,'0'2463,"6043"-2463</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5011 50915,'0'0,"0"4,0 6,2 1,0 1,0 2,2 2,2 8,-4-8,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5298 51062,'0'0,"67"-17,-47 17,-1 0,-7 4,1 7,-11 1,-2-4,0 6,-4 0,-9-6,0-1,-1 1,-2-2,8-4,-7-2,7 0,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5328 51062,'0'0,"-4"54,10-35,0 1,-4 3,8 2,-1-5,-3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4989 51122,'0'0,"66"-12,-46 12,-4-4,6 2,-6 0,6 0,-8 2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5073 51227,'0'0,"16"-16,-6 16,-8 0,6 0,-2 0,-4 6,-2 2,0-2,0 1,0 3,0 2,-6 2,-4-2,4-1,-2-3,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,4-6,-2 4,0 2,6-4,-2 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5949 51227,'3257'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9208 51262,'0'2372</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8701 52066,'0'0,"8"48,-6-34,-2-5,8 6,-6-5,4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8835 52090,'0'0,"-44"55,26-32,2 0,-4 15,10-8,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9005 52092,'0'0,"12"49,-12-34,0 1,0-1,0 1,0 1,0-2,-2-3,2 0,0-7,0 3,0-6,6-2,-2 0,2 0,1 0,-1 0,2 0,2 0,-1 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11892 52114,'0'0,"0"16,0-5,4 0,-4 5,0-1,0 1,0 3,0 0,0-3,0 0,-4 0,4-6,0-2,0-1,0-3,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8847 52220,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0-1,0 3,-10 2,-2 0,0 2,-2-6,7 6,-3-9,4 3,2-4,4-4,8-2,4 0,3 0,1-4,0 0,4 2,-8 2,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12511 52427,'0'0,"-52"50,40-32,-2 6,2-1,6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12375 52442,'0'0,"12"-1,-8 1,2 0,-2 1,0 3,2 4,0-2,0 5,2-1,-2-3,-2 0,2 1,2 0,-4-6,0 4,4-4,2-2,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12634 53447,'0'0,"0"8,0-1,0 3,0-1,0 8,0-4,0 6,0 7,0-10,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13024 53498,'0'0,"61"-10,-43 18,0-1,0 3,-8 3,-1 3,-7-2,-2 2,-2-4,-13-3,-1-1,-2-6,-2 2,2-4,1 0,7-4,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13028 53502,'0'0,"2"11,0-8,-2-1,0 4,0 2,0 0,0 8,0 0,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13038 53578,'0'0,"-2"61,2-33,6-2,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12359 53588,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-3,0-1,2 2,-4 2,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12753 53588,'0'0,"-46"49,37-33,-1 4,-12 6,10-2,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9257 53655,'2685'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12743 53723,'0'0,"57"-10,-51 18,-2-6,-4 7,0 1,-2 1,-10 1,2 1,2 0,0-3,-3 2,5-4,-2 4,6-6,-2 0,4-4,0 4,4-6,6 2,0-2,5 0,-1 0,0 0,2 0,-2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5203 54478,'0'0,"0"16,0-8,0 5,0-2,0 3,0 2,0-2,0 2,0-6,6 3,-6-7,6-4,-4 0,4-2,-6 0,4-8,0-1,-4-3,0 2,0-7,0 2,0 1,0-5,0 2,0 1,0 4,0 2,0 4,2 0,0 2,2 4,-2-5,0 5,0 0,4 9,3 1,-3 5,0 2,0 4,2 0,2-5,-4-1,4 2,-6-11,2-2,2-4,-4 0,0-2,0-10,0-4,-2-4,0-1,3-4,-5 6,4 2,-2 7,0 1,0 3,0 6,2 0,2 6,0 1,0 1,2 4,-4 0,1 4,-1 7,-2-4,6 1,-5 0,9 0,-4-7,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5887 54504,'0'2463,"6043"-2463</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10283 55355,'0'0,"8"71,-8-49,4-3,-4 2,0-8,0 4,5-9,-5 2,2-8,0-2,0-2,-2-14,0 6,0-9,0-2,0-3,-2-2,0 0,2 0,0 9,0 0,0 5,0 5,0 3,2-4,4 8,-2 0,0 0,0 8,4 3,-2 8,2 0,0 7,4-4,0-2,-2 0,-2-1,0-6,-2-3,-1-3,-1-5,-2-2,-2 0,0-8,0-5,0-9,0 0,0-8,0 2,0 3,0 2,0 11,0 3,0 1,8 6,-5 0,5 2,2 0,-4 0,4 4,-2 8,-4 1,-2 4,0 4,0 3,2-2,0-2,6 8,-4-4,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9071 55669,'0'0,"39"-36,-19 32,4-5,4-1,0 3,-3 3,-9 4,-8 0,0 7,-8 7,0 3,-8 1,-4 2,2-5,1 1,1-9,8-5,8-2,15-2,-1-11,11-8,0-3,10-2,17 0,17-10,13-3,3 2,-20 16,-11 3,-30 14,-12 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10662 55501,'0'0,"0"-2,0 4,0 4,0 1,0-1,0 9,0-8,2 7,2-5,2 1,-6-6,2 1,2 1,-2-1,-2-5,0 0,0-11,0 2,-6 1,4-1,2 1,-4-2,2 5,2-4,0 3,0-2,0 0,2 5,2 1,-2 0,2 2,-2 0,0 0,2 7,0 1,0 4,0 0,5-2,-7 2,4-3,-2-1,0-4,-2-1,0-3,0 0,-2-7,0-3,4-3,0-1,-2 4,2 0,0-1,0 3,1 6,-5-2,2 4,2 0,-2 0,0 4,4 3,0 1,-1 0,1 3,0-4,2 5,0 2,2-3,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10917 55536,'0'0,"-16"-26,8 25,2 1,4 0,-1 0,-3 0,4 0,-4 1,4 5,-2 0,4 5,0-4,0 1,0 0,6-2,2-1,-1-3,1-2,-2 0,2 0,-2-2,-2-3,-2 1,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 7,2-7,-2 4,4 3,2-5,-4 3,-4-7,2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11154 55509,'0'0,"-31"33,19-15,0 1,0 5,2-3,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11017 55526,'0'0,"68"32,-54-23,0 1,4 1,1 0,-5 0,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9017 55614,'0'0,"-12"33,2-18,-6 0,6 0,-2 1,0-9,6 2,3-1,3-8,7 0,3 0,6 0,4 0,-2 0,4 0,-3 0,0 0,2 0,-3 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 55827,'0'0,"0"-2,0 10,4 0,-2 5,0-3,2 3,-2 0,-2 3,2 0,-2 3,0-3,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5882 56914,'2947'-1054</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8888 55885,'3028'1010</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4987 55914,'0'0,"58"-22,-44 22,-2 0,2 8,-4 6,-2 0,-6 3,2-3,-4 6,0-6,-6-3,-6 3,4-10,-8-2,2-2,0 0,4 0,-4 0,6-3,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5229 55926,'0'0,"4"7,0-3,-2 4,0-2,-2 2,0 6,0-2,0 7,0-3,0-2,0 1,0 1,0-7,2-1,4-4,3 2,-1-4,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5003 55953,'0'0,"10"51,-8-35,6 5,-8-5,8 1,-8-5,4 0,0-1,-4-6,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56053,'0'0,"56"-10,-35 8,11 2,-11 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4831 56138,'0'0,"-35"42,27-30,0-4,2 2,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-1 0,1 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4864 56154,'0'0,"14"38,-12-24,2 2,-2 1,0-3,-2 2,4-1,0 1,-4-4,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12094 56587,'0'0,"0"7,0 2,2-1,-2 9,0-2,0-1,0 1,0 1,0-6,2 1,-2 1,0-3,2-5,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,1 0,3 0,2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12383 56967,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,0 6,0 0,-6 4,4 2,-2-2,2 0,2-2,4 4,-2-5,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12571 56969,'0'0,"-54"68,42-54,-2 4,6 3,-2-5,8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8864 57091,'0'0,"8"56,-4-41,2-2,0 8,0-8,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9021 57203,'0'0,"-28"57,20-41,-6 6,6 2,-4-3,2-2,1 6,-1-7,6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9308 57261,'0'0,"2"4,0 4,2 1,0 7,2-1,-2 2,-3 0,-1-2,0-1,0 0,0-5,0-3,2-4,-2 0,4-2,-2 0,4 0,-2 0,4-2,0 0,0 0,5 0,-5 2,2 0,6 0,-4 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9011 57415,'0'0,"51"-30,-40 30,-5 0,1 0,-1 8,-4 2,-2 4,0 0,0-3,-4 2,-5 2,5-5,-4 1,1-1,3-5,2 2,2-5,2-2,2 0,7 0,2 0,-1 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13269 59395,'0'0,"6"47,4-27,-4 2,2 5,-4-2,4-2,2 3,-2-6,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14793 59415,'0'0,"12"45,-4-27,0 5,11 6,-7 0,2-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16265 59435,'0'0,"0"7,4 3,0 3,4 2,0 4,0 0,0-1,3 2,-3-5,0-3,-2 0,0-9,-6-3,0-7,0-1,-6 4,-8 0,4 0,-3 2,1 0,0 2,4 0,-2 0,2 0,0 0,4 0,-2 2,6 4,0-2,0 4,0 0,4-5,6 8,0-5,2 3,4-1,2-4,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16602 59435,'0'0,"6"7,-2 5,-4-1,6 4,-4 2,0 4,2-3,-2 5,2-1,0-1,4 1,1 1,-3-6,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13710 59440,'0'0,"-13"0,13 10,0 5,4-2,5 6,-5-2,6 5,-2 1,4-7,-4 4,0-2,0-1,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17883 59669,'0'0,"-4"-56,-1 38,3-10,-4 5,4-1,2 1,0 6,-4 6,4 4,0 3,0-2,0 4,6 2,2 0,3 4,5 7,-2 0,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13155 59544,'0'0,"48"-8,-38 4,0 0,-6-4,2-1,-6 3,0-2,-4 4,-4-3,-8 7,5 0,-5 0,2 3,3 3,-1 0,4-2,0 2,4-1,0 3,2 0,2 4,0 3,2-5,10 4,0 0,4-6,9 0,-4 1,-1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14474 59489,'0'0,"-16"0,10 0,0 0,-3 0,5 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4-1,0-1,0 2,6 0,0-4,6 6,-4-2,2-2,3 3,-9 1,-2 2,-2-2,0 3,0-4,-2-1,-2-4,-5 0,3-2,-2 0,2-4,4-2,0-1,2 4,0-1,0 0,2 0,4 4,2 0,3-4,3 2,2 0,0-2,-2 0,0 2,-3 0,2 0,-1 0,-8-1,4-1,-4-2,2 4,-4-6,4 4,-2 0,-4 2,0-4,-8 6,2 0,-2 0,0 0,-4 2,5 4,-3 2,5 0,-1-2,0 0,6-1,0 1,0 2,2 0,10-4,-3 4,10-5,7-3,0 5,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14807 59518,'0'0,"49"-5,-31 5,4 0,0 1,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15808 59513,'0'0,"0"11,0 1,0-2,4 3,4 1,0-2,0 1,-4-2,2-2,-2-5,-2 0,-2-8,0-5,0 1,2-2,-2-2,0 2,2 0,-2 1,2 5,-2-2,2 2,0 2,-2 0,3 2,1 4,-2 2,2 6,0-5,4 5,-8 2,3-7,1 0,-4-5,2 0,0-9,2-2,-4-3,2-4,2 5,-2-1,7 2,-9 4,6 0,-4 6,-2 0,4 0,0 0,-2 10,4-4,2 4,0 2,0-1,0 1,4 0,0 4,-4-3,5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13586 59528,'0'0,"-46"-12,38 12,-2 2,6 0,0-2,4 6,0-4,0 2,4 0,2-2,6 2,0 0,-2 2,0 0,-2-1,0 1,-6 2,4 0,0 0,-6-3,0 2,0-1,0-4,0 3,-4-3,0-2,0 0,2 0,0-2,2-3,0 1,2 0,6-1,8 3,-3-1,13-1,-5-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14709 59520,'0'0,"-34"16,28-8,4 0,-2 1,2-1,2 0,0 0,6 0,8-3,10-5,-2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15119 59536,'0'0,"-18"31,24-27,6 0,-8-4,8 0,-2 0,-2 0,-6-8,4 0,-6 1,0-3,0 2,0 0,-8 4,-4 2,3 2,-8 0,5 6,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15258 59544,'41'51,"-41"-53,-2 0,-2-8,2 0,2 2,-2 1,2-5,0 6,0 2,0 0,0 2,0 0,0-2,4 2,2 2,2 0,0 0,2 0,-2 2,2 6,-2-2,2 2,-4 4,2-5,-4 7,4 0,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14979 59522,'0'0,"20"49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13430 59559,'0'0,"-34"-37,28 37,0 0,2 4,-2 6,6 2,0 1,0 1,0-2,0-1,8-4,0 1,0-8,-2 0,2 0,-6 0,4-8,2 1,-6 4,2-5,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,11 2,-5-1,6-2,6 1,-3-4,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18904 59528,'0'0,"2"35,6-15,0 2,0 3,0-2,8 6,-7-4,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13869 59530,'0'0,"16"57,-4-46,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14027 59530,'0'0,"-52"6,46 0,-4 2,2 0,2 1,6 3,0 0,0-3,18 4,-2-4,12-1,0-6,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11731 59942,'0'0,"68"-63,-26 32,25-8,34-12,18-4,13 6,5 4,-5 15,-9 10,-18 5,-32 7,-23 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17743 59559,'0'0,"-2"-19,0 17,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 3,2-1,0 0,0 6,6-7,10 2,-4-3,4 3,-2-9,-1 0,-1 0,-4-9,-8 3,0-3,0-2,-4 1,-8-2,4 6,-1 3,1 1,0 2,0 0,6 4,-2 1,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15258 59544,'0'0,"31"39,-23-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16402 59569,'0'0,"29"40,-21-36,4 3,1-5,1-2,-2 0,2 0,-4-9,-2 1,-4 1,-2-4,-2-7,0 5,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19743 59544,'0'0,"12"47,-4-33,0 11,4-9,2 4,-2-2,8 1,-2-7,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13693 59565,'0'0,"51"-11,-35 11,0 0,11 0,-5 0,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18491 59567,'0'0,"0"53,0-37,8-1,-4-2,4 0,-3-2,-2-4,-3-3,4-4,-8-8,1 1,-2-8,-3 4,4-5,2 2,0-1,-2 4,4 4,-2 3,2-4,0 2,2 2,6-2,2 2,0 0,4 3,-4 1,-2 0,8 0,-8 5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16715 59559,'0'0,"14"61,-6-47,5-2,1 0,-4-4,4-3,1-3,-3-2,0 0,-4-7,-4-6,-2 0,-2 1,0-3,-2 0,-4 12,0-1,-2 4,4 0,0 0,4 4,0-1,6 2,2 1,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16103 59565,'0'0,"-39"6,39 2,0 2,0-1,4-2,6 1,0 1,2-3,-3-4,7-2,-6 0,0-8,-4-1,-2-1,2 4,-6-4,0 2,-16 0,6 2,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17872 59565,'0'0,"47"0,-18 0,-5 2,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17001 59615,'0'0,"4"-24,-12 24,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2-1,0-1,8 7,4 1,-2 1,2 1,-2 2,4 0,-10-1,4 1,-4 2,-4-2,0-2,0-2,0 0,-8-8,4 1,-4-1,-2 0,0 0,2-1,0-5,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18639 59664,'0'0,"55"-28,-47 22,-4-4,2 1,-6 3,0 1,-4 3,0 2,-6 0,2 0,0 4,0-1,-3 3,3 1,4-1,0 2,2-2,2 7,0-4,6-2,4 3,5-1,1-4,12-1,-4 0,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18817 59620,'0'0,"-29"12,25-6,2 3,2-2,0 3,0-3,6 6,-2-6,8 1,1-4,3 0,0-4,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">20050 59677,'0'0,"0"13,0-6,0-1,2-2,-2 4,2-2,-2-4,2 2,-2-6,0-8,0-2,0-1,-2-6,2 6,0 1,0 2,2 4,4 4,2 2,2 0,5 0,5 2,15 6,-3 5,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19127 59632,'0'0,"-46"0,39 4,3 4,2-4,2 4,0-4,4 3,5-3,1-4,-2 0,0 0,0 0,0 0,-4-2,0-1,0 1,-2 2,0 0,-2 0,4 0,0 5,2 1,2-2,0 5,2-4,10 3,-6 0,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18928 59636,'0'0,"59"-2,-36 4,1 0,2-2,-5 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19221 59638,'0'0,"14"37,-8-26,-2-2,2-3,-1 0,-1-6,0 0,-2 0,0 0,0-4,-2-4,0-1,0-6,0 8,0-1,0-1,-2 2,2 3,0 4,2 0,2 0,-2 0,6 4,0 7,2-2,0 0,2 8,4-4,1-1,-3 0,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19454 59691,'0'0,"-24"-22,16 22,4 0,-2 0,0 0,6 6,0 1,0-1,0-3,4 5,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-1,0 1,0-1,0 1,0 0,0 12,6 5,0-2,2 7,0-3,-1 7,3 0,4-2,-10-1,0 0,-2-5,-2-2,0-7,0-2,-2-3,0 0,0-3,2-6,0-7,0 0,0-1,4-4,1 5,1 6,-2-4,0 10,-2-1,1 1,3 1,-4 0,8-7,2-2,-2 4,1-5,-5 2,-2 5,-4 3,0 3,-2-2,-2 2,2 0,0 0,0 0,-1 0,3 3,0 1,0 2,0 3,7-4,1 5,0-4,0 2,0-4,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-4,-2 3,0-4,4 2,-6-2,4 4,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19941 59654,'0'0,"-42"-16,38 16,0 6,0 1,4 0,0 1,0 1,2 2,6-6,0 3,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-2,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11715 59873,'0'0,"4"29,-4-18,0 3,0-3,0 3,-8-1,0 3,2-6,0 0,2-4,4 1,0-5,6-2,2-2,2-4,-2 1,4 3,0-3,7 5,-3 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16644 59894,'0'0,"17"52,-13-33,2 5,2-10,-4 3,6-1,-4-1,2 0,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 1,0 5,0-4,0 2,2 2,6 0,-2 1,2 3,3-4,1 4,-4 0,2 7,-2 3,0 4,-1-3,-3 3,-2-1,-2-3,0-1,0-3,-6-6,-1 0,-1 0,0 0,0-8,0 3,2 1,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,7 0,-1 2,0-2,0-3,-2 3,-4 2,4-2,-3 0,0 0,-3 0,2-2,0 1,0-3,-6 2,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-4 4,8 0,-4-2,4 6,-2 0,4-2,0 1,8 1,2 1,4-5,6-2,12 2,0-4,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8741 59975,'0'317</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8231 59983,'0'287</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17245 60040,'0'0,"-4"26,6-18,2 0,0-2,-1-1,3-1,-2-4,2 0,-4-2,-2-4,0-1,0-1,0 0,0-1,0 1,0 3,0 1,0 0,6 4,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 8,-4-1,-2 1,2-1,-2 1,4 0,-3-8,1 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-1,0 3,0 0,0 2,0 4,2 0,-1 2,-1 0,-2 4,6 2,-6 2,2 4,4-3,0 1,0 3,0-3,12-4,-6 1,7-3,1 0,-2-4,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8380 60080,'0'0,"0"63,2-49,-2-2,4 3,-2-4,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 2,0-1,0-4,-2 4,0-2,0-4,-2 0,4 3,-2 1,2 1,-4 1,4 3,0-1,0 2,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 5,-6-3,8 3,-6 3,4-5,-2 3,2-1,-4-4,4-1,-6-4,3 0,-1-4,-4 0,2 0,-4-4,2-2,2-6,-4 0,0-2,0-1,0-3,0-1,0 6,0 1,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,1 0,-3 6,2 6,2 3,-8 0,4 1,0-1,2 1,-4-6,2 4,2 0,2 0,-2-2,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17113 60026,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 2,0-1,0 1,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-3-6,-3 6,2 0,2 0,0 6,2-6,2 4,4 1,3 1,-1-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17706 60122,'0'0,"-2"-9,2 9,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10856 60274,'0'0,"-59"2,51 2,1 0,1 4,4-8,2 8,0-6,0 4,8 1,-1 0,5 3,0 3,4-3,-4 6,0 3,-3-5,-1 8,-6-6,-2 0,0-5,-2-1,-6-4,-3-5,-3-1,4 0,-4-7,2-3,4 1,2-3,2 2,3 4,1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6744 60308,'0'0,"-17"0,5 3,6 10,-4-1,0 1,4 3,-4-2,8 3,-2-7,4 0,4 2,8-8,4 2,0-6,9 0,-3 0,-2 0,-3 0,-3-6,-8-6,3-2,-7 2,-2-5,-5 5,-5-3,-2 5,2 2,-3 0,-1 4,4 4,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,3 0,-1 0,1 0,9 0,-9 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9965 60326,'0'0,"-14"21,14-19,0 1,2-3,4 0,0 0,-4 0,1 0,2-3,-5 1,4-2,-4 2,0 1,-4 1,-1 0,0 0,1 0,2 1,-4 5,6-6,0 2,0 1,0-2,6 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11095 60347,'0'0,"59"-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7658 60367,'0'0,"55"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11139 60394,'0'0,"53"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7652 60452,'0'0,"49"-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6956 60452,'0'0,"8"44,-8-30,0 1,0-5,0 0,0 0,4-6,-4 2,0-2,0-2,2-2,-2-2,0-8,0 2,0-2,0 0,0 2,0-5,2 5,-2 0,2 0,0 1,-2 5,8 0,-4 2,4 0,-2 0,-2 4,2 9,0-3,-4 7,1-6,1 0,-2-3,0 0,4-6,-6-2,4 0,-2 0,0-8,-2-2,8-1,-8-2,4-2,0 5,2 3,-4 1,5 2,-5 4,-2 0,2 2,4 6,-4-1,4 3,-6-2,4 5,2-7,2 2,-4 0,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8069 60452,'985'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9959 60492,'0'0,"24"27,-24-17,0 4,-4 2,-5 3,-2-3,-1 6,-2-9,0 2,0-5,2-6,-4-4,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7207 60502,'0'0,"-18"-2,12 4,4 2,-2 0,2 5,2-1,0-2,0 0,0 2,6-4,2 2,0-6,0 0,-6 0,6 0,-4-2,0-4,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,1 2,3-2,6 2,-4 4,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7425 60508,'0'0,"-45"31,35-21,8 6,0-1,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7334 60527,'0'0,"58"16,-47-8,1-2,4 0,-2 4,-2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8614 60654,'0'0,"-30"-10,16 10,0 0,-3 4,3 0,0 2,-3-4,7 2,0 2,8 0,0-2,2 4,0-2,6 0,4-1,7 6,-1-1,4-2,3 6,-3-3,-4 6,-4-5,-8 2,2-3,-6-1,0 3,-6-4,-4-1,2-4,-2 0,-6-4,4 0,-3 0,3-4,-2-2,2 0,4 1,-1 1,5 2,-2-3,4 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2192,78 +2192,78 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34054,'0'0,"-2"-8,2 11,0 10,2-3,4 3,0-2,4 3,-4-2,4-4,-4-5,0 3,4-6,2 0,-4-2,-2-9,0-1,-2 0,3-5,-5 4,-2-1,0 3,0 2,0 3,0 6,-2-6,0 6,2 6,0 8,2-2,2 7,2-2,2 7,-4-1,4 2,-4-1,-4 3,0-2,0-7,0-2,-2 0,-4-3,-2-4,0-5,-2-4,3 0,1 0,4-13,2 2,0-1,4-2,9-2,3 6,0-4,16-5,-3 4,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3111 34176,'0'756,"809"-756</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5470 34451,'0'0,"20"24,-12-17,-4-1,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9634 34512,'0'0,"42"-37,-26 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9360 34714,'0'0,"58"-30,-36 22,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5760 34676,'0'0,"20"8,-8-2,-2 0,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9090 34848,'0'0,"42"-27,-26 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6089 34826,'0'0,"41"14,-33-8,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8790 34938,'0'0,"40"-13,-30 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6377 34925,'0'0,"18"0,-10 0,7 9,1-7,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4168 34934,'0'0,"-12"23,4-7,0-1,-2 7,-5-5,3 6,0-2,-1 2,5-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4024 34965,'0'0,"22"-16,-12 18,2 6,-2 6,5 1,-1-3,-2 8,1-2,1 2,-4-5,-2-2,-4-3,4-4,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6783 35018,'0'0,"46"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8470 35036,'0'0,"44"-7,-22 5,-8-1,1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7086 35052,'0'0,"48"21,-31-21,-1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8159 35109,'0'0,"51"-1,-41-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7408 35109,'0'0,"46"0,-40 4,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7768 35129,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7826 35427,'0'0,"14"40,-12-32,2-3,0-3,-2 4,0-4,-2-10,0 6,0-11,0 5,-2-7,0 2,-2-1,2-1,0 1,0-1,-2 0,4-1,-2 5,2 1,0 3,0 3,0 2,2 4,4 6,-2-1,8 8,-4-5,6 0,-4 3,6-6,0 1,-2-3,4-3,-5 0,3-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7828 35350,'0'0,"50"57,-16-7,8 13,5 10,4 7,-3-10,3-5,2-3,-19-16,-4-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10751 36022,'0'0,"-18"45,16-34,2-2,0-1,0-2,0 0,2-12,2 0,-2 0,-2-5,0-2,4-2,-2 1,-2 0,4-1,-4 4,0 1,0 8,0 4,0 8,2-1,0 4,0 1,4-2,0-2,2 3,0-4,2-1,2-3,1-5,1 0,0 0,2-9,-4 0,0-8,0 7,-2-6,-4 4,-4-4,-2 0,0 1,0 3,-8 4,2 2,0 6,-8 0,2 6,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8476 36105,'0'0,"0"44,0-34,0 4,0-7,0 5,0-8,0 2,0-14,2-2,-2-1,0-3,0-4,6 3,-6-4,2 1,-2 2,0 1,2 6,-2 0,0 9,6 0,-6 5,4 6,0 6,4-4,0 2,0 2,4-4,-6-3,4 0,-3-2,-3-4,2-4,1 0,-7-4,4-6,-4 0,8-3,-8-6,2 3,2 3,-2 0,-2 2,0 2,4 4,0 1,-2 2,2 2,-2 2,0 2,4 1,-4 4,6 4,-2-2,4 0,-2 1,4 1,0-1,0-5,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8983 36040,'0'0,"-29"36,23-19,-2 4,4-2,-4 9,4-9,2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10444 36040,'0'0,"0"36,0-26,0-1,4 1,2-3,-4-1,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10046 36061,'0'0,"28"-12,-24 12,4-4,2 4,0-1,-4 1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10302 36054,'0'0,"47"-10,-31 10,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10566 36045,'0'0,"-28"33,28-25,0-1,4 1,4-4,2-2,-2 0,6-2,-4 0,4-2,-3-8,3 2,-6-3,-6 4,-2-3,0 3,-2 0,-6 4,-6 3,5 0,-3 0,4 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9604 36086,'0'0,"46"-25,-34 18,2 3,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8764 36049,'0'0,"-8"50,4-31,4-2,-4 3,0-2,4-5,0 1,-2-4,2-7,0 1,2-9,2-5,-2-2,0-2,-2-1,4 3,-4-4,0 5,0-2,0 1,0 4,0-3,0 6,0-1,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-3 0,2 4,-1-3,6 5,-4-3,4 3,-6-7,2 0,0 3,-2-3,-2-4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10335 36050,'0'0,"0"43,4-29,0-5,-4-1,6-1,0-1,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9340 36073,'0'0,"34"-6,-22 10,1 0,-1 5,-3-2,3 3,-2 7,-6-2,0 1,-2 3,-2-5,0 0,-2 2,-6-3,-2-7,0 4,4-8,1 2,1-2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10231 36069,'0'0,"-37"20,33-14,0 6,2-1,2-3,0-1,2 1,4-4,2 0,3-4,-1 0,4-2,-2-4,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9772 36084,'0'0,"37"-8,-33 7,12-1,-8 2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9571 36073,'0'0,"-8"51,8-34,0 1,0-1,0 1,4-4,0-3,4-5,-4-2,9-4,-5 0,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8886 36076,'0'0,"48"31,-38-20,0-3,2-3,7 3,-4-6,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9920 36076,'0'0,"0"33,0-16,0-10,0 5,0 0,0-3,4 0,-4-6,8 3,-4-4,0-2,5 0,-3 0,-2 0,2 0,-4-2,6-2,-2 0,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10042 36089,'0'0,"0"44,0-32,2-4,0-2,0 1,4-3,-2-4,0 0,-4 0,6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9760 36095,'0'0,"-8"50,8-38,0-1,4-3,-4 2,4-2,-2 0,-2-6,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10070 36107,'0'0,"42"-4,-36 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9330 36114,'0'0,"4"35,0-16,-4-7,4 4,0-8,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9600 36147,'0'0,"50"-19,-34 17,-10-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8774 36157,'0'0,"46"-16,-36 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9788 36161,'0'0,"47"-10,-37 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10084 36175,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9608 36229,'0'0,"10"-8,-4 6,6 2,-6 0,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6795 36774,'0'0,"16"-9,-12 7,4-2,-2 4,2 0,-6 0,4 6,-2-3,0 3,-4-5,0 6,0 1,-4-4,0 0,-2 4,4-8,2 3,-4-3,4 2,4-2,-2 0,8 4,-4-2,0 4,0 2,2 1,0-1,-2 1,2 0,-6 0,-2-3,0 1,0-3,0 3,-8-7,0 0,4 6,-8-6,6 0,-4 0,-2 0,6 0,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4190 36840,'0'0,"-8"0,4 6,0 6,-2 2,0 7,-2 13,2 10,0-1,6-2,0-15,8-3,0-6,0-7,10 8,-2-2,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5332 36848,'0'0,"-8"0,0 3,3 3,-1-3,0 5,2-1,0-1,1 5,3-6,0 1,0 0,3 0,5 2,0 0,3-2,3 2,-2 2,0 2,-2 0,-2 3,-2 1,-6-4,0-2,-6 5,0-7,2 1,-8-7,2 4,-2-6,0 0,1 0,3-2,0-4,3 1,1-5,2 2,2-3,0 3,2-4,2 4,5-4,1 1,-4 3,5 0,-3 4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6479 36875,'0'0,"30"-15,-18 15,-2 0,1 8,3-2,-6-1,0 4,-2-4,-2 7,-4-8,0 8,0-8,-4 4,-2-4,-6 0,4 0,-2-4,-3 2,5-2,-4 0,8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4760 36874,'0'0,"12"37,-4-23,2 6,2 0,-2 3,2-1,0 2,0 1,-4-3,0 2,-4-4,-4 10,-12-12,6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6485 36875,'0'0,"0"18,2-6,0-6,-2 6,8 0,-8 0,6-2,-4 0,-2-1,0-2,2 0,-2-5,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6660 36892,'0'0,"6"31,-6-21,0-2,0 2,0 0,0 0,6-5,-4 0,2 2,0-5,4 2,-4-4,4 0,-2 0,2 0,-2 0,2 0,3-4,-7 4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5598 36961,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4266 36994,'0'0,"0"18,2-10,-1 2,1 1,-2-1,2 0,2 1,-4-6,0 1,6-2,-4-4,-2-8,0 1,0-1,0 1,0-1,-2-5,2 1,0 6,0 0,0 0,0 0,2 0,2 6,0 0,-4 0,7 0,1 8,-6 0,6 4,0-2,-2 1,-4 3,4-7,-4 1,0-3,0-3,-2-2,0-7,0-1,0-5,0 3,0-7,0 7,0 2,4-4,-2 8,0-3,2 7,0 0,-2 0,2 5,2 1,-4 2,4 0,0 2,-2 0,8 3,-6 1,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4470 37032,'0'0,"-4"34,4-21,0-5,0 3,0-5,4-3,-4-3,2-3,2-5,-4-1,0-4,0 3,0-5,0-2,0 7,0-4,0 6,0 2,2 0,-2 3,0 1,4 2,0 0,-2 0,4 5,1 1,-1 6,-2-4,5 0,-1 6,2-1,0-1,-2-1,2 4,-4-6,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4688 37006,'0'0,"-36"33,28-17,2-7,0 6,6-4,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4616 37010,'0'0,"34"31,-20-23,-4 2,4 3,-8-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6103 37010,'0'0,"16"0,-12 0,5 0,-3 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5652 37022,'0'0,"27"-4,-17 4,2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4492 37064,'0'0,"40"-3,-28 3,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6373 37117,'824'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6389 37289,'0'0,"-16"19,12-13,-4-1,6-1,-4 4,2 0,0-8,4 4,-2-4,2 3,6-3,-2 0,4 0,0-3,0-1,0 4,0 0,2 0,-2 0,-1 0,1 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6538 37314,'0'0,"-9"-4,7 8,-2-2,2 3,2-3,0-2,0 8,2-8,6 0,-1 0,-3 0,2 0,4-6,-8 4,4-2,-2 1,-2-5,-2 4,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-3 0,3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6964 37300,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6736 37304,'0'0,"27"-4,-13 4,-4 0,2 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6418 37304,'0'0,"10"27,-8-13,2-2,-2 1,0-2,0-1,4 2,-2-2,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7020 37308,'0'0,"4"33,-2-21,2-3,-2 1,0-1,2-1,2 0,-2-3,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6743 37331,'0'0,"4"26,-4-21,0 3,8-1,-4-3,0 0,-2 4,4-4,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6578 37353,'0'0,"-20"17,20-12,0 5,0-4,2 0,4 0,2 0,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-2,-4-2,2 2,-4 1,0-1,-6 1,0 1,-2 0,-2 4,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6787 37355,'0'0,"32"0,-26 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6805 37419,'0'0,"34"0,-20 0,-8 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7042 37423,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,3-2,-5 2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34054,'0'0,"-2"-8,2 11,0 10,2-3,4 3,0-2,4 2,-4-1,4-4,-4-5,0 3,4-6,2 0,-4-2,-2-9,0-1,-2 0,3-4,-5 3,-2-1,0 3,0 2,0 3,0 6,-2-6,0 6,2 6,0 8,2-2,2 7,2-2,2 6,-4 0,4 2,-4-1,-4 3,0-2,0-8,0-1,-2 0,-4-3,-2-4,0-5,-2-4,3 0,1 0,4-13,2 2,0-1,4-2,9-2,3 7,0-5,16-5,-3 4,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3112 34175,'0'751,"810"-751</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5474 34448,'0'0,"20"24,-12-17,-4-1,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9645 34509,'0'0,"42"-37,-26 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9371 34709,'0'0,"58"-29,-36 21,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5765 34672,'0'0,"20"8,-8-2,-2-1,4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9100 34842,'0'0,"42"-26,-26 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6094 34821,'0'0,"41"13,-33-7,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8800 34932,'0'0,"40"-13,-30 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6383 34919,'0'0,"18"0,-10 0,7 9,1-7,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4170 34928,'0'0,"-12"23,4-7,0-2,-2 8,-5-5,3 6,0-2,-1 2,5-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4026 34959,'0'0,"22"-16,-12 18,2 6,-2 6,5 0,-1-2,-2 8,1-2,1 2,-4-5,-2-2,-4-3,4-4,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6789 35011,'0'0,"46"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8479 35029,'0'0,"44"-7,-22 5,-8-1,1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7093 35045,'0'0,"48"21,-31-21,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8168 35102,'0'0,"51"-1,-41-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7415 35102,'0'0,"46"0,-40 4,5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7776 35122,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7834 35418,'0'0,"14"39,-12-31,2-3,0-3,-2 4,0-4,-2-10,0 6,0-11,0 5,-2-7,0 2,-2 0,2-2,0 1,0-1,-2 0,4-1,-2 5,2 1,0 3,0 3,0 2,2 4,4 6,-2-1,8 8,-4-5,6 0,-4 3,6-6,0 1,-2-3,4-3,-5 0,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7836 35341,'0'0,"50"57,-16-8,8 14,5 9,4 8,-2-11,2-4,2-3,-19-17,-4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10764 36008,'0'0,"-18"45,16-34,2-2,0-1,0-2,0 0,2-12,2 0,-2 0,-2-5,0-2,4-2,-2 1,-2 0,4 0,-4 3,0 1,0 8,0 4,0 8,2-1,0 4,0 0,4-1,0-2,2 3,0-4,2-1,2-3,1-5,1 0,0 0,2-9,-4 0,0-8,0 7,-2-6,-4 5,-4-5,-2 0,0 1,0 3,-8 4,2 2,0 6,-8 0,2 6,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8485 36091,'0'0,"0"44,0-34,0 3,0-6,0 5,0-8,0 2,0-14,2-2,-2-1,0-2,0-5,6 3,-6-4,2 1,-2 2,0 1,2 6,-2 0,0 9,6 0,-6 5,4 6,0 6,4-4,0 2,0 2,4-4,-6-3,4 0,-3-2,-3-4,2-4,1 0,-7-4,4-6,-4 0,8-3,-8-6,2 3,2 3,-2 0,-2 2,0 2,4 4,0 1,-2 2,2 2,-2 2,0 2,4 1,-4 4,6 4,-2-2,4 0,-2 1,4 1,0-1,0-5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8993 36026,'0'0,"-29"36,23-19,-2 4,4-2,-4 9,4-10,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10456 36026,'0'0,"0"36,0-26,0-1,4 1,2-3,-4-1,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10058 36047,'0'0,"28"-12,-24 12,4-4,2 4,0-1,-4 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10314 36040,'0'0,"47"-10,-31 10,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10578 36031,'0'0,"-28"33,28-25,0-1,4 1,4-4,2-2,-2 0,6-2,-4 0,5-2,-4-8,3 2,-6-3,-6 4,-2-3,0 3,-2 0,-6 4,-6 3,5 0,-4 0,5 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9615 36072,'0'0,"46"-25,-34 18,2 3,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8774 36035,'0'0,"-8"50,4-31,4-2,-4 3,0-3,4-4,0 1,-2-4,2-7,0 1,2-9,2-5,-2-2,0-2,-2 0,4 2,-4-4,0 5,0-2,0 1,0 4,0-3,0 6,0-1,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-3 0,2 4,-1-3,6 5,-4-3,4 3,-6-7,2 0,0 3,-2-4,-2-3,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10347 36036,'0'0,"0"43,4-29,0-5,-4-1,6-1,0-1,-6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9350 36059,'0'0,"35"-6,-23 10,1 0,-1 5,-3-2,3 3,-2 7,-6-2,0 1,-2 3,-2-6,0 1,-2 2,-6-3,-2-7,0 4,4-8,1 2,1-2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10243 36055,'0'0,"-37"20,33-14,0 6,2-1,2-3,0-1,2 1,4-4,2 0,3-4,-1 0,4-2,-2-4,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9783 36070,'0'0,"37"-8,-33 7,12-1,-8 2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9582 36059,'0'0,"-8"51,8-34,0 1,0-2,0 2,4-4,0-3,4-5,-4-2,9-4,-5 0,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8896 36062,'0'0,"48"31,-38-20,0-3,2-3,7 3,-4-6,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9931 36062,'0'0,"0"33,0-16,0-10,0 5,0 0,0-3,4-1,-4-5,8 3,-4-4,0-2,5 0,-3 0,-2 0,2 0,-4-2,6-2,-1 0,-5 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10054 36075,'0'0,"0"44,0-32,2-4,0-2,0 1,4-4,-2-3,0 0,-4 0,6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9771 36081,'0'0,"-8"50,8-38,0-1,4-4,-4 3,4-2,-2 0,-2-6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10082 36093,'0'0,"42"-4,-36 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9340 36100,'0'0,"4"35,0-16,-4-8,4 5,0-8,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9611 36133,'0'0,"50"-19,-34 17,-10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8784 36143,'0'0,"46"-16,-36 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9799 36147,'0'0,"47"-10,-37 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10096 36160,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9619 36214,'0'0,"10"-8,-4 6,6 2,-6 0,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6801 36755,'0'0,"16"-9,-12 7,4-1,-2 3,2 0,-6 0,5 5,-3-2,0 3,-4-5,0 6,0 1,-4-4,0 0,-3 4,5-8,2 3,-4-3,4 2,4-2,-2 0,9 4,-5-2,0 4,0 2,2 1,0-1,-2 1,2 0,-6 0,-2-3,0 1,0-3,0 3,-8-7,0 0,4 6,-8-6,6 0,-4 0,-3 0,7 0,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4192 36821,'0'0,"-8"0,4 6,0 6,-2 2,0 7,-2 12,2 11,0-1,6-2,0-16,8-2,0-6,0-7,10 8,-2-2,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5336 36829,'0'0,"-8"0,0 3,3 3,-1-3,0 5,2-1,0-1,1 5,3-6,0 1,0-1,3 1,5 2,0 0,3-2,3 2,-2 2,0 2,-2 0,-2 3,-2 1,-6-4,0-2,-6 5,0-7,2 0,-8-6,2 4,-2-6,0 0,1 0,3-2,0-4,3 1,1-4,2 1,2-3,0 3,2-4,2 4,5-4,1 1,-4 3,5 0,-3 4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6485 36856,'0'0,"30"-15,-18 15,-2 0,1 8,3-2,-6-1,0 4,-2-4,-2 7,-4-9,0 9,0-8,-4 4,-2-4,-6 0,4 0,-2-4,-3 2,5-2,-4 0,8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4763 36855,'0'0,"12"36,-4-22,2 6,2 0,-2 3,2-1,0 2,0 0,-4-2,0 2,-4-4,-4 10,-12-12,6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6491 36856,'0'0,"0"18,2-6,0-7,-2 7,8 0,-8 0,6-2,-4 0,-2-1,0-2,2 0,-2-5,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6666 36873,'0'0,"6"30,-6-20,0-2,0 2,0 0,0 0,6-5,-4 0,2 2,0-5,4 2,-4-4,4 0,-2 0,2 0,-2 0,2 0,3-4,-7 4,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5603 36941,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4268 36974,'0'0,"0"18,2-10,-1 2,1 1,-2-1,2-1,2 2,-4-6,0 1,6-2,-4-4,-2-8,0 1,0-1,0 1,0 0,-2-6,2 1,0 6,0 0,0 0,0 0,2 0,2 6,0 0,-4 0,7 0,1 8,-6 0,6 4,0-2,-2 1,-3 2,3-6,-4 1,0-3,0-3,-2-2,0-7,0-1,0-4,0 2,0-7,0 7,0 2,4-4,-2 8,0-3,2 7,0 0,-2 0,2 5,2 1,-4 2,4 0,0 2,-2 0,8 3,-6 0,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4473 37012,'0'0,"-4"33,4-20,0-5,0 3,0-5,4-3,-4-3,2-3,2-5,-4-1,0-4,0 3,0-4,0-3,0 7,0-4,0 6,0 2,2 0,-2 3,0 1,4 2,0 0,-2 0,4 5,1 1,-1 6,-2-4,5 0,-1 6,2-1,0-2,-2 0,2 4,-4-6,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4691 36986,'0'0,"-36"33,28-17,2-8,0 7,6-4,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4619 36990,'0'0,"34"31,-20-23,-4 1,4 4,-8-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6108 36990,'0'0,"16"0,-12 0,5 0,-3 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5657 37002,'0'0,"27"-4,-17 4,2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4495 37043,'0'0,"40"-3,-28 3,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6379 37096,'825'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6395 37267,'0'0,"-16"19,12-13,-4-1,6-1,-4 4,2 0,0-8,4 4,-2-4,2 3,6-3,-2 0,4 0,0-3,0-1,0 4,0 0,2 0,-2 0,-1 0,1 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6544 37292,'0'0,"-9"-4,7 8,-2-2,2 3,2-3,0-2,0 8,2-8,6 0,-1 0,-3 0,2 0,4-6,-8 4,4-2,-2 1,-2-5,-2 4,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-3 0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6971 37278,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6742 37282,'0'0,"27"-4,-13 4,-4 0,2 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6424 37282,'0'0,"10"27,-8-13,2-3,-2 2,0-2,0-1,4 2,-2-2,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7027 37286,'0'0,"4"33,-2-22,2-2,-2 1,0-1,2-1,2 0,-2-3,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6749 37309,'0'0,"4"25,-4-20,0 3,8-1,-4-3,0 0,-2 4,4-4,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6584 37330,'0'0,"-20"17,20-12,0 5,0-4,2 0,4 0,2 0,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-2,-4-2,2 2,-4 1,0-1,-6 1,0 2,-2-1,-2 4,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6793 37332,'0'0,"32"0,-26 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6811 37396,'0'0,"34"0,-19 0,-9 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7049 37400,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,3-2,-5 2,0-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2290,44 +2290,44 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52694,'0'0,"16"32,0-15,-2 14,4 0,-2 7,2 17,0 21,-2-15,-8 4,-4-8,-4-17,-2 4,-10 5,-6-3,-22 6,12-11,-2-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31243 52763,'0'0,"0"7,-6 5,2 1,-4 0,-2 2,-2 3,10-4,-6 2,4-3,2-2,2-8,0 1,0 1,6-5,-4-5,6-2,0-2,0-6,-2 5,2-6,-2-4,-2 3,6-1,-4-2,0 3,4 0,-10 5,6 1,-4 4,-2 3,2 4,0 0,0 0,2 0,-2 0,8 0,-2 0,2 0,-2 9,2-7,0 3,0 1,-2-4,2 2,-4 0,2-2,0 1,-2-1,2 0,-1 0,3 4,-2-4,-4-2,4 2,-6 2,-2-2,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30751 52751,'0'678</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">28247 52923,'0'0,"-8"32,14-23,0-3,0 0,0 0,0-3,4-3,-2 0,2 0,1 0,-5-9,0-1,0 1,-4 1,0 2,-2 1,0 0,0-1,-10 4,4 0,0 0,-5 2,3 0,4 0,-2 0,2 6,-2 3,2-2,2-1,0 2,2 5,0-5,6-1,6 0,-2-3,5-4,-5 0,-4 0,4 0,-4-7,-6 0,0-5,0-1,0 5,0-2,-8 4,0 0,0 2,-5 2,7 2,0 0,-2 0,6 2,-4 11,2-6,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30420 53018,'0'0,"0"-26,0 19,0 0,2 3,-2 0,0-2,0 3,0 1,0-2,-2 4,0 6,-2 3,-2 1,6 2,0 0,0 0,0-1,0-7,6 4,0-2,6-1,-2-5,0 0,2 0,-4 0,0-11,-2 3,0-2,-6-1,0-7,0 9,0-4,-6 0,-2 1,-2 5,2 2,0 1,0 4,0 0,0 0,0 9,-4-2,6 5,4 1,-4 0,4 4,2-7,0 5,2-7,10 2,-4-3,4-5,-2-2,0 0,-2 0,2-7,-6-1,2-2,-6-7,0 7,0-5,0 2,-6 5,-2 1,-2 1,2 6,-2 0,0 0,2 10,2-1,4 1,-2 2,4-4,0 2,6-4,6-1,0 1,2-6,4 0,-4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32807 52953,'0'0,"68"-20,-48 20,-2 5,1 0,-11 3,-2 2,-6 1,0 2,-10 0,-2-1,-3 1,-1-5,2-2,6-2,2-2,2 5,0-7,10 0,4 0,2 0,2 0,0 0,1 0,-3 4,4 8,-8-2,0 8,-2-1,-4-4,-2 6,0-5,-2-1,-12 3,-2-3,0-4,-5-3,5 1,6-3,0 0,6-4,8 0,6 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32510 52957,'0'0,"-14"-10,10 10,2 8,-4 3,2-1,2-1,0 0,2-1,0 4,0-3,8-5,2-3,2-1,0 0,0 0,-2-10,-2 2,-4-2,0 2,-4-4,0 2,0 4,-6-3,-2 7,-2-4,2 4,-2 2,2 0,2 0,-2 0,6 0,-4 8,4-4,2 9,0-7,0 3,10-2,-2 1,6 0,-4-6,2 0,-4-2,-2 0,0 0,-6-4,0-2,-8 4,2-6,0 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32799 52985,'0'0,"12"81,-10-59,6 5,-2-3,-2-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27625 53076,'0'0,"-4"71,4-48,0 0,0-2,0 0,0-6,0-4,2-5,4 1,-4-7,2-7,-2-7,0-4,2-7,-2-1,0-3,0-4,-2 1,4 4,-2 7,-2 5,0 3,0 5,4 4,-4 2,4 0,0 2,0 0,3 4,-1 10,6 5,2 2,-2 7,8-1,-2-1,4 1,4-3,-8 2,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27673 53186,'0'0,"69"-33,-43 33,0-4,-4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30936 53157,'0'0,"-2"-4,2 8,2 1,8 9,-2 5,2 0,-2 4,6-3,-6-1,0-1,-2-7,-6-3,2 2,4-6,-4-4,0 0,2-8,-4-6,4 1,-2-3,0-7,4 7,-6-4,4 4,-2 6,0-1,4 7,2 0,0 4,0 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31615 53250,'0'0,"0"-13,0 19,0 8,0 5,0-1,-4 1,4 7,-2-1,2 1,0-8,0 3,0-11,2 1,4-9,-4-2,0-2,4-9,-6-1,2-7,-2 1,2-6,-2-3,0 1,0-1,0 4,0 8,0 4,0 7,0 0,-2 8,2 6,0 4,0 5,0 1,2 5,6-3,-2-1,0-7,0 2,2-6,-6-6,4-2,-4-2,2 0,0-6,0-8,4-2,-2-7,2 2,-2-4,-2 6,2-2,0 7,-6 4,0 6,2 4,2 6,-2 8,0 0,4 5,-2 0,-2 2,6 0,-8 2,2-3,2 1,0-5,-2 3,0-7,2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30464 53374,'0'0,"0"-53,0 45,0 2,0 0,-10 6,0 0,-6 0,2 4,2 6,-2 9,0-6,8 12,0-3,6 1,0-1,4-5,6 1,8-4,2-8,8-4,-2-2,2 0,0-14,-4 6,-6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30667 53439,'0'0,"14"15,-10-1,-2 0,2 3,4-1,-4-4,6 0,-6-4,2-2,2-1,0-5,-4 0,0 0,2-11,2-1,-6-3,4-2,0-4,-2 5,4 0,-2 5,-4 1,3 8,-3-4,0 6,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26758 54252,'0'0,"2"13,-2 0,4 4,0-1,2 14,-2-8,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27238 54263,'0'0,"12"50,-8-32,-2 3,0 0,0-1,2 2,-2-5,0 1,4-2,0-4,0-6,4-1,-2-3,2-2,0 0,0-2,2-3,-2 1,0 0,-2-2,0 2,-2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26995 54407,'0'0,"0"-3,0 6,0 3,0 2,2 5,0 1,0 2,2 0,-2 1,2-5,0-3,2-1,-2-6,0-2,0 0,2-2,0-4,1-5,-5-1,0 4,0-1,-2 5,0-2,0 4,2 2,0 2,2 6,0-6,4 7,2-7,4 2,-2-2,2-2,0 0,-4 0,-2 0,-4 0,-2-6,-2-1,0-1,0-4,-2 1,-4-2,-2-2,2 3,-2 3,6-2,-4 5,4 4,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26736 54491,'0'0,"54"-21,-34 11,8-4,0 0,-8 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26828 54596,'0'0,"10"-10,0 9,2-7,-2 4,-2-1,0 5,-2 0,-4 0,-2 7,0 3,0 1,-4 4,0-1,-2-1,2-1,-2 1,6-3,-8 0,6 0,-2-4,2 2,2-3,0-3,6-2,4 0,-2 0,0 0,4-2,-2-3,0-3,-2 6,2-2,2-4,-6 1,2 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30156 55691,'0'0,"14"48,-12-30,-1-4,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30352 55875,'0'0,"20"45,-20-31,0 0,0 1,2-5,2 1,-2-3,0-2,2-2,-2-4,4 0,2 0,-4 0,8-8,-6 2,4 0,-4-1,4 1,0 6,-4 0,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30138 55942,'0'0,"58"-42,-46 40,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30190 56062,'0'0,"6"-11,0 9,-4 0,6-2,-2 4,-2-2,4 2,-2 0,-2 0,2 2,-2 4,0-2,0-1,-2 6,0 1,-2-2,0 7,-4-1,-2 3,-2-4,0 0,8-3,-4-2,2-3,2-1,2-4,2 0,4 0,2-4,-4-1,4 1,0-4,2 4,-4 0,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32913 56047,'0'0,"8"-2,-7 10,1 1,0 4,2 1,-2 1,2 10,-2-3,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">33466 56142,'0'0,"6"59,-6-36,2-2,0 0,0-2,-2 0,6-4,-4-4,6-5,-2-4,2 4,2-6,2 0,0 0,0 0,2-6,-4 6,-2 0,4 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32715 56144,'0'0,"8"0,-6 0,10 0,-4 0,2 0,0 0,10 0,-8 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">33194 56243,'0'0,"-2"12,2-1,0 0,4 4,-4-1,4-1,0 0,0-5,2 1,0-3,2-4,-2-2,2 0,0-6,-4-7,0-1,-4 0,2 0,-2-1,0 8,0 3,0 0,-2 4,2 0,0 8,0 1,0 0,6 1,2-2,6-2,-3 0,5-4,-6 4,2-6,-4 0,0 0,-4 0,0-9,0-2,-4-1,0-1,-4 0,0-2,-4 5,2 2,0 1,0 1,-2 0,8 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32911 56296,'0'0,"51"-15,-33 15,-4-2,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32934 56461,'0'0,"50"-24,-36 18,-4 6,0 0,-4 0,-4 0,-2 6,0 8,-8-6,-2 6,-4 3,0-5,4 1,0-5,4 0,6 0,4-8,6 0,2 0,0 0,4 0,0 0,-2 0,14 0,-6 0,-6-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32823 58438,'0'0,"26"-9,-20 7,4-2,-2 4,-2 0,-2 0,2 6,-6 3,0 1,0-2,0 4,0-2,-6-2,2 3,0-7,2 2,2-4,0-2,2 0,6 0,2-2,0 0,-2-2,5 4,1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31985 58438,'0'0,"0"-6,0 3,2 3,2 5,-2 5,0 2,0 4,4-2,-4 5,3 4,-5-1,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32652 58501,'0'0,"8"0,-4 4,-4 4,0 7,0-1,0 4,0 1,0-2,0 2,2 0,2-7,-1 1,1-3,0-6,6 0,-6-4,4 0,2 0,-4 0,0-4,2 4,-2-4,0 2,4 2,-4-4,4 4,-2-4,2-1,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32345 58632,'0'0,"0"2,0 6,2 4,-2 5,0-1,0 0,6 5,-2-10,4 4,-2-7,6-6,-4 2,2-4,0-4,-6-4,0-5,2 1,-6 1,0-2,0 1,0 5,-6 2,4 5,0 0,-2 0,4 8,4 0,4 0,0 5,2-5,2-5,1 5,3-6,0-2,-6 0,4 0,-6-10,0 3,-8-10,0 1,0 0,-8-3,-2 1,-2 3,6 3,-2 1,2 5,0 3,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30476 59189,'0'0,"-6"0,12-4,4-4,2 2,6-3,6-5,8-3,0 2,1-2,-1 7,-10 2,-6 8,-6 0,-8 8,-2 8,0 1,0 1,-4-2,-2-3,4-1,2-4,0-3,12-5,4-9,2-7,6-3,5-6,3-3,14-10,10-6,18-11,11-2,3 4,6 7,-10 6,3 1,-15 5,-17 8,-17 11,-16 5,-10 4,-8 4,-4-5,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31981 58679,'0'0,"47"-23,-31 17,7 2,-1 0,0-2,4 6,-2-2,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32111 58777,'0'0,"0"-17,-4 17,0 0,0 4,-4 3,0-1,2 2,-2 4,4-1,0-2,4 2,0-3,6-4,2 0,2-4,4 0,-2-2,2-8,-2-1,-4 0,-4 1,-2-5,-2 7,-2 2,-4 6,-6 0,-2 0,4 6,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32143 58880,'0'0,"-20"23,12-14,2 5,4-2,-4 2,4-6,2 5,0-5,8-2,0-3,4-3,4 0,0 0,0-9,-6-3,-2-5,0 1,-8 0,0 1,0 3,-4 1,-4 5,-2 2,8 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30438 59131,'0'0,"28"-6,-26 6,0 0,0 0,-2 4,0 2,0 3,-2 1,-2 3,-4-5,2 6,-2-3,0-1,6-3,-4 0,2-3,2 2,2-6,6 0,4 0,4 0,-2 0,0 0,6 0,-2 0,0-6,-2 4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31261 52694,'0'0,"16"32,0-15,-1 13,3 1,-2 7,2 16,0 22,-2-16,-8 4,-4-7,-4-17,-2 3,-10 6,-6-4,-22 7,12-12,-3-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31261 52762,'0'0,"0"7,-6 5,2 1,-4 0,-2 2,-2 3,10-4,-6 1,4-2,2-2,2-8,0 1,0 1,6-5,-4-5,6-2,0-2,0-6,-2 6,2-7,-2-4,-2 3,6-1,-4-2,0 3,4 1,-10 4,7 1,-5 4,-2 3,2 4,0 0,0 0,2 0,-2 0,8 0,-2 0,2 0,-2 9,2-7,0 3,0 1,-2-4,2 2,-4 0,2-2,0 1,-2-1,2 0,-1 0,3 3,-2-3,-4-2,4 2,-6 2,-2-2,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30767 52750,'0'672</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28253 52921,'0'0,"-8"32,14-23,0-3,0 0,0-1,0-2,4-3,-2 0,2 0,1 0,-5-8,0-2,0 1,-4 1,0 2,-2 1,0 0,0-1,-10 4,4 0,0 0,-5 2,3 0,4 0,-2 0,2 6,-2 3,2-2,2-1,0 2,2 5,0-6,6 0,6 0,-2-3,5-4,-5 0,-4 0,4 0,-3-7,-7 0,0-4,0-2,0 5,0-2,-9 4,1 0,0 2,-5 2,7 2,0 0,-2 0,6 2,-4 11,2-6,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30435 53015,'0'0,"0"-26,0 19,0 0,2 4,-2-1,0-2,0 3,0 1,0-2,-2 4,0 6,-2 3,-2 0,6 3,0 0,0 0,0-1,0-7,6 4,0-2,6-1,-2-5,0 0,2 0,-4 0,0-11,-2 3,0-2,-6-1,0-7,0 9,0-3,-6-1,-2 1,-2 5,2 2,0 1,0 4,0 0,0 0,0 9,-4-2,6 5,4 1,-4-1,4 5,2-7,0 5,2-7,10 2,-4-3,4-5,-2-2,0 0,-2 0,2-7,-6-1,2-2,-6-7,0 7,0-5,0 3,-6 4,-2 1,-2 1,2 6,-2 0,0 0,2 10,2-1,4 0,-2 3,4-4,0 2,6-4,6-1,0 1,2-6,4 0,-4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32832 52951,'0'0,"68"-20,-48 20,-2 5,1 0,-11 3,-2 2,-6 1,0 1,-10 1,-2-1,-3 1,-1-5,2-2,6-2,2-2,2 5,0-7,10 0,4 0,2 0,2 0,0 0,1 0,-3 4,4 8,-8-2,0 7,-2 0,-4-4,-2 6,0-5,-2-1,-12 3,-2-3,0-5,-5-2,5 1,6-3,0 0,6-4,8 0,6 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32534 52955,'0'0,"-15"-10,11 10,2 8,-4 3,2-1,2-2,0 1,2-1,0 4,0-3,8-5,2-3,3-1,-1 0,0 0,-2-10,-2 2,-4-2,0 2,-4-4,0 3,0 3,-6-3,-2 7,-2-4,2 4,-2 2,2 0,1 0,-1 0,6 0,-4 8,4-4,2 9,0-7,0 2,10-1,-2 1,7 0,-5-6,2 0,-4-2,-2 0,0 0,-6-4,0-2,-8 4,2-6,0 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32824 52982,'0'0,"12"81,-10-59,6 4,-2-2,-2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27629 53073,'0'0,"-4"70,4-47,0 0,0-3,0 1,0-6,0-4,2-5,4 1,-4-7,2-7,-2-7,0-4,2-7,-2 0,0-4,0-4,-2 1,4 5,-2 6,-2 5,0 3,0 5,4 4,-4 2,4 0,0 2,0 0,3 4,-1 10,6 5,2 2,-2 7,8-2,-2 0,4 1,4-3,-8 1,1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27677 53182,'0'0,"69"-33,-43 33,0-4,-4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30953 53153,'0'0,"-2"-4,2 8,2 1,8 9,-2 5,2-1,-2 5,6-3,-6-1,0-1,-2-7,-6-3,2 1,4-5,-4-4,0 0,2-8,-4-5,4 0,-2-3,1-7,3 7,-6-4,4 5,-2 5,0-1,4 7,2 0,0 4,0 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31635 53245,'0'0,"0"-13,0 19,0 8,0 5,0-1,-4 1,4 6,-2 0,2 1,0-8,0 2,0-10,2 1,4-9,-4-2,0-2,4-9,-6 0,2-8,-2 1,2-6,-2-3,0 2,0-2,0 4,0 8,0 4,0 7,0 0,-2 8,2 6,0 4,0 5,0 1,2 4,6-2,-2-1,0-7,0 2,2-6,-6-6,4-2,-4-2,2 0,0-6,0-8,4-2,-2-7,2 2,-2-3,-2 5,2-2,0 7,-6 4,0 6,2 4,2 6,-2 8,0 0,4 5,-2 0,-2 1,6 1,-8 2,2-3,3 1,-1-6,-2 4,0-7,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30479 53368,'0'0,"0"-53,0 46,0 1,0 0,-10 6,0 0,-6 0,2 4,2 5,-2 10,0-6,8 12,0-3,6 1,0-2,4-4,6 1,8-4,2-8,8-4,-2-2,2 0,0-14,-3 6,-7-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30683 53432,'0'0,"14"15,-10-1,-2 0,2 3,4-1,-4-4,6 0,-6-5,2-1,2-1,0-5,-4 0,0 0,2-11,2 0,-6-4,4-2,0-4,-2 5,5 0,-3 5,-4 1,3 9,-3-5,0 6,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26758 54238,'0'0,"2"13,-2 0,4 4,0-1,2 13,-2-7,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27240 54249,'0'0,"12"50,-8-33,-2 4,0 0,0-1,2 2,-2-5,0 0,4-1,0-4,0-6,4-1,-2-3,2-2,0 0,0-2,2-3,-1 1,-1 0,-2-2,0 2,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26996 54392,'0'0,"0"-3,0 6,0 3,0 2,2 5,0 0,0 3,2 0,-2 1,2-5,0-3,2-1,-2-6,0-2,0 0,2-2,0-4,1-5,-5-1,0 4,0-1,-2 5,0-2,0 4,2 2,0 2,2 6,0-6,4 7,2-7,4 2,-1-2,1-2,0 0,-4 0,-2 0,-4 0,-2-6,-2-1,0-1,0-4,-2 1,-4-1,-2-3,2 3,-2 3,6-2,-4 5,4 4,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26736 54475,'0'0,"54"-21,-34 11,8-4,1 1,-9 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26828 54579,'0'0,"10"-10,0 9,3-7,-3 4,-2-1,0 5,-2 0,-4 0,-2 7,0 3,0 1,-4 4,0-1,-2-1,2-1,-2 1,6-4,-8 1,6 0,-3-4,3 2,2-3,0-3,7-2,3 0,-2 0,0 0,4-2,-2-3,0-3,-2 6,2-2,2-4,-6 1,2 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30170 55664,'0'0,"14"48,-12-30,-1-4,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30367 55847,'0'0,"20"44,-20-30,0 0,0 1,2-5,2 1,-2-3,0-2,2-2,-2-4,4 0,2 0,-4 0,8-8,-6 2,4 0,-4-1,4 1,0 6,-4 0,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30152 55913,'0'0,"58"-41,-46 39,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30204 56032,'0'0,"6"-11,0 9,-4 0,6-2,-2 4,-2-2,4 2,-2 0,-2 0,2 2,-2 4,0-2,0-1,-2 6,0 1,-2-2,0 7,-4-1,-2 3,-2-5,0 1,8-3,-4-2,2-3,2-1,2-4,2 0,4 0,2-4,-4-1,4 1,0-4,2 4,-3 0,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32938 56017,'0'0,"8"-2,-7 10,1 1,0 4,2 1,-2 1,2 10,-2-4,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33493 56111,'0'0,"6"59,-6-36,2-2,0-1,0-1,-2 0,7-4,-5-4,6-5,-2-4,2 4,2-6,2 0,0 0,0 0,2-6,-4 6,-2 0,4 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32739 56113,'0'0,"8"0,-6 0,10 0,-4 0,3 0,-1 0,10 0,-8 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33220 56212,'0'0,"-2"11,2 0,0 0,4 4,-4-1,4-1,0 0,0-5,2 1,0-3,2-4,-2-2,3 0,-1-6,-4-7,0-1,-4 0,2 0,-2-1,0 8,0 3,0 0,-2 4,2 0,0 8,0 1,0 0,6 1,2-2,6-2,-3 0,5-4,-6 4,2-6,-4 0,0 0,-4 0,0-9,0-2,-4-1,0-1,-4 0,0-2,-4 5,2 3,0 0,0 1,-2 0,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32936 56264,'0'0,"51"-15,-33 15,-3-2,-3 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32959 56428,'0'0,"50"-24,-35 18,-5 6,0 0,-4 0,-4 0,-2 6,0 8,-8-6,-2 5,-4 4,-1-5,5 1,0-5,4 0,6 0,4-8,6 0,2 0,0 0,5 0,-1 0,-2 0,14 0,-6 0,-6-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32848 58387,'0'0,"26"-9,-20 7,4-2,-2 4,-2 0,-2 0,2 6,-6 3,0 1,0-2,0 4,0-2,-6-2,2 3,0-7,2 1,2-3,0-2,2 0,6 0,2-2,0 0,-2-1,5 3,1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32006 58387,'0'0,"0"-6,0 3,2 3,2 5,-2 5,0 2,0 4,4-2,-4 4,3 5,-5-1,7-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32676 58450,'0'0,"8"0,-4 3,-4 5,0 7,0-1,0 4,0 1,0-2,0 1,2 1,2-7,-1 1,1-3,0-6,6 0,-6-4,4 0,2 0,-4 0,0-4,2 4,-2-4,0 2,5 2,-5-4,4 4,-2-4,2-1,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32368 58579,'0'0,"0"2,0 6,2 4,-2 5,0-1,0 0,6 5,-2-11,4 5,-2-7,6-6,-4 2,2-4,0-4,-6-4,0-5,2 2,-6 0,0-2,0 1,0 5,-6 2,4 5,0 0,-2 0,4 8,4 0,4 0,0 5,2-5,2-5,1 4,3-5,0-2,-5 0,3 0,-6-9,0 2,-8-10,0 1,0 0,-8-3,-2 1,-2 3,5 4,-1 0,2 5,0 3,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30491 59131,'0'0,"-6"0,12-4,4-3,2 1,6-3,7-5,7-3,0 2,1-2,-1 7,-10 2,-6 8,-6 0,-8 8,-2 8,0 1,0 1,-4-2,-2-3,4-2,2-3,0-3,12-5,4-9,2-6,6-4,6-6,2-3,14-9,10-7,18-11,12-1,2 3,7 8,-11 5,3 2,-14 4,-18 8,-17 11,-16 5,-10 4,-8 4,-4-5,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32002 58626,'0'0,"48"-23,-32 17,7 2,-1 0,0-2,4 6,-2-2,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32133 58723,'0'0,"0"-17,-4 17,0 0,0 4,-4 3,0-1,2 2,-2 4,4-1,0-2,4 2,0-3,6-4,2-1,2-3,4 0,-2-2,2-7,-2-2,-4 0,-4 1,-2-5,-2 7,-2 2,-4 6,-6 0,-2 0,4 6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32165 58825,'0'0,"-20"23,12-14,2 5,4-2,-4 2,4-7,2 6,0-5,8-2,0-3,4-3,4 0,0 0,0-9,-6-3,-2-4,0 0,-8 0,0 1,0 3,-4 1,-4 5,-2 2,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30453 59074,'0'0,"28"-6,-26 6,0 0,0 0,-2 4,0 2,0 3,-2 1,-2 3,-4-5,2 5,-2-2,0-1,6-3,-4 0,2-3,2 2,2-6,6 0,4 0,4 0,-2 0,0 0,6 0,-2 0,0-6,-1 4,-3 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2765,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0B8D50-96EE-48BC-A599-875E9FF5301B}">
   <dimension ref="B4:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770A6D2D-AB64-4CB7-950D-CBC4190FB579}">
   <dimension ref="B4:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC663C3-7309-480C-8450-91D7F4817F10}">
   <dimension ref="B4:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
+++ b/Calculation solvers/HOUSING COMBINED LOADING/Housing Combined Loading Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaidc\Documents\Github\12-DOF-Quadruped\Calculation solvers\Housing combined loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD10D2-C24C-4253-95A6-50D57E48D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BFC1BF-BE67-476C-AB1E-B51F9C5E753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{CA3A924D-1B74-47FA-8478-8B12608BBBB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{CA3A924D-1B74-47FA-8478-8B12608BBBB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Torsion" sheetId="1" r:id="rId1"/>
@@ -632,13 +632,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>437786</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>101386</xdr:rowOff>
+      <xdr:rowOff>131074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>552086</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>35406</xdr:rowOff>
+      <xdr:rowOff>65094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -668,8 +668,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13239386" y="473919"/>
-          <a:ext cx="2552700" cy="3845620"/>
+          <a:off x="13322513" y="487334"/>
+          <a:ext cx="2568534" cy="3674747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,22 +1700,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">47726 54742,'0'0,"0"3,0 11,0 2,0 6,4-7,2 10,-2-4,6-3,-2-4,2-2,2-4,0-8,3 0,-1 0,-4-11,2-4,-4-5,-4 3,-4 0,0 3,0 4,0 8,0-3,0 10,8 3,5 2,5 0,2 3,4-6,7-1,-8-4,-1-2,-6 0,-2 0,-8-2,0-11,-4-4,-2-3,0 1,0-1,-2 0,-6-4,0 7,0-6,0 4,6 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">53484 54687,'0'0,"-10"-14,10 19,0 8,0 8,2 0,-2 3,6 2,-4-4,4-5,0-2,4-7,-4-3,2-5,-2 0,0-5,-4-12,-2-1,0-1,0-1,0 2,0 7,0 2,-2-1,2 12,2 9,6 2,7 2,1 2,-2-1,0-5,7 1,-9-4,-2-6,0-2,2 0,0-8,-2-6,-8-3,2-3,-4 2,0-2,0 1,-4 4,2 3,-4 3,2 4,0 5,0 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">53166 54753,'0'0,"4"0,6 0,-4 0,8 0,2 0,-2 0,0 0,6 4,-1-2,-9 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">47865 56012,'0'0,"-2"0,4 0,9 0,-1-2,0 0,2 2,0 0,-2 0,4 0,3 0,10 0,-1 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">48445 56866,'0'0,"6"18,-6-17,0-1,0 2,-2 2,-2-2,-4 2,3 4,-3-2,2 4,-1-1,1-3,4-1,2-3,0-9,8-6,1 1,-1 0,3-2,-3 1,2-2,-2 6,-2 1,-1 2,-1 2,-2 4,0 0,-2 0,2 0,2 2,0 4,0-2,4 4,-4-1,6 2,2-3,-4 2,6-3,3 3,-3-4,8 4,-8-2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">48500 56897,'0'0,"-18"43,9-22,-3-5,2 8,-2-9,10-1,2-2,0 0,10-3,6-4,3 0,7 1,-4 2,-2 1,-1 1,-11 3,-4 5,-4 3,-4 2,-9-2,3 4,4-6,2 1,4-4,6-2,8 0,3-3,5 1,-4 2,0-1,0 2,-6-2,-4 4,-2-2,-4 1,0-2,0-1,2 0,0 4,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">50581 57753,'0'0,"-8"28,10-13,6 5,0-3,4-1,0-1,2 1,0-8,-2 4,2-8,-8 0,0-4,-4 0,2-8,0-4,-2-2,-2-4,0 1,0-2,0 8,-4 4,0-1,2 8,0 0,0 0,2 8,0-1,4 0,6 4,2 3,4-6,0 6,0-7,0-1,2-2,-6 0,2-4,-6 0,-2-4,-4-4,-2-1,0-5,0-2,-6-8,-2 7,-2-4,2 5,2 4,-2 3,2 3,2 4,0 2,2 0,0 0,4 4,4 6,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">50936 57741,'0'0,"4"30,-4-9,0-4,0 7,4-8,-2-2,2-3,2-5,5-2,-1-4,11 0,-5-6,3 2,-3-4,-2 6,0 1,-4 1,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">48867 57825,'0'0,"-6"-5,6 10,2 5,0 2,4 4,-1 1,7 3,-8 0,6-2,-2-1,0-4,-6 1,6-5,-6-5,2 4,-4-18,-4-1,0-3,-4-3,2 0,0-3,2 3,0 2,-2-3,2 7,4-1,0 4,0 0,0 3,0 3,0 6,4 7,6 1,-2 6,2-5,2 2,0 0,0-1,0-6,-5 0,1-4,0-2,-4-2,0 0,-4-2,0-6,0-4,-4 0,-2-5,0-2,0-2,-1 3,7-3,-2 7,-2 5,4 3,0 0,0 6,6 8,3 3,5 7,1 1,1 4,1-3,-1 4,-2-4,0 0,-2 0,6-4,-4-4,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">50301 57853,'0'0,"30"-6,-18 2,2 4,0-2,4 2,3-4,-2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49870 57864,'0'0,"36"-5,-26 5,2 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49900 57928,'0'0,"44"-8,-35 8,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49224 58039,'0'0,"-8"-15,8 12,0 8,0 2,2 5,4-3,-4 4,6-4,-2 1,-4-8,-2 5,6-7,-4 0,-2 0,0-9,0 1,0-3,0-2,0 2,-8-1,8 2,0 2,0 2,0 0,0 4,0 2,8 8,-4-2,4 2,-2 2,4-4,-6 2,5-3,-7 2,4-3,-2-4,-2 0,-2 0,0-7,0 0,0-1,0 2,0 4,0-3,0 0,0 5,2 0,4 0,-2 7,2-2,-2 5,5-5,-1 4,-4-1,6 0,-4-1,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49678 58033,'0'0,"-43"6,35 5,-2 2,2 2,2 2,0-5,6 0,0-1,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49456 58069,'0'0,"4"-12,-4 12,0-3,-4-3,0 6,-2 0,0 0,2 0,-2 0,4 4,0 1,0 1,2-4,0 4,0-3,0 1,4-4,0 0,2 0,0 0,0 0,-4-2,-2 0,6-1,-4 3,-2 0,2 0,0 0,2 0,-4 0,7 3,-5 1,4-2,1 4,-3-6,2 9,-2-7,0 4,2-6,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49562 58069,'0'0,"17"5,-9-1,-6 4,6-6,2 5,-2 1,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47726 54744,'0'0,"0"3,0 11,0 3,0 5,4-7,2 11,-2-5,6-2,-2-5,2-2,2-3,0-9,3 0,-1 0,-4-12,2-3,-4-5,-4 2,-4 1,0 3,0 3,0 9,0-3,0 10,8 3,5 3,5-1,2 3,4-6,7-1,-8-4,-1-2,-6 0,-2 0,-8-2,0-11,-4-4,-2-4,0 2,0-1,-2-1,-6-3,0 6,0-5,0 3,6 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53489 54688,'0'0,"-10"-15,10 21,0 7,0 8,2 1,-2 2,6 3,-4-5,4-4,0-3,4-7,-4-3,2-5,-2 0,0-5,-4-12,-2-2,0 0,0-1,0 1,0 8,0 2,-2-1,2 12,2 9,6 2,7 2,1 3,-2-2,0-5,7 2,-9-5,-2-6,0-2,2 0,0-8,-2-7,-8-2,2-3,-4 1,0-1,0 0,-4 5,2 3,-4 3,2 3,0 6,0 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53171 54755,'0'0,"4"0,6 0,-4 0,8 0,2 0,-2 0,0 0,6 4,-1-2,-9 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47865 56041,'0'0,"-2"0,4 0,9 0,-1-2,0 0,2 2,0 0,-2 0,4 0,3 0,10 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48446 56914,'0'0,"6"18,-6-17,0-1,0 2,-2 2,-2-2,-4 2,3 4,-3-1,2 3,-1-1,1-3,4-1,2-3,0-9,8-6,1 1,-1-1,3-1,-3 1,2-3,-2 7,-2 1,-1 2,-1 2,-2 4,0 0,-2 0,2 0,2 2,0 4,0-2,4 4,-4-1,6 3,2-4,-4 2,6-3,3 3,-3-4,8 4,-8-1,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48501 56945,'0'0,"-18"44,9-22,-3-6,2 9,-2-10,10-1,2-2,0 1,10-4,6-4,3 0,7 1,-4 2,-2 2,-1 0,-11 3,-4 5,-4 4,-4 1,-9-1,3 3,4-5,2 0,4-3,6-3,8 0,3-3,5 2,-4 1,0-1,0 3,-6-3,-4 4,-2-1,-4 0,0-2,0-1,2 1,0 3,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50583 57820,'0'0,"-8"28,10-12,6 4,0-3,4 0,0-2,2 1,0-7,-2 3,2-8,-8 0,0-4,-4 0,2-8,0-4,-2-3,-2-3,0 1,0-3,0 9,-4 4,0-1,2 8,0 0,0 0,2 8,0-1,4 0,6 4,2 4,5-7,-1 6,0-7,0-1,2-2,-6 1,2-5,-6 0,-2-5,-4-3,-2-1,0-5,0-3,-6-7,-2 7,-2-5,2 6,2 3,-2 4,2 3,2 4,0 2,2 0,0 0,4 4,4 6,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50939 57807,'0'0,"4"31,-4-9,0-5,0 7,4-7,-2-3,2-3,2-5,5-1,-1-5,11 0,-5-7,3 3,-3-4,-2 6,0 1,-4 1,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48868 57893,'0'0,"-6"-5,6 10,2 5,0 3,4 3,-1 1,7 4,-8-1,6-1,-2-2,0-4,-6 2,6-6,-6-5,2 4,-4-18,-4-1,0-4,-4-2,2 0,0-4,2 4,0 1,-2-2,2 7,4-1,0 3,0 1,0 3,0 3,0 6,4 7,6 2,-2 5,2-5,2 3,0-1,0-1,0-6,-5 1,1-5,0-2,-4-2,0 0,-4-2,0-6,0-5,-4 1,-2-5,0-3,0-1,-1 2,7-2,-2 7,-2 4,4 4,0 0,0 6,6 8,3 4,5 6,1 1,1 5,1-4,-1 5,-2-5,0 1,-2-1,6-4,-4-3,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50303 57922,'0'0,"30"-6,-18 2,2 4,0-2,4 2,3-4,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49872 57933,'0'0,"36"-5,-26 5,2 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49902 57998,'0'0,"44"-8,-35 8,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49225 58112,'0'0,"-8"-15,8 11,0 10,0 1,2 5,4-3,-4 4,6-3,-2 0,-4-8,-2 5,6-7,-4 0,-2 0,0-9,0 1,0-4,0-1,0 2,-8-1,8 1,0 3,0 2,0 0,0 4,0 2,8 8,-4-2,4 2,-2 3,4-5,-6 2,5-3,-7 2,4-3,-2-4,-2 0,-2 0,0-7,0 0,0-1,0 2,0 4,0-3,0-1,0 6,2 0,4 0,-2 8,2-3,-2 5,5-5,-1 4,-4-1,6 1,-4-2,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49680 58106,'0'0,"-43"6,35 5,-2 2,2 3,2 1,0-5,6 1,0-2,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49457 58142,'0'0,"4"-12,-4 12,0-3,-4-3,0 6,-2 0,0 0,2 0,-2 0,4 4,0 1,0 1,2-4,0 5,0-4,0 1,4-4,0 0,2 0,0 0,0 0,-4-2,-2 0,6-1,-4 3,-2 0,2 0,0 0,2 0,-4 0,7 3,-5 1,4-2,1 4,-3-6,2 9,-2-7,0 4,2-6,1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49564 58142,'0'0,"17"6,-9-2,-6 4,6-6,2 5,-2 1,0-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2052,115 +2052,115 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5073 49828,'0'0,"22"9,-8 0,-2 7,0 0,0 7,0-1,0-2,-6 0,2-4,-4-6,2 0,0-6,-4 2,0-6,0-8,-2-6,0-3,0-2,0-7,0 4,0 2,4 1,4 1,-2 9,4-4,0 3,0 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5889 49996,'0'2463,"6043"-2463</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5011 50915,'0'0,"0"4,0 6,2 1,0 1,0 2,2 2,2 8,-4-8,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5298 51062,'0'0,"67"-17,-47 17,-1 0,-7 4,1 7,-11 1,-2-4,0 6,-4 0,-9-6,0-1,-1 1,-2-2,8-4,-7-2,7 0,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5328 51062,'0'0,"-4"54,10-35,0 1,-4 3,8 2,-1-5,-3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4989 51122,'0'0,"66"-12,-46 12,-4-4,6 2,-6 0,6 0,-8 2,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5073 51227,'0'0,"16"-16,-6 16,-8 0,6 0,-2 0,-4 6,-2 2,0-2,0 1,0 3,0 2,-6 2,-4-2,4-1,-2-3,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,4-6,-2 4,0 2,6-4,-2 2,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5949 51227,'3257'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9208 51262,'0'2372</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8701 52066,'0'0,"8"48,-6-34,-2-5,8 6,-6-5,4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8835 52090,'0'0,"-44"55,26-32,2 0,-4 15,10-8,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9005 52092,'0'0,"12"49,-12-34,0 1,0-1,0 1,0 1,0-2,-2-3,2 0,0-7,0 3,0-6,6-2,-2 0,2 0,1 0,-1 0,2 0,2 0,-1 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11892 52114,'0'0,"0"16,0-5,4 0,-4 5,0-1,0 1,0 3,0 0,0-3,0 0,-4 0,4-6,0-2,0-1,0-3,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8847 52220,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0-1,0 3,-10 2,-2 0,0 2,-2-6,7 6,-3-9,4 3,2-4,4-4,8-2,4 0,3 0,1-4,0 0,4 2,-8 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12511 52427,'0'0,"-52"50,40-32,-2 6,2-1,6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12375 52442,'0'0,"12"-1,-8 1,2 0,-2 1,0 3,2 4,0-2,0 5,2-1,-2-3,-2 0,2 1,2 0,-4-6,0 4,4-4,2-2,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12634 53447,'0'0,"0"8,0-1,0 3,0-1,0 8,0-4,0 6,0 7,0-10,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13024 53498,'0'0,"61"-10,-43 18,0-1,0 3,-8 3,-1 3,-7-2,-2 2,-2-4,-13-3,-1-1,-2-6,-2 2,2-4,1 0,7-4,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13028 53502,'0'0,"2"11,0-8,-2-1,0 4,0 2,0 0,0 8,0 0,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13038 53578,'0'0,"-2"61,2-33,6-2,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12359 53588,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-3,0-1,2 2,-4 2,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12753 53588,'0'0,"-46"49,37-33,-1 4,-12 6,10-2,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9257 53655,'2685'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12743 53723,'0'0,"57"-10,-51 18,-2-6,-4 7,0 1,-2 1,-10 1,2 1,2 0,0-3,-3 2,5-4,-2 4,6-6,-2 0,4-4,0 4,4-6,6 2,0-2,5 0,-1 0,0 0,2 0,-2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5203 54478,'0'0,"0"16,0-8,0 5,0-2,0 3,0 2,0-2,0 2,0-6,6 3,-6-7,6-4,-4 0,4-2,-6 0,4-8,0-1,-4-3,0 2,0-7,0 2,0 1,0-5,0 2,0 1,0 4,0 2,0 4,2 0,0 2,2 4,-2-5,0 5,0 0,4 9,3 1,-3 5,0 2,0 4,2 0,2-5,-4-1,4 2,-6-11,2-2,2-4,-4 0,0-2,0-10,0-4,-2-4,0-1,3-4,-5 6,4 2,-2 7,0 1,0 3,0 6,2 0,2 6,0 1,0 1,2 4,-4 0,1 4,-1 7,-2-4,6 1,-5 0,9 0,-4-7,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5887 54504,'0'2463,"6043"-2463</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10283 55355,'0'0,"8"71,-8-49,4-3,-4 2,0-8,0 4,5-9,-5 2,2-8,0-2,0-2,-2-14,0 6,0-9,0-2,0-3,-2-2,0 0,2 0,0 9,0 0,0 5,0 5,0 3,2-4,4 8,-2 0,0 0,0 8,4 3,-2 8,2 0,0 7,4-4,0-2,-2 0,-2-1,0-6,-2-3,-1-3,-1-5,-2-2,-2 0,0-8,0-5,0-9,0 0,0-8,0 2,0 3,0 2,0 11,0 3,0 1,8 6,-5 0,5 2,2 0,-4 0,4 4,-2 8,-4 1,-2 4,0 4,0 3,2-2,0-2,6 8,-4-4,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9071 55669,'0'0,"39"-36,-19 32,4-5,4-1,0 3,-3 3,-9 4,-8 0,0 7,-8 7,0 3,-8 1,-4 2,2-5,1 1,1-9,8-5,8-2,15-2,-1-11,11-8,0-3,10-2,17 0,17-10,13-3,3 2,-20 16,-11 3,-30 14,-12 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10662 55501,'0'0,"0"-2,0 4,0 4,0 1,0-1,0 9,0-8,2 7,2-5,2 1,-6-6,2 1,2 1,-2-1,-2-5,0 0,0-11,0 2,-6 1,4-1,2 1,-4-2,2 5,2-4,0 3,0-2,0 0,2 5,2 1,-2 0,2 2,-2 0,0 0,2 7,0 1,0 4,0 0,5-2,-7 2,4-3,-2-1,0-4,-2-1,0-3,0 0,-2-7,0-3,4-3,0-1,-2 4,2 0,0-1,0 3,1 6,-5-2,2 4,2 0,-2 0,0 4,4 3,0 1,-1 0,1 3,0-4,2 5,0 2,2-3,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10917 55536,'0'0,"-16"-26,8 25,2 1,4 0,-1 0,-3 0,4 0,-4 1,4 5,-2 0,4 5,0-4,0 1,0 0,6-2,2-1,-1-3,1-2,-2 0,2 0,-2-2,-2-3,-2 1,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 7,2-7,-2 4,4 3,2-5,-4 3,-4-7,2 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11154 55509,'0'0,"-31"33,19-15,0 1,0 5,2-3,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11017 55526,'0'0,"68"32,-54-23,0 1,4 1,1 0,-5 0,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9017 55614,'0'0,"-12"33,2-18,-6 0,6 0,-2 1,0-9,6 2,3-1,3-8,7 0,3 0,6 0,4 0,-2 0,4 0,-3 0,0 0,2 0,-3 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 55827,'0'0,"0"-2,0 10,4 0,-2 5,0-3,2 3,-2 0,-2 3,2 0,-2 3,0-3,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5882 56914,'2947'-1054</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8888 55885,'3028'1010</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4987 55914,'0'0,"58"-22,-44 22,-2 0,2 8,-4 6,-2 0,-6 3,2-3,-4 6,0-6,-6-3,-6 3,4-10,-8-2,2-2,0 0,4 0,-4 0,6-3,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5229 55926,'0'0,"4"7,0-3,-2 4,0-2,-2 2,0 6,0-2,0 7,0-3,0-2,0 1,0 1,0-7,2-1,4-4,3 2,-1-4,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5003 55953,'0'0,"10"51,-8-35,6 5,-8-5,8 1,-8-5,4 0,0-1,-4-6,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56053,'0'0,"56"-10,-35 8,11 2,-11 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4831 56138,'0'0,"-35"42,27-30,0-4,2 2,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-1 0,1 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">4864 56154,'0'0,"14"38,-12-24,2 2,-2 1,0-3,-2 2,4-1,0 1,-4-4,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">12094 56587,'0'0,"0"7,0 2,2-1,-2 9,0-2,0-1,0 1,0 1,0-6,2 1,-2 1,0-3,2-5,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,1 0,3 0,2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12383 56967,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,0 6,0 0,-6 4,4 2,-2-2,2 0,2-2,4 4,-2-5,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12571 56969,'0'0,"-54"68,42-54,-2 4,6 3,-2-5,8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8864 57091,'0'0,"8"56,-4-41,2-2,0 8,0-8,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9021 57203,'0'0,"-28"57,20-41,-6 6,6 2,-4-3,2-2,1 6,-1-7,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9308 57261,'0'0,"2"4,0 4,2 1,0 7,2-1,-2 2,-3 0,-1-2,0-1,0 0,0-5,0-3,2-4,-2 0,4-2,-2 0,4 0,-2 0,4-2,0 0,0 0,5 0,-5 2,2 0,6 0,-4 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9011 57415,'0'0,"51"-30,-40 30,-5 0,1 0,-1 8,-4 2,-2 4,0 0,0-3,-4 2,-5 2,5-5,-4 1,1-1,3-5,2 2,2-5,2-2,2 0,7 0,2 0,-1 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13269 59395,'0'0,"6"47,4-27,-4 2,2 5,-4-2,4-2,2 3,-2-6,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14793 59415,'0'0,"12"45,-4-27,0 5,11 6,-7 0,2-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16265 59435,'0'0,"0"7,4 3,0 3,4 2,0 4,0 0,0-1,3 2,-3-5,0-3,-2 0,0-9,-6-3,0-7,0-1,-6 4,-8 0,4 0,-3 2,1 0,0 2,4 0,-2 0,2 0,0 0,4 0,-2 2,6 4,0-2,0 4,0 0,4-5,6 8,0-5,2 3,4-1,2-4,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16602 59435,'0'0,"6"7,-2 5,-4-1,6 4,-4 2,0 4,2-3,-2 5,2-1,0-1,4 1,1 1,-3-6,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13710 59440,'0'0,"-13"0,13 10,0 5,4-2,5 6,-5-2,6 5,-2 1,4-7,-4 4,0-2,0-1,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17883 59669,'0'0,"-4"-56,-1 38,3-10,-4 5,4-1,2 1,0 6,-4 6,4 4,0 3,0-2,0 4,6 2,2 0,3 4,5 7,-2 0,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13155 59544,'0'0,"48"-8,-38 4,0 0,-6-4,2-1,-6 3,0-2,-4 4,-4-3,-8 7,5 0,-5 0,2 3,3 3,-1 0,4-2,0 2,4-1,0 3,2 0,2 4,0 3,2-5,10 4,0 0,4-6,9 0,-4 1,-1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14474 59489,'0'0,"-16"0,10 0,0 0,-3 0,5 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4-1,0-1,0 2,6 0,0-4,6 6,-4-2,2-2,3 3,-9 1,-2 2,-2-2,0 3,0-4,-2-1,-2-4,-5 0,3-2,-2 0,2-4,4-2,0-1,2 4,0-1,0 0,2 0,4 4,2 0,3-4,3 2,2 0,0-2,-2 0,0 2,-3 0,2 0,-1 0,-8-1,4-1,-4-2,2 4,-4-6,4 4,-2 0,-4 2,0-4,-8 6,2 0,-2 0,0 0,-4 2,5 4,-3 2,5 0,-1-2,0 0,6-1,0 1,0 2,2 0,10-4,-3 4,10-5,7-3,0 5,-4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14807 59518,'0'0,"49"-5,-31 5,4 0,0 1,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15808 59513,'0'0,"0"11,0 1,0-2,4 3,4 1,0-2,0 1,-4-2,2-2,-2-5,-2 0,-2-8,0-5,0 1,2-2,-2-2,0 2,2 0,-2 1,2 5,-2-2,2 2,0 2,-2 0,3 2,1 4,-2 2,2 6,0-5,4 5,-8 2,3-7,1 0,-4-5,2 0,0-9,2-2,-4-3,2-4,2 5,-2-1,7 2,-9 4,6 0,-4 6,-2 0,4 0,0 0,-2 10,4-4,2 4,0 2,0-1,0 1,4 0,0 4,-4-3,5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13586 59528,'0'0,"-46"-12,38 12,-2 2,6 0,0-2,4 6,0-4,0 2,4 0,2-2,6 2,0 0,-2 2,0 0,-2-1,0 1,-6 2,4 0,0 0,-6-3,0 2,0-1,0-4,0 3,-4-3,0-2,0 0,2 0,0-2,2-3,0 1,2 0,6-1,8 3,-3-1,13-1,-5-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14709 59520,'0'0,"-34"16,28-8,4 0,-2 1,2-1,2 0,0 0,6 0,8-3,10-5,-2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15119 59536,'0'0,"-18"31,24-27,6 0,-8-4,8 0,-2 0,-2 0,-6-8,4 0,-6 1,0-3,0 2,0 0,-8 4,-4 2,3 2,-8 0,5 6,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15258 59544,'41'51,"-41"-53,-2 0,-2-8,2 0,2 2,-2 1,2-5,0 6,0 2,0 0,0 2,0 0,0-2,4 2,2 2,2 0,0 0,2 0,-2 2,2 6,-2-2,2 2,-4 4,2-5,-4 7,4 0,-6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14979 59522,'0'0,"20"49</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13430 59559,'0'0,"-34"-37,28 37,0 0,2 4,-2 6,6 2,0 1,0 1,0-2,0-1,8-4,0 1,0-8,-2 0,2 0,-6 0,4-8,2 1,-6 4,2-5,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,11 2,-5-1,6-2,6 1,-3-4,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18904 59528,'0'0,"2"35,6-15,0 2,0 3,0-2,8 6,-7-4,1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13869 59530,'0'0,"16"57,-4-46,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">14027 59530,'0'0,"-52"6,46 0,-4 2,2 0,2 1,6 3,0 0,0-3,18 4,-2-4,12-1,0-6,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11731 59942,'0'0,"68"-63,-26 32,25-8,34-12,18-4,13 6,5 4,-5 15,-9 10,-18 5,-32 7,-23 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17743 59559,'0'0,"-2"-19,0 17,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 3,2-1,0 0,0 6,6-7,10 2,-4-3,4 3,-2-9,-1 0,-1 0,-4-9,-8 3,0-3,0-2,-4 1,-8-2,4 6,-1 3,1 1,0 2,0 0,6 4,-2 1,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">15258 59544,'0'0,"31"39,-23-31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16402 59569,'0'0,"29"40,-21-36,4 3,1-5,1-2,-2 0,2 0,-4-9,-2 1,-4 1,-2-4,-2-7,0 5,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19743 59544,'0'0,"12"47,-4-33,0 11,4-9,2 4,-2-2,8 1,-2-7,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">13693 59565,'0'0,"51"-11,-35 11,0 0,11 0,-5 0,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18491 59567,'0'0,"0"53,0-37,8-1,-4-2,4 0,-3-2,-2-4,-3-3,4-4,-8-8,1 1,-2-8,-3 4,4-5,2 2,0-1,-2 4,4 4,-2 3,2-4,0 2,2 2,6-2,2 2,0 0,4 3,-4 1,-2 0,8 0,-8 5,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16715 59559,'0'0,"14"61,-6-47,5-2,1 0,-4-4,4-3,1-3,-3-2,0 0,-4-7,-4-6,-2 0,-2 1,0-3,-2 0,-4 12,0-1,-2 4,4 0,0 0,4 4,0-1,6 2,2 1,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16103 59565,'0'0,"-39"6,39 2,0 2,0-1,4-2,6 1,0 1,2-3,-3-4,7-2,-6 0,0-8,-4-1,-2-1,2 4,-6-4,0 2,-16 0,6 2,4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17872 59565,'0'0,"47"0,-18 0,-5 2,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17001 59615,'0'0,"4"-24,-12 24,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2-1,0-1,8 7,4 1,-2 1,2 1,-2 2,4 0,-10-1,4 1,-4 2,-4-2,0-2,0-2,0 0,-8-8,4 1,-4-1,-2 0,0 0,2-1,0-5,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18639 59664,'0'0,"55"-28,-47 22,-4-4,2 1,-6 3,0 1,-4 3,0 2,-6 0,2 0,0 4,0-1,-3 3,3 1,4-1,0 2,2-2,2 7,0-4,6-2,4 3,5-1,1-4,12-1,-4 0,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18817 59620,'0'0,"-29"12,25-6,2 3,2-2,0 3,0-3,6 6,-2-6,8 1,1-4,3 0,0-4,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">20050 59677,'0'0,"0"13,0-6,0-1,2-2,-2 4,2-2,-2-4,2 2,-2-6,0-8,0-2,0-1,-2-6,2 6,0 1,0 2,2 4,4 4,2 2,2 0,5 0,5 2,15 6,-3 5,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19127 59632,'0'0,"-46"0,39 4,3 4,2-4,2 4,0-4,4 3,5-3,1-4,-2 0,0 0,0 0,0 0,-4-2,0-1,0 1,-2 2,0 0,-2 0,4 0,0 5,2 1,2-2,0 5,2-4,10 3,-6 0,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">18928 59636,'0'0,"59"-2,-36 4,1 0,2-2,-5 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19221 59638,'0'0,"14"37,-8-26,-2-2,2-3,-1 0,-1-6,0 0,-2 0,0 0,0-4,-2-4,0-1,0-6,0 8,0-1,0-1,-2 2,2 3,0 4,2 0,2 0,-2 0,6 4,0 7,2-2,0 0,2 8,4-4,1-1,-3 0,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19454 59691,'0'0,"-24"-22,16 22,4 0,-2 0,0 0,6 6,0 1,0-1,0-3,4 5,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-1,0 1,0-1,0 1,0 0,0 12,6 5,0-2,2 7,0-3,-1 7,3 0,4-2,-10-1,0 0,-2-5,-2-2,0-7,0-2,-2-3,0 0,0-3,2-6,0-7,0 0,0-1,4-4,1 5,1 6,-2-4,0 10,-2-1,1 1,3 1,-4 0,8-7,2-2,-2 4,1-5,-5 2,-2 5,-4 3,0 3,-2-2,-2 2,2 0,0 0,0 0,-1 0,3 3,0 1,0 2,0 3,7-4,1 5,0-4,0 2,0-4,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-4,-2 3,0-4,4 2,-6-2,4 4,1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">19941 59654,'0'0,"-42"-16,38 16,0 6,0 1,4 0,0 1,0 1,2 2,6-6,0 3,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-2,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">11715 59873,'0'0,"4"29,-4-18,0 3,0-3,0 3,-8-1,0 3,2-6,0 0,2-4,4 1,0-5,6-2,2-2,2-4,-2 1,4 3,0-3,7 5,-3 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">16644 59894,'0'0,"17"52,-13-33,2 5,2-10,-4 3,6-1,-4-1,2 0,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 1,0 5,0-4,0 2,2 2,6 0,-2 1,2 3,3-4,1 4,-4 0,2 7,-2 3,0 4,-1-3,-3 3,-2-1,-2-3,0-1,0-3,-6-6,-1 0,-1 0,0 0,0-8,0 3,2 1,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,7 0,-1 2,0-2,0-3,-2 3,-4 2,4-2,-3 0,0 0,-3 0,2-2,0 1,0-3,-6 2,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-4 4,8 0,-4-2,4 6,-2 0,4-2,0 1,8 1,2 1,4-5,6-2,12 2,0-4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8741 59975,'0'317</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8231 59983,'0'287</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17245 60040,'0'0,"-4"26,6-18,2 0,0-2,-1-1,3-1,-2-4,2 0,-4-2,-2-4,0-1,0-1,0 0,0-1,0 1,0 3,0 1,0 0,6 4,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 8,-4-1,-2 1,2-1,-2 1,4 0,-3-8,1 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-1,0 3,0 0,0 2,0 4,2 0,-1 2,-1 0,-2 4,6 2,-6 2,2 4,4-3,0 1,0 3,0-3,12-4,-6 1,7-3,1 0,-2-4,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8380 60080,'0'0,"0"63,2-49,-2-2,4 3,-2-4,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 2,0-1,0-4,-2 4,0-2,0-4,-2 0,4 3,-2 1,2 1,-4 1,4 3,0-1,0 2,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 5,-6-3,8 3,-6 3,4-5,-2 3,2-1,-4-4,4-1,-6-4,3 0,-1-4,-4 0,2 0,-4-4,2-2,2-6,-4 0,0-2,0-1,0-3,0-1,0 6,0 1,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,1 0,-3 6,2 6,2 3,-8 0,4 1,0-1,2 1,-4-6,2 4,2 0,2 0,-2-2,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17113 60026,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 2,0-1,0 1,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-3-6,-3 6,2 0,2 0,0 6,2-6,2 4,4 1,3 1,-1-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">17706 60122,'0'0,"-2"-9,2 9,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10856 60274,'0'0,"-59"2,51 2,1 0,1 4,4-8,2 8,0-6,0 4,8 1,-1 0,5 3,0 3,4-3,-4 6,0 3,-3-5,-1 8,-6-6,-2 0,0-5,-2-1,-6-4,-3-5,-3-1,4 0,-4-7,2-3,4 1,2-3,2 2,3 4,1 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6744 60308,'0'0,"-17"0,5 3,6 10,-4-1,0 1,4 3,-4-2,8 3,-2-7,4 0,4 2,8-8,4 2,0-6,9 0,-3 0,-2 0,-3 0,-3-6,-8-6,3-2,-7 2,-2-5,-5 5,-5-3,-2 5,2 2,-3 0,-1 4,4 4,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,3 0,-1 0,1 0,9 0,-9 0,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9965 60326,'0'0,"-14"21,14-19,0 1,2-3,4 0,0 0,-4 0,1 0,2-3,-5 1,4-2,-4 2,0 1,-4 1,-1 0,0 0,1 0,2 1,-4 5,6-6,0 2,0 1,0-2,6 1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11095 60347,'0'0,"59"-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7658 60367,'0'0,"55"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11139 60394,'0'0,"53"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7652 60452,'0'0,"49"-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6956 60452,'0'0,"8"44,-8-30,0 1,0-5,0 0,0 0,4-6,-4 2,0-2,0-2,2-2,-2-2,0-8,0 2,0-2,0 0,0 2,0-5,2 5,-2 0,2 0,0 1,-2 5,8 0,-4 2,4 0,-2 0,-2 4,2 9,0-3,-4 7,1-6,1 0,-2-3,0 0,4-6,-6-2,4 0,-2 0,0-8,-2-2,8-1,-8-2,4-2,0 5,2 3,-4 1,5 2,-5 4,-2 0,2 2,4 6,-4-1,4 3,-6-2,4 5,2-7,2 2,-4 0,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8069 60452,'985'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9959 60492,'0'0,"24"27,-24-17,0 4,-4 2,-5 3,-2-3,-1 6,-2-9,0 2,0-5,2-6,-4-4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7207 60502,'0'0,"-18"-2,12 4,4 2,-2 0,2 5,2-1,0-2,0 0,0 2,6-4,2 2,0-6,0 0,-6 0,6 0,-4-2,0-4,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,1 2,3-2,6 2,-4 4,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7425 60508,'0'0,"-45"31,35-21,8 6,0-1,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7334 60527,'0'0,"58"16,-47-8,1-2,4 0,-2 4,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8614 60654,'0'0,"-30"-10,16 10,0 0,-3 4,3 0,0 2,-3-4,7 2,0 2,8 0,0-2,2 4,0-2,6 0,4-1,7 6,-1-1,4-2,3 6,-3-3,-4 6,-4-5,-8 2,2-3,-6-1,0 3,-6-4,-4-1,2-4,-2 0,-6-4,4 0,-3 0,3-4,-2-2,2 0,4 1,-1 1,5 2,-2-3,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5073 49828,'0'0,"22"10,-8-1,-2 7,0 0,0 8,0-2,0-1,-6-1,2-3,-4-7,2 0,0-6,-4 2,0-6,0-8,-2-6,0-4,0-1,0-8,0 5,0 2,4 0,4 2,-2 9,4-5,0 4,0 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5890 50000,'0'2515,"6049"-2515</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5011 50938,'0'0,"0"5,0 5,2 1,0 1,0 3,2 1,2 8,-4-7,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5299 51089,'0'0,"67"-18,-47 18,-1 0,-7 4,1 8,-11 0,-2-4,0 6,-4 1,-9-7,0-1,-1 1,-2-2,8-4,-7-2,7 0,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5329 51089,'0'0,"-4"55,10-36,0 2,-4 2,8 3,-1-6,-3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4989 51150,'0'0,"66"-12,-46 12,-4-4,6 1,-6 1,6 0,-8 2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5073 51257,'0'0,"16"-16,-6 16,-8 0,6 0,-2 0,-4 6,-2 2,0-2,0 1,0 4,0 1,-6 2,-4-2,4 0,-2-4,4 5,-2-7,2-2,2-2,0 2,2-2,6-2,2 0,2 0,0 0,4-6,-2 4,0 2,6-4,-2 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5950 51257,'3260'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9212 51293,'0'2422</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8705 52114,'0'0,"8"49,-6-35,-2-5,8 7,-6-6,4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8839 52138,'0'0,"-44"57,26-34,2 1,-4 14,10-7,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9009 52140,'0'0,"12"51,-12-36,0 1,0 0,0 0,0 1,0-1,-2-4,2 0,0-7,0 3,0-6,6-2,-2 0,2 0,1 0,-1 0,2 0,2 0,-1 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11899 52163,'0'0,"0"16,0-4,4-1,-4 5,0-1,0 2,0 2,0 1,0-4,0 0,-4 1,4-7,0-2,0-1,0-3,8-2,0-2,-2 0,4 0,-2 0,2 0,-2 0,2 0,0 0,-4 0,-2 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8851 52271,'0'0,"29"-12,-19 12,-4 0,-2 0,-4 10,0-1,0 4,-10 1,-2 0,0 3,-2-7,7 6,-3-9,4 3,2-3,4-5,8-2,4 0,3 0,1-4,0-1,4 3,-8 2,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12519 52483,'0'0,"-53"51,41-33,-2 7,2-2,6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12382 52498,'0'0,"12"-1,-8 1,2 0,-2 1,0 3,2 4,0-2,0 6,2-2,-2-3,-2 0,2 1,2 0,-4-6,0 5,4-5,3-2,-7 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12642 53524,'0'0,"0"8,0 0,0 2,0-1,0 8,0-3,0 5,0 8,0-11,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13032 53576,'0'0,"61"-10,-43 18,0-1,0 4,-8 2,-1 3,-7-1,-2 1,-2-4,-13-3,-1 0,-2-7,-2 2,2-4,1 0,7-4,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13036 53580,'0'0,"2"12,0-9,-2-1,0 4,0 2,0 0,0 9,0-1,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13046 53658,'0'0,"-2"62,2-33,6-2,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12366 53668,'0'0,"8"0,0 0,4 0,0 0,0 4,-2-3,0-1,2 2,-4 3,4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12761 53668,'0'0,"-46"50,37-33,-1 3,-12 7,10-3,2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9261 53737,'2688'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12751 53806,'0'0,"57"-10,-51 18,-2-6,-4 7,0 2,-2 0,-10 1,2 1,2 1,0-4,-3 2,5-4,-2 5,6-7,-2 0,4-4,0 4,4-6,6 2,0-2,5 0,-1 0,0 0,2 0,-2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5203 54577,'0'0,"0"17,0-9,0 5,0-2,0 4,0 1,0-2,0 3,0-7,6 3,-6-7,6-4,-4 0,4-2,-6 0,4-8,0-1,-4-3,0 1,0-6,0 2,0 0,0-4,0 2,0 0,0 5,0 2,0 4,2 0,0 2,2 4,-2-6,0 6,0 0,4 10,4 0,-4 5,0 2,0 5,2-1,2-4,-4-2,4 2,-6-10,2-3,2-4,-4 0,0-2,0-11,0-3,-2-4,0-2,3-3,-5 5,4 3,-2 7,0 0,0 4,0 6,2 0,2 6,0 2,0 0,2 4,-4 0,1 5,-1 6,-2-4,6 2,-5-1,9 1,-4-8,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5888 54604,'0'2515,"6049"-2515</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10288 55473,'0'0,"8"72,-8-49,4-4,-4 3,0-9,0 4,5-8,-5 1,2-8,0-2,0-2,-2-15,0 7,0-9,0-3,0-2,-2-3,0 1,2-1,0 10,0-1,0 6,0 5,0 3,2-4,4 8,-2 0,0 0,0 8,4 3,-2 9,2-1,0 8,4-5,0-2,-2 1,-2-2,0-5,-2-4,0-3,-2-5,-2-2,-2 0,0-8,0-5,0-10,0 1,0-9,0 2,0 4,0 1,0 12,0 3,0 1,8 6,-5 0,5 2,2 0,-4 0,4 4,-2 8,-4 1,-2 5,0 3,0 4,2-3,0-2,6 9,-4-4,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9075 55794,'0'0,"39"-37,-19 33,4-5,4-2,0 4,-3 3,-9 4,-8 0,0 7,-8 8,0 2,-8 1,-4 3,2-6,1 1,1-9,8-4,8-3,15-3,-1-10,11-8,0-4,11-1,16-1,17-10,13-2,3 1,-20 16,-11 4,-30 14,-12 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10668 55622,'0'0,"0"-2,0 4,0 4,0 1,0-1,0 10,0-9,2 7,2-5,2 2,-6-7,2 1,2 1,-2-1,-2-5,0 0,0-11,0 2,-6 0,4 0,2 1,-4-2,2 5,2-4,0 2,0-1,0 0,2 5,2 1,-2 0,2 2,-2 0,0 0,2 7,0 1,0 4,0 1,5-3,-7 2,4-3,-2 0,0-5,-2-1,0-3,0 0,-2-7,0-4,4-2,0-1,-2 4,2-1,0 0,0 3,1 6,-5-2,2 4,2 0,-2 0,0 4,4 3,0 1,-1 0,1 4,0-5,2 5,0 2,2-2,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10923 55658,'0'0,"-16"-27,8 26,2 1,4 0,-1 0,-3 0,4 0,-4 1,4 5,-2 0,4 6,0-5,0 1,0 0,6-2,2-1,-1-3,1-2,-2 0,2 0,-2-2,-2-3,-2 1,0 0,-2 2,2 2,0 0,2 0,2 0,-2 0,2 0,0 4,0-2,2 7,2-7,-2 5,4 2,2-5,-4 3,-4-7,2 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11160 55630,'0'0,"-31"34,19-16,0 2,0 4,2-2,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11023 55648,'0'0,"68"32,-54-23,0 2,4 0,1 0,-5 0,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9021 55737,'0'0,"-12"34,2-19,-6 1,6-1,-2 1,0-8,6 1,3-1,3-8,7 0,3 0,6 0,4 0,-2 0,4 0,-3 0,0 0,2 0,-3 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4778 55955,'0'0,"0"-2,0 10,4 0,-2 5,0-2,2 2,-2 0,-2 4,2-1,-2 3,0-2,4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5883 57065,'2950'-1076</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8892 56014,'3031'1032</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4987 56044,'0'0,"58"-23,-44 23,-2 0,2 8,-4 7,-2-1,-6 3,2-2,-4 5,0-6,-6-2,-6 2,4-10,-8-2,2-2,0 0,4 0,-4 0,6-3,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5229 56056,'0'0,"4"7,0-3,-2 4,0-1,-2 1,0 6,0-2,0 8,0-4,0-2,0 2,0 0,0-7,2-1,4-4,4 3,-2-5,0-2,2 0,-4 0,2 0,0 0,0-2,2 0,-2 2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5003 56084,'0'0,"10"52,-8-36,6 5,-8-4,8 0,-8-5,4 1,0-2,-4-6,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4738 56186,'0'0,"56"-10,-35 7,11 3,-11 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4831 56273,'0'0,"-35"42,27-29,0-5,2 2,0-4,4 0,0-4,2 0,0 2,2-4,6 0,-2 0,2 0,2 0,0 0,-1 0,1 0,-6 0,2 0,0 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">4864 56289,'0'0,"14"39,-12-25,2 2,-2 2,0-4,-2 2,4 0,0 0,-4-4,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">12101 56731,'0'0,"0"7,0 2,2 0,-2 8,0-2,0 0,0 0,0 1,0-6,2 2,-2 0,0-3,2-5,0 0,0 1,-2-3,6-2,-4 0,4 0,0 0,0-2,0-3,0 3,2-2,0 4,0 0,0 0,1 0,3 0,2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12390 57119,'0'0,"30"0,-18 0,2 0,-4 0,4 0,-6 4,1 6,-1 1,-6 3,4 2,-2-1,2-1,2-2,4 5,-2-6,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12579 57121,'0'0,"-54"70,42-56,-2 4,6 4,-3-6,9-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8868 57246,'0'0,"8"57,-4-42,2-1,0 7,0-8,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9025 57360,'0'0,"-28"58,20-41,-6 5,6 3,-4-4,2-1,1 5,-1-7,6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9312 57419,'0'0,"2"5,0 3,2 1,0 7,2 0,-2 1,-3 0,-1-1,0-2,0 0,0-5,0-3,2-3,-2-1,4-2,-2 0,4 0,-2 0,4-2,0-1,0 1,6 0,-6 2,2 0,6 0,-4 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9015 57577,'0'0,"51"-31,-40 31,-5 0,1 0,-1 8,-4 2,-2 5,0-1,0-3,-4 3,-5 1,5-5,-4 1,1 0,3-6,2 2,2-5,2-2,2 0,7 0,2 0,-1 0,0-2,4 2,-4-4,4 1,-2 3,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13277 59599,'0'0,"6"48,4-28,-4 3,2 4,-4-1,4-3,2 4,-2-7,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14803 59619,'0'0,"12"46,-4-27,0 4,11 7,-7-1,2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16276 59640,'0'0,"0"7,4 3,0 3,4 3,0 3,0 0,0 0,3 1,-3-4,0-4,-2 0,0-9,-6-3,0-7,0-1,-6 4,-8 0,4 0,-3 2,1-1,0 3,4 0,-2 0,2 0,0 0,4 0,-2 3,6 3,0-2,0 4,0 0,4-5,6 8,0-5,2 4,4-2,2-4,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16614 59640,'0'0,"6"7,-2 5,-4-1,6 5,-4 1,0 4,2-2,-2 4,2 0,0-2,4 2,1 0,-3-5,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13719 59645,'0'0,"-13"0,13 10,0 5,4-1,5 5,-5-2,6 6,-2 0,4-6,-4 3,0-2,0 0,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17896 59879,'0'0,"-4"-58,-1 40,3-11,-4 6,4-2,2 2,0 6,-4 5,4 5,0 3,0-2,0 4,6 2,2 0,3 4,5 7,-2 1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13163 59751,'0'0,"48"-8,-38 4,0 0,-6-5,2 0,-6 3,0-2,-4 4,-4-3,-8 7,5 0,-5 0,2 3,3 3,-1 0,4-2,0 2,4-1,0 4,2-1,2 4,0 3,2-4,10 3,0 0,4-6,9 0,-4 2,-1-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14483 59695,'0'0,"-16"0,10 0,0 0,-3 0,5 0,-2 2,0 0,0 2,-2-2,0 4,4-4,0 4,4-1,0 0,0 1,6 0,0-4,6 6,-4-2,2-2,3 3,-9 2,-2 1,-2-2,0 3,0-4,-2-1,-2-4,-5 0,3-2,-2 0,2-4,4-2,0-1,2 4,0-1,0 0,2 0,4 4,2 0,3-4,3 2,2 0,0-2,-2-1,0 3,-3 0,3 0,-2 0,-8-1,4-1,-4-2,2 4,-4-6,4 4,-2 0,-4 2,0-5,-8 7,2 0,-2 0,0 0,-4 3,4 3,-2 2,5 0,-1-2,0 0,6-1,0 1,0 3,2-1,10-4,-3 4,11-5,6-3,0 5,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14817 59724,'0'0,"49"-5,-31 5,4 0,0 1,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15819 59719,'0'0,"0"12,0 0,0-2,4 3,4 2,0-3,0 1,-4-2,2-1,-2-6,-2 0,-2-8,0-6,0 2,2-2,-2-2,0 2,2-1,-2 2,2 5,-2-2,2 2,0 2,-2 0,3 2,1 4,-2 2,2 6,0-5,4 6,-8 1,3-7,1 0,-4-5,2 0,0-9,2-2,-4-3,2-5,2 6,-2-1,7 2,-9 4,6-1,-4 7,-2 0,4 0,0 0,-2 11,4-5,2 4,0 2,0 0,0 0,4 0,0 4,-4-2,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13595 59735,'0'0,"-46"-13,38 13,-2 2,6 0,0-2,4 7,0-5,0 2,4 0,2-2,6 2,0 0,-2 2,0 0,-2-1,0 2,-6 1,4 0,0 0,-6-3,0 2,0-1,0-4,0 4,-4-4,0-2,0 0,2 0,0-2,2-4,0 2,2 0,6-1,8 3,-3-1,13-1,-5-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14719 59726,'0'0,"-34"17,28-9,4 0,-2 1,2 0,2-1,0 0,6 0,8-3,10-5,-2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15129 59743,'0'0,"-18"31,24-26,6-1,-8-4,8 0,-2 0,-2 0,-6-9,4 1,-6 1,0-3,0 2,0 0,-8 4,-4 1,3 3,-8 0,5 7,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15268 59751,'41'52,"-41"-54,-2 0,-2-8,2 0,2 1,-2 2,2-5,0 6,0 2,0 0,0 2,0 0,0-2,4 1,2 3,2 0,0 0,2 0,-2 3,2 5,-2-2,2 2,-4 4,2-5,-4 8,4-1,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14989 59729,'0'0,"20"50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13438 59766,'0'0,"-34"-37,28 37,0 0,2 4,-2 6,6 2,0 1,0 2,0-3,0-1,8-4,0 1,0-8,-2 0,2 0,-6 0,4-8,2 1,-6 4,2-5,-4 0,0 6,0 0,4 2,-4 0,6 2,-4 4,11 2,-5-1,6-2,6 1,-2-4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18918 59735,'0'0,"2"35,6-14,0 1,0 4,0-3,8 7,-7-5,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13878 59737,'0'0,"16"58,-4-47,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">14036 59737,'0'0,"-52"6,46 0,-4 2,2 0,2 1,6 4,0-1,0-3,18 4,-2-3,12-2,0-6,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11738 60157,'0'0,"68"-64,-26 32,25-7,34-13,18-5,13 7,5 4,-4 16,-10 9,-18 6,-32 7,-23 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17756 59766,'0'0,"-2"-19,0 17,2 0,-2 2,-4 0,4 0,-4 4,2 2,0 0,2 3,2 0,0-1,0 6,6-7,10 2,-4-3,4 4,-2-10,-1 0,-1 0,-4-10,-8 4,0-3,0-2,-4 1,-8-3,4 7,-1 3,1 1,0 2,0 0,6 4,-2 1,4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">15268 59751,'0'0,"31"40,-23-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16413 59777,'0'0,"29"40,-21-36,4 4,1-6,1-2,-2 0,2 0,-4-10,-2 2,-4 1,-2-4,-2-7,0 4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19758 59751,'0'0,"12"48,-4-34,0 12,4-10,2 5,-2-3,8 1,-2-6,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">13702 59772,'0'0,"51"-11,-35 11,0 0,11 0,-5 0,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18504 59774,'0'0,"0"55,0-39,8-1,-4-1,4-1,-3-2,-2-4,-3-3,4-4,-8-8,1 1,-2-8,-3 3,4-4,2 2,0-2,-2 5,4 4,-2 3,2-4,0 2,2 2,6-3,2 3,0 0,4 3,-4 1,-2 0,8 0,-8 5,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16727 59766,'0'0,"14"63,-6-49,5-2,1 0,-4-3,4-4,1-3,-3-2,0 0,-4-7,-4-7,-2 1,-2 1,0-4,-2 1,-4 12,0-1,-2 4,4 0,0 0,4 4,0-1,6 2,2 1,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16114 59772,'0'0,"-39"7,39 1,0 2,0-1,4-2,6 1,0 2,2-4,-3-4,7-2,-6 0,0-8,-4-2,-2 0,2 4,-6-4,0 2,-16 0,6 1,4 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17885 59772,'0'0,"47"0,-18 0,-5 2,2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17013 59823,'0'0,"4"-24,-12 24,0 0,-8 0,8 0,-2 0,2 0,2 4,4-2,2-1,0-1,8 7,4 1,-2 2,2 0,-2 2,4 0,-10 0,4 0,-4 2,-4-2,0-1,0-3,0 0,-8-8,4 1,-4-1,-2 0,0 0,2-1,0-5,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18652 59874,'0'0,"56"-29,-48 23,-4-4,2 0,-6 4,0 1,-4 3,0 2,-6 0,2 0,0 4,0-1,-4 3,4 2,4-2,0 2,2-2,2 7,0-4,6-1,4 2,6-1,0-4,12-1,-4 0,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18831 59829,'0'0,"-29"12,25-6,2 3,2-2,0 4,0-4,6 6,-2-6,8 1,1-4,3 0,0-4,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">20065 59887,'0'0,"0"13,0-6,0-1,2-2,-2 5,2-3,-2-4,2 2,-2-6,0-8,0-3,0 0,-2-6,2 5,0 2,0 2,2 4,4 4,2 2,2 0,5 0,5 2,15 6,-3 5,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19141 59841,'0'0,"-46"0,39 4,3 4,2-4,2 4,0-4,4 4,5-4,1-4,-2 0,0 0,0 0,0 0,-4-2,0-1,0 1,-2 2,0 0,-2 0,4 0,0 5,2 1,2-2,0 5,2-4,10 3,-6 0,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">18942 59845,'0'0,"59"-2,-36 4,1 0,2-2,-5 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19235 59847,'0'0,"14"38,-8-27,-2-2,2-3,-1 0,-1-6,0 0,-2 0,0 0,0-4,-2-4,0-1,0-6,0 8,0-2,0 0,-2 2,2 3,0 4,2 0,2 0,-2 0,6 4,0 7,2-2,0 1,2 7,4-4,1 0,-3-1,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19468 59901,'0'0,"-24"-22,16 22,4 0,-2 0,0 0,6 6,0 1,0-1,0-3,4 5,4-6,-4 0,4-2,0 0,-2 0,0 0,-4-4,0 0,2 0,-4-1,0 1,0-1,0 1,0 0,0 12,6 5,0-2,2 8,0-4,-1 7,3 1,4-3,-10 0,0-1,-2-5,-2-1,0-8,0-2,-2-3,0 0,0-3,2-6,0-8,0 1,0-1,4-5,1 6,1 6,-2-5,0 11,-2-1,1 1,3 1,-4 0,8-7,2-3,-2 5,1-5,-5 2,-2 5,-4 3,0 3,-2-2,-2 2,2 0,0 0,0 0,-1 0,3 3,0 1,0 2,0 3,7-4,1 5,0-4,0 3,0-5,2-2,-2 0,-4-2,2 0,0 0,-4-4,0-4,2-5,-2 4,0-4,4 2,-6-3,4 5,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">19956 59863,'0'0,"-42"-16,38 16,0 6,0 1,4 0,0 2,0 0,2 2,6-6,0 3,0 0,2-8,0 0,0 0,0 0,-4 0,4-8,-10 4,5 0,-5 4,0 0,0 0,2 4,2 0,0-2,10 4,-4-1,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">11722 60087,'0'0,"4"30,-4-19,0 3,0-3,0 4,-8-2,0 3,2-6,0 1,2-5,4 1,0-5,6-2,2-2,2-4,-2 1,4 3,0-3,7 5,-3 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">16656 60108,'0'0,"17"54,-13-35,2 5,2-9,-4 2,6-1,-4 0,2-1,0-9,-8 2,2-6,0 0,0 0,-2-6,0-6,0 4,-4-5,2 1,2 0,0 6,0-4,0 2,2 2,6 0,-2 1,2 3,3-4,1 4,-4 0,2 7,-2 3,0 4,-1-2,-3 2,-2-1,-2-3,0 0,0-4,-6-6,-1 0,-1 0,0 0,0-8,0 2,2 2,4-2,2 4,6 2,-4 0,6 0,8-2,-8 0,7 0,-1 2,0-2,0-3,-2 3,-4 2,4-2,-3 0,0 0,-3 0,2-2,0 1,0-4,-6 3,0 0,-2-4,0 6,0-2,-4 0,-4 4,0 0,2 0,-2 0,2 0,-4 4,8 0,-4-2,4 6,-2 0,4-1,0 0,8 1,2 1,4-5,6-2,12 2,0-4,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8745 60191,'0'324</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8234 60199,'0'293</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17257 60258,'0'0,"-4"26,6-18,2 0,0-1,-1-2,3-1,-2-4,2 0,-4-2,-2-4,0-2,0 0,0 0,0-1,0 1,0 3,0 1,0-1,6 5,-4 0,4 0,-4 0,6 0,-2 0,-2 0,4 9,-4-2,-2 1,2-1,-2 1,4 0,-3-8,1 0,-2 0,0 0,2-4,2-4,-4-5,0 3,2-2,0 4,0 0,0 2,0 4,2 0,-1 2,-1 0,-2 4,6 2,-6 2,2 5,4-4,0 1,0 3,0-3,12-3,-6 0,7-3,1 0,-2-4,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8384 60298,'0'0,"0"65,2-51,-2-2,4 4,-2-5,0-5,-2-4,0 2,2-4,-2-6,0 0,0-5,0 1,0 0,0-4,-2 4,0-3,0-3,-2 0,4 2,-2 2,2 1,-4 1,4 3,0-2,0 3,0 0,0 4,6-2,-6 4,4 0,0 0,-2 0,4 4,0 2,0 2,4 6,-6-4,8 3,-6 4,4-6,-2 3,2-1,-4-3,4-2,-6-4,3 0,-1-4,-4 0,2 0,-4-4,2-2,2-7,-4 1,0-2,0-1,0-4,0 0,0 5,0 2,0 4,0 8,2-2,0 2,0 0,4 0,-2 0,2 0,0 0,1 0,-3 6,2 6,2 4,-8-1,4 1,0 0,2 0,-4-6,2 5,2-1,2 0,-2-2,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17125 60243,'0'0,"-49"-4,47 6,0 2,-2 0,2 0,2 3,0-2,0 1,4 0,2 1,5-3,-3-2,2-2,-2 0,0 0,0 0,-2-6,2 1,-6 1,4 4,-3-6,-3 6,2 0,2 0,0 6,2-6,2 4,4 1,3 1,-1-4,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">17719 60341,'0'0,"-2"-9,2 9,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10862 60496,'0'0,"-59"3,51 1,1 0,1 4,4-8,2 8,0-6,0 4,8 1,-1 1,5 2,0 3,4-3,-4 7,0 2,-3-5,-1 9,-6-7,-2 0,0-4,-2-2,-6-4,-3-5,-3-1,4 0,-4-7,2-3,4 0,2-2,2 2,3 4,1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6746 60531,'0'0,"-17"0,5 3,6 11,-4-2,0 1,4 3,-4-1,8 2,-2-7,4 1,4 1,8-8,4 2,0-6,9 0,-3 0,-2 0,-3 0,-3-6,-8-6,3-3,-7 3,-2-5,-5 4,-5-2,-2 5,2 2,-3 0,-1 3,4 5,0-5,4 5,0 0,4 0,0 0,4 0,-2 0,2 0,4 0,0 0,4 5,0-5,6 0,3 0,-1 0,1 0,9 0,-9 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9970 60550,'0'0,"-14"21,14-19,0 1,2-3,4 0,0 0,-4 0,1 0,2-3,-5 1,4-2,-4 2,0 1,-4 1,-1 0,0 0,1 0,2 1,-4 5,6-6,0 2,0 1,0-2,6 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11101 60571,'0'0,"59"-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7661 60591,'0'0,"55"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11145 60619,'0'0,"53"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7655 60678,'0'0,"49"-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6958 60678,'0'0,"8"45,-8-30,0 0,0-5,0 0,0 0,4-5,-4 1,0-2,0-2,2-2,-2-2,0-8,0 1,0-1,0 0,0 2,0-5,2 4,-2 1,2 0,0 1,-2 5,8 0,-4 2,4 0,-2 0,-2 4,2 9,0-3,-4 8,1-7,1 0,-2-3,0 1,4-7,-6-2,4 0,-2 0,0-9,-2-1,8-1,-8-2,4-3,0 6,2 3,-4 1,5 2,-5 4,-2 0,2 2,4 6,-4-1,4 3,-6-1,4 4,2-7,2 2,-4 0,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8072 60678,'986'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9964 60719,'0'0,"24"28,-24-18,0 4,-4 3,-5 2,-2-3,-1 7,-2-10,0 2,0-4,2-7,-4-4,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7209 60729,'0'0,"-18"-2,12 4,4 2,-2 1,2 4,2-1,0-2,0 0,0 2,6-4,2 3,0-7,0 0,-6 0,6 0,-4-3,0-3,-2-2,-2 2,0 4,0 0,2 2,2 2,-4 0,6 2,-2 0,1 2,3-2,6 3,-4 3,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7428 60735,'0'0,"-45"32,35-22,8 7,0-2,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7337 60755,'0'0,"58"16,-47-8,1-1,4-1,-2 4,-2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8618 60885,'0'0,"-30"-11,16 11,0 0,-3 4,3 1,0 1,-3-4,7 2,0 2,8 0,0-2,2 4,0-2,6 1,4-2,7 6,-1-1,4-2,3 7,-3-4,-4 6,-4-5,-8 3,2-4,-6-1,0 3,-6-3,-4-2,2-4,-2 0,-6-4,4 0,-3 0,3-4,-2-2,2 0,4 1,-1 0,5 3,-2-3,4 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2192,78 +2192,78 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34054,'0'0,"-2"-8,2 11,0 10,2-3,4 3,0-2,4 2,-4-1,4-4,-4-5,0 3,4-6,2 0,-4-2,-2-9,0-1,-2 0,3-4,-5 3,-2-1,0 3,0 2,0 3,0 6,-2-6,0 6,2 6,0 8,2-2,2 7,2-2,2 6,-4 0,4 2,-4-1,-4 3,0-2,0-8,0-1,-2 0,-4-3,-2-4,0-5,-2-4,3 0,1 0,4-13,2 2,0-1,4-2,9-2,3 7,0-5,16-5,-3 4,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3112 34175,'0'751,"810"-751</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5474 34448,'0'0,"20"24,-12-17,-4-1,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9645 34509,'0'0,"42"-37,-26 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9371 34709,'0'0,"58"-29,-36 21,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">5765 34672,'0'0,"20"8,-8-2,-2-1,4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9100 34842,'0'0,"42"-26,-26 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6094 34821,'0'0,"41"13,-33-7,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8800 34932,'0'0,"40"-13,-30 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6383 34919,'0'0,"18"0,-10 0,7 9,1-7,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4170 34928,'0'0,"-12"23,4-7,0-2,-2 8,-5-5,3 6,0-2,-1 2,5-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4026 34959,'0'0,"22"-16,-12 18,2 6,-2 6,5 0,-1-2,-2 8,1-2,1 2,-4-5,-2-2,-4-3,4-4,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">6789 35011,'0'0,"46"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8479 35029,'0'0,"44"-7,-22 5,-8-1,1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7093 35045,'0'0,"48"21,-31-21,-1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8168 35102,'0'0,"51"-1,-41-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7415 35102,'0'0,"46"0,-40 4,5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7776 35122,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7834 35418,'0'0,"14"39,-12-31,2-3,0-3,-2 4,0-4,-2-10,0 6,0-11,0 5,-2-7,0 2,-2 0,2-2,0 1,0-1,-2 0,4-1,-2 5,2 1,0 3,0 3,0 2,2 4,4 6,-2-1,8 8,-4-5,6 0,-4 3,6-6,0 1,-2-3,4-3,-5 0,3-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">7836 35341,'0'0,"50"57,-16-8,8 14,5 9,4 8,-2-11,2-4,2-3,-19-17,-4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10764 36008,'0'0,"-18"45,16-34,2-2,0-1,0-2,0 0,2-12,2 0,-2 0,-2-5,0-2,4-2,-2 1,-2 0,4 0,-4 3,0 1,0 8,0 4,0 8,2-1,0 4,0 0,4-1,0-2,2 3,0-4,2-1,2-3,1-5,1 0,0 0,2-9,-4 0,0-8,0 7,-2-6,-4 5,-4-5,-2 0,0 1,0 3,-8 4,2 2,0 6,-8 0,2 6,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8485 36091,'0'0,"0"44,0-34,0 3,0-6,0 5,0-8,0 2,0-14,2-2,-2-1,0-2,0-5,6 3,-6-4,2 1,-2 2,0 1,2 6,-2 0,0 9,6 0,-6 5,4 6,0 6,4-4,0 2,0 2,4-4,-6-3,4 0,-3-2,-3-4,2-4,1 0,-7-4,4-6,-4 0,8-3,-8-6,2 3,2 3,-2 0,-2 2,0 2,4 4,0 1,-2 2,2 2,-2 2,0 2,4 1,-4 4,6 4,-2-2,4 0,-2 1,4 1,0-1,0-5,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8993 36026,'0'0,"-29"36,23-19,-2 4,4-2,-4 9,4-10,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10456 36026,'0'0,"0"36,0-26,0-1,4 1,2-3,-4-1,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10058 36047,'0'0,"28"-12,-24 12,4-4,2 4,0-1,-4 1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10314 36040,'0'0,"47"-10,-31 10,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10578 36031,'0'0,"-28"33,28-25,0-1,4 1,4-4,2-2,-2 0,6-2,-4 0,5-2,-4-8,3 2,-6-3,-6 4,-2-3,0 3,-2 0,-6 4,-6 3,5 0,-4 0,5 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9615 36072,'0'0,"46"-25,-34 18,2 3,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8774 36035,'0'0,"-8"50,4-31,4-2,-4 3,0-3,4-4,0 1,-2-4,2-7,0 1,2-9,2-5,-2-2,0-2,-2 0,4 2,-4-4,0 5,0-2,0 1,0 4,0-3,0 6,0-1,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-3 0,2 4,-1-3,6 5,-4-3,4 3,-6-7,2 0,0 3,-2-4,-2-3,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10347 36036,'0'0,"0"43,4-29,0-5,-4-1,6-1,0-1,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9350 36059,'0'0,"35"-6,-23 10,1 0,-1 5,-3-2,3 3,-2 7,-6-2,0 1,-2 3,-2-6,0 1,-2 2,-6-3,-2-7,0 4,4-8,1 2,1-2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10243 36055,'0'0,"-37"20,33-14,0 6,2-1,2-3,0-1,2 1,4-4,2 0,3-4,-1 0,4-2,-2-4,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9783 36070,'0'0,"37"-8,-33 7,12-1,-8 2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9582 36059,'0'0,"-8"51,8-34,0 1,0-2,0 2,4-4,0-3,4-5,-4-2,9-4,-5 0,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8896 36062,'0'0,"48"31,-38-20,0-3,2-3,7 3,-4-6,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9931 36062,'0'0,"0"33,0-16,0-10,0 5,0 0,0-3,4-1,-4-5,8 3,-4-4,0-2,5 0,-3 0,-2 0,2 0,-4-2,6-2,-1 0,-5 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10054 36075,'0'0,"0"44,0-32,2-4,0-2,0 1,4-4,-2-3,0 0,-4 0,6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9771 36081,'0'0,"-8"50,8-38,0-1,4-4,-4 3,4-2,-2 0,-2-6,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10082 36093,'0'0,"42"-4,-36 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9340 36100,'0'0,"4"35,0-16,-4-8,4 5,0-8,1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9611 36133,'0'0,"50"-19,-34 17,-10-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">8784 36143,'0'0,"46"-16,-36 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9799 36147,'0'0,"47"-10,-37 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">10096 36160,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1">9619 36214,'0'0,"10"-8,-4 6,6 2,-6 0,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6801 36755,'0'0,"16"-9,-12 7,4-1,-2 3,2 0,-6 0,5 5,-3-2,0 3,-4-5,0 6,0 1,-4-4,0 0,-3 4,5-8,2 3,-4-3,4 2,4-2,-2 0,9 4,-5-2,0 4,0 2,2 1,0-1,-2 1,2 0,-6 0,-2-3,0 1,0-3,0 3,-8-7,0 0,4 6,-8-6,6 0,-4 0,-3 0,7 0,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4192 36821,'0'0,"-8"0,4 6,0 6,-2 2,0 7,-2 12,2 11,0-1,6-2,0-16,8-2,0-6,0-7,10 8,-2-2,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5336 36829,'0'0,"-8"0,0 3,3 3,-1-3,0 5,2-1,0-1,1 5,3-6,0 1,0-1,3 1,5 2,0 0,3-2,3 2,-2 2,0 2,-2 0,-2 3,-2 1,-6-4,0-2,-6 5,0-7,2 0,-8-6,2 4,-2-6,0 0,1 0,3-2,0-4,3 1,1-4,2 1,2-3,0 3,2-4,2 4,5-4,1 1,-4 3,5 0,-3 4,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6485 36856,'0'0,"30"-15,-18 15,-2 0,1 8,3-2,-6-1,0 4,-2-4,-2 7,-4-9,0 9,0-8,-4 4,-2-4,-6 0,4 0,-2-4,-3 2,5-2,-4 0,8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4763 36855,'0'0,"12"36,-4-22,2 6,2 0,-2 3,2-1,0 2,0 0,-4-2,0 2,-4-4,-4 10,-12-12,6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6491 36856,'0'0,"0"18,2-6,0-7,-2 7,8 0,-8 0,6-2,-4 0,-2-1,0-2,2 0,-2-5,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6666 36873,'0'0,"6"30,-6-20,0-2,0 2,0 0,0 0,6-5,-4 0,2 2,0-5,4 2,-4-4,4 0,-2 0,2 0,-2 0,2 0,3-4,-7 4,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5603 36941,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4268 36974,'0'0,"0"18,2-10,-1 2,1 1,-2-1,2-1,2 2,-4-6,0 1,6-2,-4-4,-2-8,0 1,0-1,0 1,0 0,-2-6,2 1,0 6,0 0,0 0,0 0,2 0,2 6,0 0,-4 0,7 0,1 8,-6 0,6 4,0-2,-2 1,-3 2,3-6,-4 1,0-3,0-3,-2-2,0-7,0-1,0-4,0 2,0-7,0 7,0 2,4-4,-2 8,0-3,2 7,0 0,-2 0,2 5,2 1,-4 2,4 0,0 2,-2 0,8 3,-6 0,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4473 37012,'0'0,"-4"33,4-20,0-5,0 3,0-5,4-3,-4-3,2-3,2-5,-4-1,0-4,0 3,0-4,0-3,0 7,0-4,0 6,0 2,2 0,-2 3,0 1,4 2,0 0,-2 0,4 5,1 1,-1 6,-2-4,5 0,-1 6,2-1,0-2,-2 0,2 4,-4-6,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4691 36986,'0'0,"-36"33,28-17,2-8,0 7,6-4,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4619 36990,'0'0,"34"31,-20-23,-4 1,4 4,-8-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6108 36990,'0'0,"16"0,-12 0,5 0,-3 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5657 37002,'0'0,"27"-4,-17 4,2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4495 37043,'0'0,"40"-3,-28 3,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6379 37096,'825'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6395 37267,'0'0,"-16"19,12-13,-4-1,6-1,-4 4,2 0,0-8,4 4,-2-4,2 3,6-3,-2 0,4 0,0-3,0-1,0 4,0 0,2 0,-2 0,-1 0,1 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6544 37292,'0'0,"-9"-4,7 8,-2-2,2 3,2-3,0-2,0 8,2-8,6 0,-1 0,-3 0,2 0,4-6,-8 4,4-2,-2 1,-2-5,-2 4,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-3 0,3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6971 37278,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6742 37282,'0'0,"27"-4,-13 4,-4 0,2 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6424 37282,'0'0,"10"27,-8-13,2-3,-2 2,0-2,0-1,4 2,-2-2,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7027 37286,'0'0,"4"33,-2-22,2-2,-2 1,0-1,2-1,2 0,-2-3,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6749 37309,'0'0,"4"25,-4-20,0 3,8-1,-4-3,0 0,-2 4,4-4,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6584 37330,'0'0,"-20"17,20-12,0 5,0-4,2 0,4 0,2 0,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-2,-4-2,2 2,-4 1,0-1,-6 1,0 2,-2-1,-2 4,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6793 37332,'0'0,"32"0,-26 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6811 37396,'0'0,"34"0,-19 0,-9 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7049 37400,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,3-2,-5 2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2768 34055,'0'0,"-2"-9,2 13,0 9,2-3,4 3,0-1,4 1,-4-1,4-4,-4-5,0 3,4-6,2 0,-4-2,-2-9,0-1,-2 0,3-5,-5 4,-2-1,0 2,0 3,0 3,0 6,-2-6,0 6,2 6,0 8,2-1,2 6,2-1,2 5,-4 1,4 1,-4 0,-4 2,0-1,0-9,0 0,-2-1,-4-3,-2-4,0-5,-2-4,3 0,1 0,4-13,2 2,0-1,4-3,9-1,3 7,0-6,16-4,-3 4,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3112 34178,'0'768,"811"-768</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5477 34457,'0'0,"20"25,-12-18,-4-1,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9653 34520,'0'0,"42"-38,-26 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9378 34724,'0'0,"58"-29,-36 20,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">5768 34686,'0'0,"20"9,-8-3,-2-1,4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9107 34860,'0'0,"42"-26,-26 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6098 34839,'0'0,"41"13,-33-7,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8807 34952,'0'0,"40"-13,-30 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6387 34939,'0'0,"18"0,-10 0,7 9,1-7,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4172 34948,'0'0,"-12"24,4-8,0-2,-2 9,-6-6,4 7,0-3,-1 3,5-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4027 34980,'0'0,"22"-17,-12 19,2 7,-2 5,5 0,-1-2,-2 9,2-3,0 3,-4-6,-2-2,-4-2,4-5,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">6793 35033,'0'0,"46"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8485 35051,'0'0,"44"-7,-22 5,-8-1,1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7098 35068,'0'0,"48"21,-31-21,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8174 35126,'0'0,"51"-1,-41-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7420 35126,'0'0,"46"0,-40 4,5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7782 35146,'0'0,"24"2,-16-2,2 0,2 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7840 35449,'0'0,"14"40,-12-32,2-3,0-3,-2 4,0-4,-2-10,0 6,0-11,0 5,-2-8,0 3,-2 0,2-3,0 2,0-1,-2-1,4 0,-2 5,2 1,0 2,0 4,0 2,2 4,4 7,-2-2,8 8,-4-5,6 0,-4 4,6-7,0 1,-2-3,4-3,-5 0,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">7842 35370,'0'0,"50"58,-16-7,8 13,5 10,4 7,-2-10,2-5,2-2,-19-18,-4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10773 36052,'0'0,"-18"46,16-35,2-2,0 0,0-3,0 0,2-12,2 0,-2 0,-2-6,0-1,4-2,-2 0,-2 1,4 0,-4 2,0 2,0 8,0 4,0 8,2 0,0 3,0 0,4 0,0-3,2 3,0-4,2-1,2-2,1-6,1 0,0 0,2-10,-4 1,0-8,0 7,-2-7,-4 6,-4-5,-2-1,0 2,0 3,-8 3,2 3,0 6,-8 0,2 6,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8491 36137,'0'0,"0"45,0-35,0 3,0-5,0 4,0-8,0 2,0-14,2-2,-2-2,0-1,0-5,6 2,-6-3,2 1,-2 1,0 2,2 6,-2-1,0 10,6 0,-6 6,4 5,0 6,4-4,0 3,0 1,4-4,-6-2,4-1,-3-2,-3-4,2-4,1 0,-7-4,4-6,-4 0,8-4,-8-5,2 3,2 2,-2 1,-2 2,0 2,4 3,0 2,-2 2,2 2,-2 2,0 2,4 2,-4 3,6 4,-2-2,4 1,-1 0,3 1,0-1,0-4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9000 36070,'0'0,"-29"37,23-19,-2 3,4-1,-4 8,4-9,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10464 36070,'0'0,"0"37,0-27,0 0,4 0,2-3,-4-1,7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10066 36092,'0'0,"28"-12,-24 12,4-4,2 4,0-1,-4 1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10322 36085,'0'0,"47"-10,-31 10,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10587 36076,'0'0,"-28"33,28-25,0 0,4 0,4-4,2-2,-2 0,6-2,-4 0,5-2,-4-8,3 2,-6-4,-6 5,-2-3,0 3,-2 0,-6 4,-6 3,5 0,-4 0,5 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9623 36117,'0'0,"46"-25,-34 18,2 3,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8781 36080,'0'0,"-8"51,4-32,4-1,-4 2,0-3,4-3,0 0,-2-4,2-7,0 1,2-9,2-5,-2-2,0-3,-2 1,4 2,-4-4,0 4,0-1,0 1,0 4,0-4,0 7,0-1,0 2,2-1,-2 1,2 4,2 0,-2 4,6 5,-3 0,2 5,-1-4,6 5,-4-3,4 4,-6-8,2 0,0 3,-2-4,-2-2,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10355 36081,'0'0,"0"44,4-30,0-5,-4-1,6-1,0 0,-6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9357 36104,'0'0,"35"-6,-23 10,1 0,-1 5,-3-1,3 2,-2 7,-6-1,0 0,-2 3,-2-5,0 0,-2 2,-6-2,-2-8,0 4,4-8,1 2,1-2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10251 36100,'0'0,"-37"21,33-15,0 6,2-1,2-3,0 0,2 0,4-4,2 0,3-4,-1 0,4-2,-2-4,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9791 36115,'0'0,"37"-8,-33 7,12-1,-8 2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9590 36104,'0'0,"-8"52,8-34,0 0,0-2,0 3,4-5,0-3,4-4,-4-3,9-4,-5 0,2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8903 36107,'0'0,"48"32,-38-21,0-3,2-3,7 4,-4-7,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9939 36107,'0'0,"0"34,0-17,0-9,0 4,0 0,0-3,4-1,-4-5,8 4,-4-5,0-2,5 0,-3 0,-2 0,2 0,-4-2,6-2,-1-1,-5 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10062 36121,'0'0,"0"45,0-33,2-4,0-2,0 1,4-4,-2-3,0 0,-4 0,6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9779 36127,'0'0,"-8"51,8-39,0-1,4-4,-4 4,4-3,-2 0,-2-6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10090 36139,'0'0,"42"-4,-36 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9347 36146,'0'0,"4"36,0-17,-4-7,4 4,0-8,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9619 36180,'0'0,"50"-20,-34 18,-10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">8791 36190,'0'0,"46"-16,-36 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9807 36194,'0'0,"47"-10,-37 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">10104 36207,'0'0,"28"0,-22 0,4 0,-6 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1">9627 36263,'0'0,"10"-9,-4 7,6 2,-6 0,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6805 36816,'0'0,"16"-10,-12 8,4-1,-2 3,2 0,-6 0,6 5,-4-1,0 2,-4-5,0 6,0 1,-4-4,0 0,-4 4,6-8,2 3,-4-3,4 2,4-2,-2 0,10 5,-6-3,0 4,0 2,2 1,0-1,-2 1,2 1,-6-1,-2-3,0 1,0-3,0 3,-8-7,0 0,4 7,-8-7,6 0,-4 0,-4 0,8 0,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4194 36883,'0'0,"-8"0,4 6,0 7,-2 1,0 7,-2 13,2 11,0-1,6-2,0-17,8-1,0-7,0-6,10 7,-2-2,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5339 36891,'0'0,"-8"0,0 3,3 3,-1-2,0 4,2-1,0-1,1 5,3-6,0 2,0-2,3 1,5 2,0 0,3-2,3 2,-2 3,0 1,-2 0,-2 4,-2 0,-6-4,0-2,-6 6,0-8,2 0,-8-6,2 4,-2-6,0 0,1 0,3-2,0-4,3 1,1-4,2 1,2-4,0 4,2-4,2 4,5-5,1 2,-4 3,5 0,-3 4,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6489 36919,'0'0,"30"-15,-18 15,-2 0,1 8,3-2,-6-1,0 4,-2-4,-2 8,-4-10,0 9,0-8,-4 4,-2-4,-6 0,4 0,-2-4,-3 2,5-2,-4 0,8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4765 36918,'0'0,"12"37,-4-23,2 6,2 1,-2 2,2 0,0 1,0 1,-4-3,0 3,-4-5,-4 11,-12-13,6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6495 36919,'0'0,"0"18,2-5,0-8,-2 7,8 0,-8 0,6-1,-4-1,-2-1,0-2,2 0,-2-5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6670 36936,'0'0,"6"31,-6-21,0-2,0 3,0-1,0 0,6-5,-4 0,2 2,0-5,4 3,-4-5,4 0,-2 0,2 0,-2 0,2 0,3-5,-7 5,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5606 37006,'0'0,"34"0,-22 0,0 0,0 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4270 37040,'0'0,"0"18,2-10,-1 2,1 2,-2-2,2-1,2 2,-4-6,0 1,6-1,-4-5,-2-9,0 2,0-1,0 1,0 0,-2-7,2 2,0 6,0 0,0 0,0 0,2 0,2 6,0 0,-4 0,7 0,1 8,-6 0,6 4,0-2,-2 2,-3 1,3-6,-4 1,0-3,0-3,-2-2,0-7,0-1,0-4,0 2,0-8,0 8,0 2,4-4,-2 7,0-2,2 7,0 0,-2 0,2 5,2 2,-4 1,4 0,0 2,-2 0,8 4,-6-1,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4475 37078,'0'0,"-4"34,4-21,0-4,0 2,0-5,4-3,-4-3,2-3,2-5,-4-1,0-5,0 4,0-4,0-4,0 8,0-4,0 6,0 2,2-1,-2 4,0 1,4 2,0 0,-2 0,4 5,1 2,-1 5,-2-4,5 0,-1 6,2 0,0-3,-2 0,2 5,-4-7,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4693 37052,'0'0,"-36"34,28-18,2-8,0 7,6-3,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4621 37056,'0'0,"34"32,-20-24,-4 1,4 4,-8-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6112 37056,'0'0,"16"0,-12 0,5 0,-3 0,2 2,2 0,0-2,8 0,-2 4,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5660 37068,'0'0,"27"-4,-17 4,2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4497 37110,'0'0,"40"-3,-28 3,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6383 37164,'826'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6399 37339,'0'0,"-16"19,12-12,-4-2,6-1,-4 4,2 0,0-8,4 4,-2-4,2 3,6-3,-2 0,4 0,0-3,0-1,0 4,0 0,2 0,-2 0,-1 0,1 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6548 37365,'0'0,"-9"-5,7 10,-2-3,2 3,2-3,0-2,0 8,2-8,6 0,-1 0,-3 0,2 0,4-6,-8 4,4-2,-2 1,-2-6,-2 5,0 2,0-2,-6 2,0-3,2 5,-4 0,2 0,2 0,-3 0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6976 37350,'0'0,"32"-4,-22-1,4 5,-4 0,0 0,2 0,0 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6746 37354,'0'0,"27"-4,-13 4,-4 0,2 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6428 37354,'0'0,"10"28,-8-14,2-2,-2 1,0-2,0-1,4 3,-2-3,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7032 37358,'0'0,"4"34,-2-23,2-1,-2 0,0-1,2-1,2 0,-2-2,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6753 37382,'0'0,"4"26,-4-21,0 3,8-1,-4-3,0 0,-2 4,4-4,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6588 37403,'0'0,"-20"18,20-13,0 5,0-4,2 0,4 1,2-1,-2-6,4 4,2-4,-4 0,0-4,0-2,-2-3,-4-1,2 2,-4 1,0-1,-6 0,0 3,-2-1,-2 4,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6797 37405,'0'0,"32"0,-26 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6815 37471,'0'0,"34"0,-18 0,-10 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7054 37475,'0'0,"26"0,-12 0,-4 0,6 0,-2 0,0 0,3-2,-5 2,0-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2290,44 +2290,44 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31261 52694,'0'0,"16"32,0-15,-1 13,3 1,-2 7,2 16,0 22,-2-16,-8 4,-4-7,-4-17,-2 3,-10 6,-6-4,-22 7,12-12,-3-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31261 52762,'0'0,"0"7,-6 5,2 1,-4 0,-2 2,-2 3,10-4,-6 1,4-2,2-2,2-8,0 1,0 1,6-5,-4-5,6-2,0-2,0-6,-2 6,2-7,-2-4,-2 3,6-1,-4-2,0 3,4 1,-10 4,7 1,-5 4,-2 3,2 4,0 0,0 0,2 0,-2 0,8 0,-2 0,2 0,-2 9,2-7,0 3,0 1,-2-4,2 2,-4 0,2-2,0 1,-2-1,2 0,-1 0,3 3,-2-3,-4-2,4 2,-6 2,-2-2,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30767 52750,'0'672</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">28253 52921,'0'0,"-8"32,14-23,0-3,0 0,0-1,0-2,4-3,-2 0,2 0,1 0,-5-8,0-2,0 1,-4 1,0 2,-2 1,0 0,0-1,-10 4,4 0,0 0,-5 2,3 0,4 0,-2 0,2 6,-2 3,2-2,2-1,0 2,2 5,0-6,6 0,6 0,-2-3,5-4,-5 0,-4 0,4 0,-3-7,-7 0,0-4,0-2,0 5,0-2,-9 4,1 0,0 2,-5 2,7 2,0 0,-2 0,6 2,-4 11,2-6,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30435 53015,'0'0,"0"-26,0 19,0 0,2 4,-2-1,0-2,0 3,0 1,0-2,-2 4,0 6,-2 3,-2 0,6 3,0 0,0 0,0-1,0-7,6 4,0-2,6-1,-2-5,0 0,2 0,-4 0,0-11,-2 3,0-2,-6-1,0-7,0 9,0-3,-6-1,-2 1,-2 5,2 2,0 1,0 4,0 0,0 0,0 9,-4-2,6 5,4 1,-4-1,4 5,2-7,0 5,2-7,10 2,-4-3,4-5,-2-2,0 0,-2 0,2-7,-6-1,2-2,-6-7,0 7,0-5,0 3,-6 4,-2 1,-2 1,2 6,-2 0,0 0,2 10,2-1,4 0,-2 3,4-4,0 2,6-4,6-1,0 1,2-6,4 0,-4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32832 52951,'0'0,"68"-20,-48 20,-2 5,1 0,-11 3,-2 2,-6 1,0 1,-10 1,-2-1,-3 1,-1-5,2-2,6-2,2-2,2 5,0-7,10 0,4 0,2 0,2 0,0 0,1 0,-3 4,4 8,-8-2,0 7,-2 0,-4-4,-2 6,0-5,-2-1,-12 3,-2-3,0-5,-5-2,5 1,6-3,0 0,6-4,8 0,6 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32534 52955,'0'0,"-15"-10,11 10,2 8,-4 3,2-1,2-2,0 1,2-1,0 4,0-3,8-5,2-3,3-1,-1 0,0 0,-2-10,-2 2,-4-2,0 2,-4-4,0 3,0 3,-6-3,-2 7,-2-4,2 4,-2 2,2 0,1 0,-1 0,6 0,-4 8,4-4,2 9,0-7,0 2,10-1,-2 1,7 0,-5-6,2 0,-4-2,-2 0,0 0,-6-4,0-2,-8 4,2-6,0 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32824 52982,'0'0,"12"81,-10-59,6 4,-2-2,-2-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27629 53073,'0'0,"-4"70,4-47,0 0,0-3,0 1,0-6,0-4,2-5,4 1,-4-7,2-7,-2-7,0-4,2-7,-2 0,0-4,0-4,-2 1,4 5,-2 6,-2 5,0 3,0 5,4 4,-4 2,4 0,0 2,0 0,3 4,-1 10,6 5,2 2,-2 7,8-2,-2 0,4 1,4-3,-8 1,1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27677 53182,'0'0,"69"-33,-43 33,0-4,-4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30953 53153,'0'0,"-2"-4,2 8,2 1,8 9,-2 5,2-1,-2 5,6-3,-6-1,0-1,-2-7,-6-3,2 1,4-5,-4-4,0 0,2-8,-4-5,4 0,-2-3,1-7,3 7,-6-4,4 5,-2 5,0-1,4 7,2 0,0 4,0 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">31635 53245,'0'0,"0"-13,0 19,0 8,0 5,0-1,-4 1,4 6,-2 0,2 1,0-8,0 2,0-10,2 1,4-9,-4-2,0-2,4-9,-6 0,2-8,-2 1,2-6,-2-3,0 2,0-2,0 4,0 8,0 4,0 7,0 0,-2 8,2 6,0 4,0 5,0 1,2 4,6-2,-2-1,0-7,0 2,2-6,-6-6,4-2,-4-2,2 0,0-6,0-8,4-2,-2-7,2 2,-2-3,-2 5,2-2,0 7,-6 4,0 6,2 4,2 6,-2 8,0 0,4 5,-2 0,-2 1,6 1,-8 2,2-3,3 1,-1-6,-2 4,0-7,2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30479 53368,'0'0,"0"-53,0 46,0 1,0 0,-10 6,0 0,-6 0,2 4,2 5,-2 10,0-6,8 12,0-3,6 1,0-2,4-4,6 1,8-4,2-8,8-4,-2-2,2 0,0-14,-3 6,-7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30683 53432,'0'0,"14"15,-10-1,-2 0,2 3,4-1,-4-4,6 0,-6-5,2-1,2-1,0-5,-4 0,0 0,2-11,2 0,-6-4,4-2,0-4,-2 5,5 0,-3 5,-4 1,3 9,-3-5,0 6,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26758 54238,'0'0,"2"13,-2 0,4 4,0-1,2 13,-2-7,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27240 54249,'0'0,"12"50,-8-33,-2 4,0 0,0-1,2 2,-2-5,0 0,4-1,0-4,0-6,4-1,-2-3,2-2,0 0,0-2,2-3,-1 1,-1 0,-2-2,0 2,-2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26996 54392,'0'0,"0"-3,0 6,0 3,0 2,2 5,0 0,0 3,2 0,-2 1,2-5,0-3,2-1,-2-6,0-2,0 0,2-2,0-4,1-5,-5-1,0 4,0-1,-2 5,0-2,0 4,2 2,0 2,2 6,0-6,4 7,2-7,4 2,-1-2,1-2,0 0,-4 0,-2 0,-4 0,-2-6,-2-1,0-1,0-4,-2 1,-4-1,-2-3,2 3,-2 3,6-2,-4 5,4 4,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26736 54475,'0'0,"54"-21,-34 11,8-4,1 1,-9 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26828 54579,'0'0,"10"-10,0 9,3-7,-3 4,-2-1,0 5,-2 0,-4 0,-2 7,0 3,0 1,-4 4,0-1,-2-1,2-1,-2 1,6-4,-8 1,6 0,-3-4,3 2,2-3,0-3,7-2,3 0,-2 0,0 0,4-2,-2-3,0-3,-2 6,2-2,2-4,-6 1,2 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30170 55664,'0'0,"14"48,-12-30,-1-4,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30367 55847,'0'0,"20"44,-20-30,0 0,0 1,2-5,2 1,-2-3,0-2,2-2,-2-4,4 0,2 0,-4 0,8-8,-6 2,4 0,-4-1,4 1,0 6,-4 0,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30152 55913,'0'0,"58"-41,-46 39,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30204 56032,'0'0,"6"-11,0 9,-4 0,6-2,-2 4,-2-2,4 2,-2 0,-2 0,2 2,-2 4,0-2,0-1,-2 6,0 1,-2-2,0 7,-4-1,-2 3,-2-5,0 1,8-3,-4-2,2-3,2-1,2-4,2 0,4 0,2-4,-4-1,4 1,0-4,2 4,-3 0,-1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32938 56017,'0'0,"8"-2,-7 10,1 1,0 4,2 1,-2 1,2 10,-2-4,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">33493 56111,'0'0,"6"59,-6-36,2-2,0-1,0-1,-2 0,7-4,-5-4,6-5,-2-4,2 4,2-6,2 0,0 0,0 0,2-6,-4 6,-2 0,4 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32739 56113,'0'0,"8"0,-6 0,10 0,-4 0,3 0,-1 0,10 0,-8 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">33220 56212,'0'0,"-2"11,2 0,0 0,4 4,-4-1,4-1,0 0,0-5,2 1,0-3,2-4,-2-2,3 0,-1-6,-4-7,0-1,-4 0,2 0,-2-1,0 8,0 3,0 0,-2 4,2 0,0 8,0 1,0 0,6 1,2-2,6-2,-3 0,5-4,-6 4,2-6,-4 0,0 0,-4 0,0-9,0-2,-4-1,0-1,-4 0,0-2,-4 5,2 3,0 0,0 1,-2 0,8 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32936 56264,'0'0,"51"-15,-33 15,-3-2,-3 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32959 56428,'0'0,"50"-24,-35 18,-5 6,0 0,-4 0,-4 0,-2 6,0 8,-8-6,-2 5,-4 4,-1-5,5 1,0-5,4 0,6 0,4-8,6 0,2 0,0 0,5 0,-1 0,-2 0,14 0,-6 0,-6-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32848 58387,'0'0,"26"-9,-20 7,4-2,-2 4,-2 0,-2 0,2 6,-6 3,0 1,0-2,0 4,0-2,-6-2,2 3,0-7,2 1,2-3,0-2,2 0,6 0,2-2,0 0,-2-1,5 3,1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32006 58387,'0'0,"0"-6,0 3,2 3,2 5,-2 5,0 2,0 4,4-2,-4 4,3 5,-5-1,7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32676 58450,'0'0,"8"0,-4 3,-4 5,0 7,0-1,0 4,0 1,0-2,0 1,2 1,2-7,-1 1,1-3,0-6,6 0,-6-4,4 0,2 0,-4 0,0-4,2 4,-2-4,0 2,5 2,-5-4,4 4,-2-4,2-1,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32368 58579,'0'0,"0"2,0 6,2 4,-2 5,0-1,0 0,6 5,-2-11,4 5,-2-7,6-6,-4 2,2-4,0-4,-6-4,0-5,2 2,-6 0,0-2,0 1,0 5,-6 2,4 5,0 0,-2 0,4 8,4 0,4 0,0 5,2-5,2-5,1 4,3-5,0-2,-5 0,3 0,-6-9,0 2,-8-10,0 1,0 0,-8-3,-2 1,-2 3,5 4,-1 0,2 5,0 3,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30491 59131,'0'0,"-6"0,12-4,4-3,2 1,6-3,7-5,7-3,0 2,1-2,-1 7,-10 2,-6 8,-6 0,-8 8,-2 8,0 1,0 1,-4-2,-2-3,4-2,2-3,0-3,12-5,4-9,2-6,6-4,6-6,2-3,14-9,10-7,18-11,12-1,2 3,7 8,-11 5,3 2,-14 4,-18 8,-17 11,-16 5,-10 4,-8 4,-4-5,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32002 58626,'0'0,"48"-23,-32 17,7 2,-1 0,0-2,4 6,-2-2,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32133 58723,'0'0,"0"-17,-4 17,0 0,0 4,-4 3,0-1,2 2,-2 4,4-1,0-2,4 2,0-3,6-4,2-1,2-3,4 0,-2-2,2-7,-2-2,-4 0,-4 1,-2-5,-2 7,-2 2,-4 6,-6 0,-2 0,4 6,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32165 58825,'0'0,"-20"23,12-14,2 5,4-2,-4 2,4-7,2 6,0-5,8-2,0-3,4-3,4 0,0 0,0-9,-6-3,-2-4,0 0,-8 0,0 1,0 3,-4 1,-4 5,-2 2,8 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">30453 59074,'0'0,"28"-6,-26 6,0 0,0 0,-2 4,0 2,0 3,-2 1,-2 3,-4-5,2 5,-2-2,0-1,6-3,-4 0,2-3,2 2,2-6,6 0,4 0,4 0,-2 0,0 0,6 0,-2 0,0-6,-1 4,-3 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31265 52694,'0'0,"16"33,0-16,-1 14,3 0,-2 8,2 16,0 23,-2-17,-8 5,-4-8,-4-17,-2 3,-10 6,-6-4,-22 7,12-12,-3-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31265 52763,'0'0,"0"8,-6 4,2 1,-4 0,-2 3,-2 2,10-4,-6 2,4-3,2-2,2-8,0 1,0 2,6-6,-4-6,6-1,0-2,0-6,-2 6,2-8,-2-3,-2 2,6 0,-4-2,0 2,4 2,-10 4,7 0,-5 5,-2 3,2 4,0 0,0 0,2 0,-2 0,8 0,-2 0,2 0,-2 9,2-7,0 4,0 0,-2-4,2 2,-4 0,2-2,0 1,-2-1,2 0,-1 0,3 3,-2-3,-4-2,4 2,-6 2,-2-2,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30771 52751,'0'687</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28254 52926,'0'0,"-8"33,14-24,0-3,0 0,0-1,0-2,4-3,-2 0,2 0,1 0,-5-8,0-2,0 1,-4 0,0 3,-2 1,0 0,0-1,-10 4,4 0,0 0,-5 2,3 0,4 0,-2 0,2 6,-2 3,2-2,2-1,0 3,2 4,0-6,6 0,6 0,-2-3,5-4,-5 0,-4 0,4 0,-3-7,-7 0,0-4,0-2,0 4,0-1,-9 4,1 0,0 2,-5 2,7 2,0 0,-2 0,6 2,-4 11,2-6,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30438 53022,'0'0,"0"-27,0 20,0 0,2 4,-2-1,0-2,0 3,0 1,0-2,-2 4,0 6,-2 3,-2 0,6 3,0 1,0-1,0-1,0-7,6 4,0-2,6 0,-2-6,0 0,2 0,-4 0,0-12,-2 4,0-2,-6-1,0-8,0 10,0-3,-6-1,-2 0,-2 6,2 2,0 1,0 4,0 0,0 0,0 9,-4-2,6 6,4 0,-4-1,4 6,2-8,0 5,2-7,10 2,-4-2,4-6,-2-2,0 0,-2 0,2-8,-6 0,2-2,-6-7,0 7,0-6,0 4,-6 4,-2 1,-2 0,2 7,-2 0,0 0,2 11,2-2,4 0,-2 3,4-3,0 1,6-4,6-1,0 1,2-6,4 0,-4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32837 52957,'0'0,"68"-21,-48 21,-2 5,1 0,-11 3,-2 3,-6 0,0 1,-10 1,-2 0,-3 0,-1-5,2-2,6-2,2-2,2 6,0-8,10 0,4 0,2 0,2 0,0 0,1 0,-3 4,4 8,-8-2,0 7,-2 1,-4-5,-2 7,0-6,-2-1,-12 3,-2-2,0-6,-5-2,5 1,6-3,0 0,6-4,8 0,6 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32539 52961,'0'0,"-15"-11,11 11,2 9,-4 2,2-1,2-2,0 1,2 0,0 3,0-3,8-5,2-3,3-1,-1 0,0 0,-2-10,-2 2,-4-2,0 1,-4-3,0 3,0 3,-6-3,-2 7,-2-5,2 5,-2 2,2 0,1 0,-1 0,6 0,-4 9,4-5,2 9,0-7,0 2,10-1,-2 2,7-1,-5-6,2 0,-4-2,-2 0,0 0,-6-4,0-2,-8 4,2-7,0 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32829 52988,'0'0,"12"83,-10-61,6 5,-2-3,-2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27630 53081,'0'0,"-4"72,4-49,0 1,0-4,0 1,0-5,0-5,2-5,4 1,-4-7,2-7,-2-7,0-5,2-6,-2-1,0-3,0-5,-2 1,4 6,-2 5,-2 6,0 3,0 5,4 4,-4 1,4 1,0 2,0 0,3 5,-1 9,6 5,2 3,-2 6,8-1,-2-1,4 2,4-4,-8 2,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27678 53192,'0'0,"69"-33,-43 33,0-4,-4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30957 53163,'0'0,"-2"-4,2 8,2 1,8 9,-2 6,2-2,-2 6,6-4,-6-1,0 0,-2-8,-6-3,2 1,4-5,-4-4,0 0,2-8,-4-5,4 0,-2-4,1-6,3 7,-6-5,4 6,-2 5,0-2,4 8,2 0,0 4,0 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31639 53257,'0'0,"0"-13,0 19,0 8,0 5,0 0,-4 0,4 7,-2-1,2 2,0-9,0 3,0-11,2 1,4-9,-4-2,0-2,4-9,-6 0,2-9,-2 2,2-7,-2-2,0 1,0-1,0 3,0 9,0 4,0 6,0 1,-2 8,2 7,0 3,0 5,0 2,2 3,6-1,-2-2,0-6,0 1,2-6,-6-6,4-2,-4-2,2 0,0-6,0-8,4-3,-2-6,2 2,-2-4,-2 6,2-3,0 8,-6 4,0 6,2 4,2 6,-2 8,0 0,4 6,-2-1,-2 2,6 0,-8 2,2-2,3 0,-1-5,-2 3,0-7,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30482 53382,'0'0,"0"-54,0 47,0 1,0 0,-10 6,0 0,-6 0,2 4,2 5,-2 11,0-7,8 12,0-2,6 0,0-1,4-5,6 2,8-5,2-8,8-4,-2-2,2 0,0-14,-3 6,-7-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30686 53448,'0'0,"14"15,-10-1,-2 1,2 2,4-1,-4-3,6-1,-6-5,2-1,2-1,0-5,-4 0,1 0,1-11,2 0,-6-4,4-3,0-3,-2 4,5 1,-3 5,-4 1,3 9,-3-6,0 7,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26758 54271,'0'0,"2"13,-2 1,4 3,0-1,2 14,-2-8,2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27240 54282,'0'0,"12"51,-8-33,-2 3,0 1,0-2,2 3,-2-6,0 0,4 0,0-5,0-6,4-1,-2-3,3-2,-1 0,0-2,2-3,-1 1,-1 0,-2-2,0 2,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26996 54428,'0'0,"0"-3,0 6,0 4,0 1,2 5,0 0,0 4,2-1,-2 1,2-4,0-4,2-1,-2-6,0-2,0 0,2-2,0-4,1-5,-5-2,0 5,0-1,-2 5,0-2,0 4,2 2,0 2,2 6,0-6,4 7,2-7,4 2,-1-2,1-2,0 0,-4 0,-2 0,-4 0,-2-6,-2-1,0-1,0-4,-2 0,-4 0,-2-3,2 3,-2 2,6-1,-4 5,4 4,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26736 54513,'0'0,"54"-21,-34 11,8-5,1 2,-9 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26828 54619,'0'0,"10"-10,0 9,3-7,-3 4,-2-1,0 5,-2 0,-4 0,-2 7,0 3,0 1,-4 5,0-2,-2-1,2 0,-2 0,6-4,-8 1,6 0,-3-3,3 1,2-3,0-3,7-2,3 0,-2 0,0 0,4-2,-2-3,0-3,-2 6,2-3,2-3,-6 1,2 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30173 55728,'0'0,"14"49,-12-31,-1-4,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30370 55915,'0'0,"20"45,-20-31,0 0,0 1,2-4,2 0,-2-3,0-2,2-2,-2-4,4 0,2 0,-4 0,8-8,-6 2,4 0,-4-1,4 1,0 6,-4 0,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30155 55982,'0'0,"58"-42,-46 40,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30207 56104,'0'0,"6"-12,0 10,-4 0,6-2,-2 4,-2-2,4 2,-2 0,-2 0,2 2,-2 4,0-2,0-1,-2 7,0 0,-2-2,0 7,-4 0,-2 2,-2-5,0 2,8-4,-4-2,2-3,2-1,2-4,2 0,4 0,2-4,-4-1,4 1,0-4,2 4,-3 0,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32943 56088,'0'0,"8"-2,-7 10,1 2,0 3,2 1,-2 1,2 11,-2-5,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33499 56184,'0'0,"6"61,-6-38,2-2,0 0,0-2,-2 1,7-5,-5-4,6-5,-2-4,2 5,2-7,2 0,0 0,0 0,2-7,-4 7,-2 0,4 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32744 56186,'0'0,"8"0,-6 0,10 0,-4 0,3 0,-1 0,10 0,-8 0,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33226 56287,'0'0,"-2"12,2-1,0 0,4 4,-4 0,4-2,0 0,0-5,2 2,0-4,2-4,-2-2,3 0,-1-6,-4-8,0 0,-4 0,2 0,-2-2,0 9,0 3,0 0,-2 4,2 0,0 8,0 1,0 0,6 2,2-3,6-2,-3 0,5-4,-6 4,2-6,-4 0,0 0,-4 0,0-9,0-2,-4-1,0-2,-4 1,0-2,-4 4,2 4,0 0,0 1,-2 0,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32941 56341,'0'0,"51"-16,-33 16,-3-2,-3 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32964 56508,'0'0,"50"-24,-35 17,-5 7,0 0,-4 0,-4 0,-2 7,0 7,-8-6,-2 5,-4 5,-1-6,5 1,0-5,4 1,6-1,4-8,6 0,2 0,0 0,5 0,-1 0,-1 0,13 0,-6 0,-6-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32853 58509,'0'0,"26"-9,-20 7,4-2,-2 4,-2 0,-2 0,2 6,-6 3,0 1,0-2,0 5,0-3,-6-2,2 3,0-7,2 2,2-4,0-2,2 0,6 0,2-2,0-1,-2 0,5 3,1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32011 58509,'0'0,"0"-6,0 3,2 3,2 5,-2 5,0 2,0 5,4-3,-4 4,3 6,-5-2,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32681 58573,'0'0,"8"0,-4 3,-4 6,0 6,0-1,0 5,0 0,0-2,0 2,2 0,2-7,-1 2,1-4,0-6,6 0,-6-4,4 0,2 0,-4 0,0-4,2 4,-2-4,0 2,5 2,-5-4,4 4,-2-4,2-1,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32373 58705,'0'0,"0"2,0 6,2 5,-2 4,0-1,0 1,6 4,-2-11,4 6,-2-8,6-6,-4 2,2-4,0-4,-6-4,0-6,2 3,-6 0,0-2,0 0,0 6,-6 2,4 5,0 0,-2 0,4 8,4 1,4-1,0 5,2-5,2-5,1 4,3-5,0-2,-5 0,3 0,-6-9,0 2,-8-10,0 0,0 1,-8-3,-2 0,-2 4,5 4,-1-1,2 6,0 3,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30494 59269,'0'0,"-6"0,12-4,4-3,2 1,6-4,7-4,7-3,0 1,1-1,-1 7,-10 2,-6 8,-6 0,-8 8,-2 8,0 2,0 0,-4-2,-2-2,4-3,2-3,0-3,12-5,4-9,3-6,5-5,6-5,2-4,14-9,10-7,18-11,12-1,2 3,7 8,-11 5,3 2,-14 4,-18 9,-17 11,-16 4,-10 5,-8 4,-4-5,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32007 58753,'0'0,"48"-23,-32 17,7 1,-1 1,0-2,4 6,-2-2,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32138 58852,'0'0,"0"-17,-4 17,0 0,0 4,-4 3,0-1,2 2,-2 5,4-2,0-2,4 2,0-2,6-5,2-1,2-3,4 0,-2-2,2-8,-2-1,-4 0,-4 1,-2-6,-2 8,-2 2,-4 6,-6 0,-2 0,4 6,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32170 58956,'0'0,"-20"24,12-15,2 5,4-1,-4 1,4-7,2 6,0-4,8-3,0-3,4-3,4 0,0 0,0-9,-6-4,-2-3,0 0,-8-1,0 2,0 3,-4 0,-4 6,-2 2,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30456 59211,'0'0,"28"-6,-26 6,0 0,0 0,-2 4,0 2,0 3,-2 1,-2 4,-4-6,2 5,-2-2,0-1,6-2,-4-1,2-3,2 2,2-6,6 0,4 0,4 0,-2 0,0 0,6 0,-2 0,0-6,-1 4,-3 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3053,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770A6D2D-AB64-4CB7-950D-CBC4190FB579}">
   <dimension ref="B4:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC663C3-7309-480C-8450-91D7F4817F10}">
   <dimension ref="B4:R24"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
